--- a/VersionRecords/Version 5.4.0 20170420/版本Bug和特性计划及评审表v5.4.0.xlsx
+++ b/VersionRecords/Version 5.4.0 20170420/版本Bug和特性计划及评审表v5.4.0.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14560"/>
+    <workbookView xWindow="30180" yWindow="3220" windowWidth="25600" windowHeight="14560"/>
   </bookViews>
   <sheets>
     <sheet name="01 版本X.X.X 新特性|Fix Bug" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="317" uniqueCount="138">
   <si>
     <t>No</t>
   </si>
@@ -343,12 +343,345 @@
     <t>partner，partnerpc，papp，renterembed</t>
     <phoneticPr fontId="24" type="noConversion"/>
   </si>
+  <si>
+    <t>不紧急</t>
+  </si>
+  <si>
+    <t>PAPP企业版和市场版都接受推送消息</t>
+    <rPh sb="0" eb="1">
+      <t>tui'f</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>di'san'b</t>
+    </rPh>
+    <phoneticPr fontId="24" type="noConversion"/>
+  </si>
+  <si>
+    <t>mogoroom-messages</t>
+    <phoneticPr fontId="24" type="noConversion"/>
+  </si>
+  <si>
+    <t>冯银鹏</t>
+    <rPh sb="0" eb="1">
+      <t>g'b'ww'hhan'mei'j</t>
+    </rPh>
+    <phoneticPr fontId="24" type="noConversion"/>
+  </si>
+  <si>
+    <t>架构组</t>
+  </si>
+  <si>
+    <t>许倩</t>
+    <rPh sb="0" eb="1">
+      <t>s'cw'y'f</t>
+    </rPh>
+    <phoneticPr fontId="24" type="noConversion"/>
+  </si>
+  <si>
+    <t>TOPT-1280</t>
+    <phoneticPr fontId="24" type="noConversion"/>
+  </si>
+  <si>
+    <t>读写分离、ip数据库地址记录日志</t>
+    <phoneticPr fontId="24" type="noConversion"/>
+  </si>
+  <si>
+    <t>renter ,renterpc, renter服务窗, teleapi, partner, parnerpc, partner-papp, bs, payapi, messages,mogotasktracker,mogoda-tasktracker,openapi,rentertp</t>
+    <phoneticPr fontId="24" type="noConversion"/>
+  </si>
+  <si>
+    <t>宋伟</t>
+    <phoneticPr fontId="24" type="noConversion"/>
+  </si>
+  <si>
+    <t>永余</t>
+    <phoneticPr fontId="24" type="noConversion"/>
+  </si>
+  <si>
+    <t>TOPT-888
+TOPT-948</t>
+    <phoneticPr fontId="24" type="noConversion"/>
+  </si>
+  <si>
+    <t>架构组</t>
+    <phoneticPr fontId="24" type="noConversion"/>
+  </si>
+  <si>
+    <t>mogoroom-messages</t>
+    <phoneticPr fontId="24" type="noConversion"/>
+  </si>
+  <si>
+    <t>/systemconfig.properties</t>
+    <phoneticPr fontId="24" type="noConversion"/>
+  </si>
+  <si>
+    <t>新增</t>
+  </si>
+  <si>
+    <t>sysconfig.pappMarket_masterSecret=d0f9bf32beb475d4f784e453
+sysconfig.pappMarket_appkey=29b5938859873b1c407f4efb</t>
+    <phoneticPr fontId="24" type="noConversion"/>
+  </si>
+  <si>
+    <t>push推送新增渠道</t>
+    <phoneticPr fontId="24" type="noConversion"/>
+  </si>
+  <si>
+    <t>冯银鹏</t>
+    <phoneticPr fontId="24" type="noConversion"/>
+  </si>
+  <si>
+    <t>朱拱平</t>
+    <phoneticPr fontId="24" type="noConversion"/>
+  </si>
+  <si>
+    <t>生产环境</t>
+  </si>
+  <si>
+    <t>野帝</t>
+    <phoneticPr fontId="24" type="noConversion"/>
+  </si>
+  <si>
+    <t>release_5.4.0</t>
+    <phoneticPr fontId="24" type="noConversion"/>
+  </si>
+  <si>
+    <t>PAPP</t>
+    <phoneticPr fontId="24" type="noConversion"/>
+  </si>
+  <si>
+    <t>/conf/systemconfig.properties</t>
+    <phoneticPr fontId="24" type="noConversion"/>
+  </si>
+  <si>
+    <t>#PAPP的Token验证跳过(生成环境配置一定为false或不配置，一定！一定！一定！一定！一定！一定！！！！！！)
+sysconfig.pappAuthPast=false</t>
+    <phoneticPr fontId="24" type="noConversion"/>
+  </si>
+  <si>
+    <t>PAPP跳过数据身份验证开关</t>
+    <phoneticPr fontId="24" type="noConversion"/>
+  </si>
+  <si>
+    <t>黄展明</t>
+    <phoneticPr fontId="24" type="noConversion"/>
+  </si>
+  <si>
+    <t>卢现升</t>
+    <phoneticPr fontId="24" type="noConversion"/>
+  </si>
+  <si>
+    <t>财务提现列表导出功能</t>
+    <rPh sb="0" eb="1">
+      <t>tui'f</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>di'san'b</t>
+    </rPh>
+    <phoneticPr fontId="24" type="noConversion"/>
+  </si>
+  <si>
+    <t>BS</t>
+    <phoneticPr fontId="24" type="noConversion"/>
+  </si>
+  <si>
+    <t>张浩</t>
+    <rPh sb="0" eb="1">
+      <t>g'b'ww'hhan'mei'j</t>
+    </rPh>
+    <phoneticPr fontId="24" type="noConversion"/>
+  </si>
+  <si>
+    <t>磐石组</t>
+  </si>
+  <si>
+    <t>杨恒</t>
+    <rPh sb="0" eb="1">
+      <t>s'cw'y'f</t>
+    </rPh>
+    <phoneticPr fontId="24" type="noConversion"/>
+  </si>
+  <si>
+    <t>PM-1361</t>
+  </si>
+  <si>
+    <t>BS</t>
+    <phoneticPr fontId="24" type="noConversion"/>
+  </si>
+  <si>
+    <t>批量修改出租状态</t>
+    <rPh sb="0" eb="1">
+      <t>pi'liang</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>xiu'gai</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>chu'zu</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>zhuagn'tai</t>
+    </rPh>
+    <phoneticPr fontId="24" type="noConversion"/>
+  </si>
+  <si>
+    <t>partnerpc</t>
+    <phoneticPr fontId="24" type="noConversion"/>
+  </si>
+  <si>
+    <t>重楼</t>
+    <rPh sb="0" eb="1">
+      <t>chong'l</t>
+    </rPh>
+    <phoneticPr fontId="24" type="noConversion"/>
+  </si>
+  <si>
+    <t>马丁组</t>
+  </si>
+  <si>
+    <t>依米</t>
+    <rPh sb="0" eb="1">
+      <t>yi'mi</t>
+    </rPh>
+    <phoneticPr fontId="24" type="noConversion"/>
+  </si>
+  <si>
+    <t>PM-1079</t>
+    <phoneticPr fontId="24" type="noConversion"/>
+  </si>
+  <si>
+    <t>房源相关去除定金不能大于或等于押金效验</t>
+    <rPh sb="0" eb="1">
+      <t>fang'y</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>xiang'g</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>qu'chu</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>ding'jin</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>bu'neng</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>da'yu</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>huo</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>deng'yu</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>ya'jin</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>xiao'yan</t>
+    </rPh>
+    <phoneticPr fontId="24" type="noConversion"/>
+  </si>
+  <si>
+    <t>partner，partnerpc，renterApp，renterPC</t>
+    <phoneticPr fontId="24" type="noConversion"/>
+  </si>
+  <si>
+    <t>PM-1341</t>
+    <phoneticPr fontId="24" type="noConversion"/>
+  </si>
+  <si>
+    <t>58推广专题页优化</t>
+    <rPh sb="2" eb="3">
+      <t>tui'guang</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>zhuan'ti'ye</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>you'hua</t>
+    </rPh>
+    <phoneticPr fontId="24" type="noConversion"/>
+  </si>
+  <si>
+    <t>partnerPC</t>
+    <phoneticPr fontId="24" type="noConversion"/>
+  </si>
+  <si>
+    <t>DV-3306</t>
+    <phoneticPr fontId="24" type="noConversion"/>
+  </si>
+  <si>
+    <t>推广页面TP及58推广判断城市字段调整</t>
+    <rPh sb="0" eb="1">
+      <t>tui'guang</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ye'm</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>ji</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>tui'g</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>pan'duan</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>cheng'shi</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>zi'duan</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>tiao'zheng</t>
+    </rPh>
+    <phoneticPr fontId="24" type="noConversion"/>
+  </si>
+  <si>
+    <t>DV-3303</t>
+    <phoneticPr fontId="24" type="noConversion"/>
+  </si>
+  <si>
+    <t>BS后台房东列表的录入，编辑表单调整</t>
+    <rPh sb="2" eb="3">
+      <t>hou'tai</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>fang'dong</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>lie'b</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>de</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>lu'ru</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>bian'ji</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>biao'dan</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>tiao'zheng</t>
+    </rPh>
+    <phoneticPr fontId="24" type="noConversion"/>
+  </si>
+  <si>
+    <t>DV-3301</t>
+    <phoneticPr fontId="24" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="25" x14ac:knownFonts="1">
+  <fonts count="26" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -512,6 +845,13 @@
       <family val="3"/>
       <charset val="134"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="11"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
   </fonts>
   <fills count="10">
     <fill>
@@ -569,7 +909,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="13">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -703,19 +1043,6 @@
       <left style="medium">
         <color auto="1"/>
       </left>
-      <right/>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color auto="1"/>
-      </left>
       <right style="medium">
         <color auto="1"/>
       </right>
@@ -726,7 +1053,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="14">
+  <cellStyleXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
@@ -761,8 +1088,11 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="89">
+  <cellXfs count="93">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -958,9 +1288,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="8" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="11" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="23" fillId="6" borderId="10" xfId="8" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -970,10 +1297,10 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="10" xfId="13" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="8" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="8" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="12" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="11" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="6" borderId="10" xfId="9" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -997,6 +1324,12 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="10" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="10" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="10" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1025,13 +1358,22 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="6" borderId="10" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="10" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="12" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="10" xfId="12" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="12" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="12" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="14">
+  <cellStyles count="15">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
     <cellStyle name="常规 2" xfId="12"/>
     <cellStyle name="常规 2 2" xfId="6"/>
@@ -1046,8 +1388,9 @@
     <cellStyle name="超链接" xfId="13" builtinId="8"/>
     <cellStyle name="甘特图" xfId="3"/>
     <cellStyle name="个性色4" xfId="11" builtinId="41"/>
+    <cellStyle name="已访问的超链接" xfId="14" builtinId="9" hidden="1"/>
   </cellStyles>
-  <dxfs count="2">
+  <dxfs count="1">
     <dxf>
       <font>
         <b/>
@@ -1058,11 +1401,9 @@
         </patternFill>
       </fill>
     </dxf>
-    <dxf/>
   </dxfs>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium7">
     <tableStyle name="MySqlDefault" count="2">
-      <tableStyleElement type="wholeTable" dxfId="1"/>
       <tableStyleElement type="headerRow" dxfId="0"/>
     </tableStyle>
   </tableStyles>
@@ -1405,8 +1746,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X170"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
@@ -1516,7 +1857,7 @@
       <c r="C2" s="51" t="s">
         <v>69</v>
       </c>
-      <c r="D2" s="87" t="s">
+      <c r="D2" s="77" t="s">
         <v>70</v>
       </c>
       <c r="E2" s="58" t="s">
@@ -1538,7 +1879,7 @@
         <v>42843</v>
       </c>
       <c r="K2" s="58"/>
-      <c r="L2" s="88" t="s">
+      <c r="L2" s="78" t="s">
         <v>75</v>
       </c>
       <c r="M2" s="58" t="s">
@@ -1559,18 +1900,18 @@
       <c r="R2" s="62" t="s">
         <v>80</v>
       </c>
-      <c r="S2" s="68" t="s">
+      <c r="S2" s="67" t="s">
         <v>72</v>
       </c>
-      <c r="T2" s="68"/>
+      <c r="T2" s="67"/>
       <c r="U2" s="56"/>
-      <c r="V2" s="67"/>
-      <c r="W2" s="72"/>
-      <c r="X2" s="73"/>
+      <c r="V2" s="66"/>
+      <c r="W2" s="71"/>
+      <c r="X2" s="72"/>
     </row>
     <row r="3" spans="1:24" s="46" customFormat="1" ht="32" x14ac:dyDescent="0.15">
       <c r="A3" s="51">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B3" s="51" t="s">
         <v>68</v>
@@ -1578,7 +1919,7 @@
       <c r="C3" s="51" t="s">
         <v>69</v>
       </c>
-      <c r="D3" s="87" t="s">
+      <c r="D3" s="77" t="s">
         <v>81</v>
       </c>
       <c r="E3" s="58" t="s">
@@ -1600,7 +1941,7 @@
         <v>42843</v>
       </c>
       <c r="K3" s="58"/>
-      <c r="L3" s="88" t="s">
+      <c r="L3" s="78" t="s">
         <v>82</v>
       </c>
       <c r="M3" s="58" t="s">
@@ -1621,222 +1962,510 @@
       <c r="R3" s="62" t="s">
         <v>80</v>
       </c>
-      <c r="S3" s="68" t="s">
+      <c r="S3" s="67" t="s">
         <v>84</v>
       </c>
-      <c r="T3" s="68"/>
+      <c r="T3" s="67"/>
       <c r="U3" s="56"/>
-      <c r="V3" s="67"/>
-      <c r="W3" s="74"/>
-      <c r="X3" s="73"/>
+      <c r="V3" s="66"/>
+      <c r="W3" s="73"/>
+      <c r="X3" s="72"/>
     </row>
     <row r="4" spans="1:24" s="46" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="51"/>
-      <c r="B4" s="51"/>
-      <c r="C4" s="51"/>
-      <c r="D4" s="52"/>
-      <c r="E4" s="58"/>
-      <c r="F4" s="58"/>
-      <c r="G4" s="58"/>
-      <c r="H4" s="59"/>
-      <c r="I4" s="58"/>
-      <c r="J4" s="59"/>
+      <c r="A4" s="51">
+        <v>3</v>
+      </c>
+      <c r="B4" s="88" t="s">
+        <v>68</v>
+      </c>
+      <c r="C4" s="88" t="s">
+        <v>86</v>
+      </c>
+      <c r="D4" s="77" t="s">
+        <v>87</v>
+      </c>
+      <c r="E4" s="58" t="s">
+        <v>71</v>
+      </c>
+      <c r="F4" s="58" t="s">
+        <v>88</v>
+      </c>
+      <c r="G4" s="58" t="s">
+        <v>74</v>
+      </c>
+      <c r="H4" s="59">
+        <v>42843</v>
+      </c>
+      <c r="I4" s="58" t="s">
+        <v>74</v>
+      </c>
+      <c r="J4" s="59">
+        <v>42843</v>
+      </c>
       <c r="K4" s="58"/>
-      <c r="L4" s="62"/>
-      <c r="M4" s="58"/>
-      <c r="N4" s="58"/>
-      <c r="O4" s="58"/>
-      <c r="P4" s="62"/>
-      <c r="Q4" s="59"/>
-      <c r="R4" s="62"/>
-      <c r="S4" s="56"/>
-      <c r="T4" s="56"/>
+      <c r="L4" s="78" t="s">
+        <v>89</v>
+      </c>
+      <c r="M4" s="58" t="s">
+        <v>90</v>
+      </c>
+      <c r="N4" s="58" t="s">
+        <v>77</v>
+      </c>
+      <c r="O4" s="58" t="s">
+        <v>91</v>
+      </c>
+      <c r="P4" s="78" t="s">
+        <v>79</v>
+      </c>
+      <c r="Q4" s="59">
+        <v>42844</v>
+      </c>
+      <c r="R4" s="78" t="s">
+        <v>80</v>
+      </c>
+      <c r="S4" s="67" t="s">
+        <v>92</v>
+      </c>
+      <c r="T4" s="67"/>
       <c r="U4" s="56"/>
-      <c r="V4" s="67"/>
-      <c r="W4" s="72"/>
-      <c r="X4" s="73"/>
-    </row>
-    <row r="5" spans="1:24" s="46" customFormat="1" ht="16" x14ac:dyDescent="0.15">
-      <c r="A5" s="51"/>
-      <c r="B5" s="51"/>
-      <c r="C5" s="51"/>
-      <c r="D5" s="52"/>
-      <c r="E5" s="58"/>
-      <c r="F5" s="58"/>
-      <c r="G5" s="58"/>
-      <c r="H5" s="59"/>
-      <c r="I5" s="58"/>
-      <c r="J5" s="59"/>
+      <c r="V4" s="66"/>
+      <c r="W4" s="71"/>
+      <c r="X4" s="72"/>
+    </row>
+    <row r="5" spans="1:24" s="46" customFormat="1" ht="144" x14ac:dyDescent="0.15">
+      <c r="A5" s="51">
+        <v>4</v>
+      </c>
+      <c r="B5" s="88" t="s">
+        <v>68</v>
+      </c>
+      <c r="C5" s="88" t="s">
+        <v>86</v>
+      </c>
+      <c r="D5" s="77" t="s">
+        <v>93</v>
+      </c>
+      <c r="E5" s="58" t="s">
+        <v>71</v>
+      </c>
+      <c r="F5" s="58" t="s">
+        <v>94</v>
+      </c>
+      <c r="G5" s="58" t="s">
+        <v>74</v>
+      </c>
+      <c r="H5" s="59">
+        <v>42812</v>
+      </c>
+      <c r="I5" s="58" t="s">
+        <v>74</v>
+      </c>
+      <c r="J5" s="59">
+        <v>42843</v>
+      </c>
       <c r="K5" s="58"/>
-      <c r="L5" s="62"/>
-      <c r="M5" s="58"/>
-      <c r="N5" s="58"/>
-      <c r="O5" s="58"/>
-      <c r="P5" s="62"/>
-      <c r="Q5" s="59"/>
-      <c r="R5" s="62"/>
-      <c r="S5" s="56"/>
-      <c r="T5" s="56"/>
+      <c r="L5" s="78" t="s">
+        <v>95</v>
+      </c>
+      <c r="M5" s="58" t="s">
+        <v>90</v>
+      </c>
+      <c r="N5" s="58" t="s">
+        <v>77</v>
+      </c>
+      <c r="O5" s="58" t="s">
+        <v>96</v>
+      </c>
+      <c r="P5" s="78" t="s">
+        <v>79</v>
+      </c>
+      <c r="Q5" s="59">
+        <v>42844</v>
+      </c>
+      <c r="R5" s="78" t="s">
+        <v>80</v>
+      </c>
+      <c r="S5" s="67" t="s">
+        <v>97</v>
+      </c>
+      <c r="T5" s="67"/>
       <c r="U5" s="56"/>
-      <c r="V5" s="67"/>
-      <c r="W5" s="74"/>
-      <c r="X5" s="73"/>
+      <c r="V5" s="66"/>
+      <c r="W5" s="73"/>
+      <c r="X5" s="72"/>
     </row>
     <row r="6" spans="1:24" s="46" customFormat="1" ht="16" x14ac:dyDescent="0.15">
-      <c r="A6" s="51"/>
-      <c r="B6" s="51"/>
-      <c r="C6" s="51"/>
-      <c r="D6" s="52"/>
-      <c r="E6" s="58"/>
-      <c r="F6" s="58"/>
-      <c r="G6" s="58"/>
-      <c r="H6" s="59"/>
-      <c r="I6" s="58"/>
-      <c r="J6" s="59"/>
+      <c r="A6" s="51">
+        <v>5</v>
+      </c>
+      <c r="B6" s="88" t="s">
+        <v>68</v>
+      </c>
+      <c r="C6" s="88" t="s">
+        <v>69</v>
+      </c>
+      <c r="D6" s="77" t="s">
+        <v>115</v>
+      </c>
+      <c r="E6" s="58" t="s">
+        <v>71</v>
+      </c>
+      <c r="F6" s="58" t="s">
+        <v>121</v>
+      </c>
+      <c r="G6" s="58" t="s">
+        <v>74</v>
+      </c>
+      <c r="H6" s="59">
+        <v>42843</v>
+      </c>
+      <c r="I6" s="58" t="s">
+        <v>74</v>
+      </c>
+      <c r="J6" s="59">
+        <v>42843</v>
+      </c>
       <c r="K6" s="58"/>
-      <c r="L6" s="62"/>
-      <c r="M6" s="58"/>
-      <c r="N6" s="58"/>
-      <c r="O6" s="58"/>
-      <c r="P6" s="62"/>
-      <c r="Q6" s="59"/>
-      <c r="R6" s="62"/>
-      <c r="S6" s="56"/>
-      <c r="T6" s="56"/>
+      <c r="L6" s="78" t="s">
+        <v>117</v>
+      </c>
+      <c r="M6" s="58" t="s">
+        <v>118</v>
+      </c>
+      <c r="N6" s="58" t="s">
+        <v>77</v>
+      </c>
+      <c r="O6" s="58" t="s">
+        <v>119</v>
+      </c>
+      <c r="P6" s="78" t="s">
+        <v>79</v>
+      </c>
+      <c r="Q6" s="59">
+        <v>42843</v>
+      </c>
+      <c r="R6" s="78" t="s">
+        <v>80</v>
+      </c>
+      <c r="S6" s="67" t="s">
+        <v>120</v>
+      </c>
+      <c r="T6" s="67"/>
       <c r="U6" s="56"/>
-      <c r="V6" s="67"/>
-      <c r="W6" s="74"/>
-      <c r="X6" s="73"/>
+      <c r="V6" s="66"/>
+      <c r="W6" s="73"/>
+      <c r="X6" s="72"/>
     </row>
     <row r="7" spans="1:24" s="46" customFormat="1" ht="16" x14ac:dyDescent="0.15">
-      <c r="A7" s="51"/>
-      <c r="B7" s="51"/>
-      <c r="C7" s="51"/>
-      <c r="D7" s="52"/>
-      <c r="E7" s="58"/>
-      <c r="F7" s="58"/>
-      <c r="G7" s="58"/>
-      <c r="H7" s="59"/>
-      <c r="I7" s="58"/>
-      <c r="J7" s="59"/>
+      <c r="A7" s="51">
+        <v>6</v>
+      </c>
+      <c r="B7" s="88" t="s">
+        <v>68</v>
+      </c>
+      <c r="C7" s="88" t="s">
+        <v>69</v>
+      </c>
+      <c r="D7" s="77" t="s">
+        <v>122</v>
+      </c>
+      <c r="E7" s="58" t="s">
+        <v>71</v>
+      </c>
+      <c r="F7" s="58" t="s">
+        <v>123</v>
+      </c>
+      <c r="G7" s="58" t="s">
+        <v>74</v>
+      </c>
+      <c r="H7" s="59">
+        <v>42843</v>
+      </c>
+      <c r="I7" s="58" t="s">
+        <v>74</v>
+      </c>
+      <c r="J7" s="59">
+        <v>42843</v>
+      </c>
       <c r="K7" s="58"/>
-      <c r="L7" s="62"/>
-      <c r="M7" s="58"/>
-      <c r="N7" s="58"/>
-      <c r="O7" s="58"/>
-      <c r="P7" s="62"/>
-      <c r="Q7" s="59"/>
-      <c r="R7" s="62"/>
-      <c r="S7" s="56"/>
-      <c r="T7" s="56"/>
+      <c r="L7" s="78" t="s">
+        <v>124</v>
+      </c>
+      <c r="M7" s="58" t="s">
+        <v>125</v>
+      </c>
+      <c r="N7" s="58" t="s">
+        <v>77</v>
+      </c>
+      <c r="O7" s="58" t="s">
+        <v>126</v>
+      </c>
+      <c r="P7" s="78" t="s">
+        <v>79</v>
+      </c>
+      <c r="Q7" s="59">
+        <v>42843</v>
+      </c>
+      <c r="R7" s="78" t="s">
+        <v>80</v>
+      </c>
+      <c r="S7" s="67" t="s">
+        <v>127</v>
+      </c>
+      <c r="T7" s="67"/>
       <c r="U7" s="56"/>
-      <c r="V7" s="67"/>
-      <c r="W7" s="74"/>
-      <c r="X7" s="73"/>
-    </row>
-    <row r="8" spans="1:24" s="46" customFormat="1" ht="16" x14ac:dyDescent="0.15">
-      <c r="A8" s="51"/>
-      <c r="B8" s="51"/>
-      <c r="C8" s="51"/>
-      <c r="D8" s="52"/>
-      <c r="E8" s="58"/>
-      <c r="F8" s="58"/>
-      <c r="G8" s="58"/>
-      <c r="H8" s="59"/>
-      <c r="I8" s="58"/>
-      <c r="J8" s="59"/>
+      <c r="V7" s="66"/>
+      <c r="W7" s="73"/>
+      <c r="X7" s="72"/>
+    </row>
+    <row r="8" spans="1:24" s="46" customFormat="1" ht="32" x14ac:dyDescent="0.15">
+      <c r="A8" s="51">
+        <v>7</v>
+      </c>
+      <c r="B8" s="88" t="s">
+        <v>68</v>
+      </c>
+      <c r="C8" s="88" t="s">
+        <v>69</v>
+      </c>
+      <c r="D8" s="77" t="s">
+        <v>128</v>
+      </c>
+      <c r="E8" s="58" t="s">
+        <v>71</v>
+      </c>
+      <c r="F8" s="58" t="s">
+        <v>129</v>
+      </c>
+      <c r="G8" s="58" t="s">
+        <v>74</v>
+      </c>
+      <c r="H8" s="59">
+        <v>42843</v>
+      </c>
+      <c r="I8" s="58" t="s">
+        <v>74</v>
+      </c>
+      <c r="J8" s="59">
+        <v>42843</v>
+      </c>
       <c r="K8" s="58"/>
-      <c r="L8" s="62"/>
-      <c r="M8" s="58"/>
-      <c r="N8" s="58"/>
-      <c r="O8" s="58"/>
-      <c r="P8" s="62"/>
-      <c r="Q8" s="59"/>
-      <c r="R8" s="62"/>
-      <c r="S8" s="56"/>
-      <c r="T8" s="56"/>
+      <c r="L8" s="78" t="s">
+        <v>124</v>
+      </c>
+      <c r="M8" s="58" t="s">
+        <v>125</v>
+      </c>
+      <c r="N8" s="58" t="s">
+        <v>77</v>
+      </c>
+      <c r="O8" s="58" t="s">
+        <v>126</v>
+      </c>
+      <c r="P8" s="78" t="s">
+        <v>79</v>
+      </c>
+      <c r="Q8" s="59">
+        <v>42843</v>
+      </c>
+      <c r="R8" s="78" t="s">
+        <v>80</v>
+      </c>
+      <c r="S8" s="67" t="s">
+        <v>130</v>
+      </c>
+      <c r="T8" s="67"/>
       <c r="U8" s="56"/>
-      <c r="V8" s="67"/>
-      <c r="W8" s="74"/>
-      <c r="X8" s="73"/>
+      <c r="V8" s="66"/>
+      <c r="W8" s="73"/>
+      <c r="X8" s="72"/>
     </row>
     <row r="9" spans="1:24" s="46" customFormat="1" ht="16" x14ac:dyDescent="0.15">
-      <c r="A9" s="51"/>
-      <c r="B9" s="51"/>
-      <c r="C9" s="51"/>
-      <c r="D9" s="53"/>
-      <c r="E9" s="58"/>
-      <c r="F9" s="58"/>
-      <c r="G9" s="58"/>
-      <c r="H9" s="59"/>
-      <c r="I9" s="58"/>
-      <c r="J9" s="59"/>
+      <c r="A9" s="51">
+        <v>8</v>
+      </c>
+      <c r="B9" s="88" t="s">
+        <v>68</v>
+      </c>
+      <c r="C9" s="88" t="s">
+        <v>69</v>
+      </c>
+      <c r="D9" s="77" t="s">
+        <v>131</v>
+      </c>
+      <c r="E9" s="58" t="s">
+        <v>71</v>
+      </c>
+      <c r="F9" s="58" t="s">
+        <v>132</v>
+      </c>
+      <c r="G9" s="58" t="s">
+        <v>74</v>
+      </c>
+      <c r="H9" s="59">
+        <v>42843</v>
+      </c>
+      <c r="I9" s="58" t="s">
+        <v>74</v>
+      </c>
+      <c r="J9" s="59">
+        <v>42843</v>
+      </c>
       <c r="K9" s="58"/>
-      <c r="L9" s="62"/>
-      <c r="M9" s="58"/>
-      <c r="N9" s="58"/>
-      <c r="O9" s="58"/>
-      <c r="P9" s="62"/>
-      <c r="Q9" s="59"/>
-      <c r="R9" s="62"/>
-      <c r="S9" s="69"/>
-      <c r="T9" s="69"/>
-      <c r="U9" s="69"/>
-      <c r="V9" s="67"/>
-      <c r="W9" s="74"/>
-      <c r="X9" s="73"/>
-    </row>
-    <row r="10" spans="1:24" s="46" customFormat="1" ht="16" x14ac:dyDescent="0.15">
-      <c r="A10" s="51"/>
-      <c r="B10" s="51"/>
-      <c r="C10" s="51"/>
-      <c r="D10" s="52"/>
-      <c r="E10" s="58"/>
-      <c r="F10" s="58"/>
-      <c r="G10" s="58"/>
-      <c r="H10" s="59"/>
-      <c r="I10" s="58"/>
-      <c r="J10" s="59"/>
+      <c r="L9" s="78" t="s">
+        <v>124</v>
+      </c>
+      <c r="M9" s="58" t="s">
+        <v>125</v>
+      </c>
+      <c r="N9" s="58" t="s">
+        <v>77</v>
+      </c>
+      <c r="O9" s="58" t="s">
+        <v>126</v>
+      </c>
+      <c r="P9" s="78" t="s">
+        <v>79</v>
+      </c>
+      <c r="Q9" s="59">
+        <v>42843</v>
+      </c>
+      <c r="R9" s="78" t="s">
+        <v>80</v>
+      </c>
+      <c r="S9" s="66" t="s">
+        <v>133</v>
+      </c>
+      <c r="T9" s="56"/>
+      <c r="U9" s="56"/>
+      <c r="V9" s="66"/>
+      <c r="W9" s="73"/>
+      <c r="X9" s="72"/>
+    </row>
+    <row r="10" spans="1:24" s="46" customFormat="1" ht="32" x14ac:dyDescent="0.15">
+      <c r="A10" s="51">
+        <v>9</v>
+      </c>
+      <c r="B10" s="88" t="s">
+        <v>68</v>
+      </c>
+      <c r="C10" s="88" t="s">
+        <v>69</v>
+      </c>
+      <c r="D10" s="77" t="s">
+        <v>134</v>
+      </c>
+      <c r="E10" s="58" t="s">
+        <v>71</v>
+      </c>
+      <c r="F10" s="58" t="s">
+        <v>132</v>
+      </c>
+      <c r="G10" s="58" t="s">
+        <v>74</v>
+      </c>
+      <c r="H10" s="59">
+        <v>42843</v>
+      </c>
+      <c r="I10" s="58" t="s">
+        <v>74</v>
+      </c>
+      <c r="J10" s="59">
+        <v>42843</v>
+      </c>
       <c r="K10" s="58"/>
-      <c r="L10" s="62"/>
-      <c r="M10" s="58"/>
-      <c r="N10" s="58"/>
-      <c r="O10" s="65"/>
-      <c r="P10" s="62"/>
-      <c r="Q10" s="59"/>
-      <c r="R10" s="62"/>
-      <c r="S10" s="56"/>
+      <c r="L10" s="78" t="s">
+        <v>124</v>
+      </c>
+      <c r="M10" s="58" t="s">
+        <v>125</v>
+      </c>
+      <c r="N10" s="58" t="s">
+        <v>77</v>
+      </c>
+      <c r="O10" s="58" t="s">
+        <v>126</v>
+      </c>
+      <c r="P10" s="78" t="s">
+        <v>79</v>
+      </c>
+      <c r="Q10" s="59">
+        <v>42843</v>
+      </c>
+      <c r="R10" s="78" t="s">
+        <v>80</v>
+      </c>
+      <c r="S10" s="66" t="s">
+        <v>135</v>
+      </c>
       <c r="T10" s="56"/>
       <c r="U10" s="56"/>
-      <c r="V10" s="67"/>
-      <c r="W10" s="74"/>
-      <c r="X10" s="73"/>
-    </row>
-    <row r="11" spans="1:24" s="46" customFormat="1" ht="16" x14ac:dyDescent="0.15">
-      <c r="A11" s="51"/>
-      <c r="B11" s="51"/>
-      <c r="C11" s="51"/>
-      <c r="D11" s="52"/>
-      <c r="E11" s="58"/>
-      <c r="F11" s="58"/>
-      <c r="G11" s="58"/>
-      <c r="H11" s="59"/>
-      <c r="I11" s="58"/>
-      <c r="J11" s="59"/>
+      <c r="V10" s="66"/>
+      <c r="W10" s="73"/>
+      <c r="X10" s="72"/>
+    </row>
+    <row r="11" spans="1:24" s="46" customFormat="1" ht="32" x14ac:dyDescent="0.15">
+      <c r="A11" s="51">
+        <v>10</v>
+      </c>
+      <c r="B11" s="88" t="s">
+        <v>68</v>
+      </c>
+      <c r="C11" s="88" t="s">
+        <v>69</v>
+      </c>
+      <c r="D11" s="77" t="s">
+        <v>136</v>
+      </c>
+      <c r="E11" s="58" t="s">
+        <v>71</v>
+      </c>
+      <c r="F11" s="58" t="s">
+        <v>116</v>
+      </c>
+      <c r="G11" s="58" t="s">
+        <v>74</v>
+      </c>
+      <c r="H11" s="59">
+        <v>42843</v>
+      </c>
+      <c r="I11" s="58" t="s">
+        <v>74</v>
+      </c>
+      <c r="J11" s="59">
+        <v>42843</v>
+      </c>
       <c r="K11" s="58"/>
-      <c r="L11" s="62"/>
-      <c r="M11" s="58"/>
-      <c r="N11" s="58"/>
-      <c r="O11" s="58"/>
-      <c r="P11" s="62"/>
-      <c r="Q11" s="59"/>
-      <c r="R11" s="62"/>
-      <c r="S11" s="56"/>
+      <c r="L11" s="78" t="s">
+        <v>124</v>
+      </c>
+      <c r="M11" s="58" t="s">
+        <v>125</v>
+      </c>
+      <c r="N11" s="58" t="s">
+        <v>77</v>
+      </c>
+      <c r="O11" s="58" t="s">
+        <v>126</v>
+      </c>
+      <c r="P11" s="78" t="s">
+        <v>79</v>
+      </c>
+      <c r="Q11" s="59">
+        <v>42843</v>
+      </c>
+      <c r="R11" s="78" t="s">
+        <v>80</v>
+      </c>
+      <c r="S11" s="66" t="s">
+        <v>137</v>
+      </c>
       <c r="T11" s="56"/>
       <c r="U11" s="56"/>
-      <c r="V11" s="67"/>
-      <c r="W11" s="74"/>
-      <c r="X11" s="73"/>
+      <c r="V11" s="66"/>
+      <c r="W11" s="73"/>
+      <c r="X11" s="72"/>
     </row>
     <row r="12" spans="1:24" s="46" customFormat="1" ht="16" x14ac:dyDescent="0.15">
       <c r="A12" s="51"/>
@@ -1860,9 +2489,9 @@
       <c r="S12" s="56"/>
       <c r="T12" s="56"/>
       <c r="U12" s="56"/>
-      <c r="V12" s="67"/>
-      <c r="W12" s="74"/>
-      <c r="X12" s="73"/>
+      <c r="V12" s="66"/>
+      <c r="W12" s="73"/>
+      <c r="X12" s="72"/>
     </row>
     <row r="13" spans="1:24" s="46" customFormat="1" ht="16" x14ac:dyDescent="0.15">
       <c r="A13" s="51"/>
@@ -1886,9 +2515,9 @@
       <c r="S13" s="56"/>
       <c r="T13" s="56"/>
       <c r="U13" s="56"/>
-      <c r="V13" s="67"/>
-      <c r="W13" s="74"/>
-      <c r="X13" s="73"/>
+      <c r="V13" s="66"/>
+      <c r="W13" s="73"/>
+      <c r="X13" s="72"/>
     </row>
     <row r="14" spans="1:24" s="46" customFormat="1" ht="16" x14ac:dyDescent="0.15">
       <c r="A14" s="51"/>
@@ -1912,9 +2541,9 @@
       <c r="S14" s="56"/>
       <c r="T14" s="56"/>
       <c r="U14" s="56"/>
-      <c r="V14" s="67"/>
-      <c r="W14" s="74"/>
-      <c r="X14" s="73"/>
+      <c r="V14" s="66"/>
+      <c r="W14" s="73"/>
+      <c r="X14" s="72"/>
     </row>
     <row r="15" spans="1:24" s="46" customFormat="1" ht="16" x14ac:dyDescent="0.15">
       <c r="A15" s="51"/>
@@ -1939,8 +2568,8 @@
       <c r="T15" s="56"/>
       <c r="U15" s="56"/>
       <c r="V15" s="56"/>
-      <c r="W15" s="74"/>
-      <c r="X15" s="73"/>
+      <c r="W15" s="73"/>
+      <c r="X15" s="72"/>
     </row>
     <row r="16" spans="1:24" s="46" customFormat="1" ht="16" x14ac:dyDescent="0.15">
       <c r="A16" s="51"/>
@@ -1965,8 +2594,8 @@
       <c r="T16" s="56"/>
       <c r="U16" s="56"/>
       <c r="V16" s="56"/>
-      <c r="W16" s="74"/>
-      <c r="X16" s="73"/>
+      <c r="W16" s="73"/>
+      <c r="X16" s="72"/>
     </row>
     <row r="17" spans="1:24" s="46" customFormat="1" ht="16" x14ac:dyDescent="0.15">
       <c r="A17" s="51"/>
@@ -1984,15 +2613,15 @@
       <c r="M17" s="58"/>
       <c r="N17" s="58"/>
       <c r="O17" s="58"/>
-      <c r="P17" s="66"/>
+      <c r="P17" s="65"/>
       <c r="Q17" s="59"/>
-      <c r="R17" s="66"/>
+      <c r="R17" s="65"/>
       <c r="S17" s="56"/>
       <c r="T17" s="56"/>
       <c r="U17" s="56"/>
       <c r="V17" s="56"/>
-      <c r="W17" s="75"/>
-      <c r="X17" s="73"/>
+      <c r="W17" s="74"/>
+      <c r="X17" s="72"/>
     </row>
     <row r="18" spans="1:24" ht="16" x14ac:dyDescent="0.15">
       <c r="A18" s="51"/>
@@ -2060,7 +2689,7 @@
       <c r="M20" s="58"/>
       <c r="N20" s="58"/>
       <c r="O20" s="58"/>
-      <c r="P20" s="67"/>
+      <c r="P20" s="66"/>
       <c r="Q20" s="59"/>
       <c r="R20" s="62"/>
       <c r="S20" s="56"/>
@@ -2092,7 +2721,7 @@
       <c r="T21" s="56"/>
       <c r="U21" s="56"/>
       <c r="V21" s="56"/>
-      <c r="W21" s="74"/>
+      <c r="W21" s="73"/>
     </row>
     <row r="22" spans="1:24" ht="16" x14ac:dyDescent="0.15">
       <c r="A22" s="51"/>
@@ -2117,7 +2746,7 @@
       <c r="T22" s="56"/>
       <c r="U22" s="56"/>
       <c r="V22" s="56"/>
-      <c r="W22" s="74"/>
+      <c r="W22" s="73"/>
     </row>
     <row r="23" spans="1:24" ht="16" x14ac:dyDescent="0.15">
       <c r="A23" s="51"/>
@@ -2142,7 +2771,7 @@
       <c r="T23" s="56"/>
       <c r="U23" s="56"/>
       <c r="V23" s="56"/>
-      <c r="W23" s="74"/>
+      <c r="W23" s="73"/>
     </row>
     <row r="24" spans="1:24" ht="16" x14ac:dyDescent="0.15">
       <c r="A24" s="51"/>
@@ -2163,11 +2792,11 @@
       <c r="P24" s="62"/>
       <c r="Q24" s="59"/>
       <c r="R24" s="62"/>
-      <c r="S24" s="70"/>
-      <c r="T24" s="70"/>
-      <c r="U24" s="70"/>
-      <c r="V24" s="70"/>
-      <c r="W24" s="76"/>
+      <c r="S24" s="69"/>
+      <c r="T24" s="69"/>
+      <c r="U24" s="69"/>
+      <c r="V24" s="69"/>
+      <c r="W24" s="75"/>
     </row>
     <row r="25" spans="1:24" ht="16" x14ac:dyDescent="0.15">
       <c r="A25" s="51"/>
@@ -2188,11 +2817,11 @@
       <c r="P25" s="62"/>
       <c r="Q25" s="59"/>
       <c r="R25" s="62"/>
-      <c r="S25" s="71"/>
-      <c r="T25" s="71"/>
-      <c r="U25" s="71"/>
-      <c r="V25" s="71"/>
-      <c r="W25" s="76"/>
+      <c r="S25" s="70"/>
+      <c r="T25" s="70"/>
+      <c r="U25" s="70"/>
+      <c r="V25" s="70"/>
+      <c r="W25" s="75"/>
     </row>
     <row r="26" spans="1:24" ht="16" x14ac:dyDescent="0.15">
       <c r="A26" s="51"/>
@@ -2213,11 +2842,11 @@
       <c r="P26" s="62"/>
       <c r="Q26" s="59"/>
       <c r="R26" s="62"/>
-      <c r="S26" s="71"/>
-      <c r="T26" s="71"/>
-      <c r="U26" s="71"/>
-      <c r="V26" s="77"/>
-      <c r="W26" s="76"/>
+      <c r="S26" s="70"/>
+      <c r="T26" s="70"/>
+      <c r="U26" s="70"/>
+      <c r="V26" s="76"/>
+      <c r="W26" s="75"/>
     </row>
     <row r="27" spans="1:24" ht="16" x14ac:dyDescent="0.15">
       <c r="A27" s="51"/>
@@ -2238,11 +2867,11 @@
       <c r="P27" s="62"/>
       <c r="Q27" s="59"/>
       <c r="R27" s="62"/>
-      <c r="S27" s="71"/>
-      <c r="T27" s="71"/>
-      <c r="U27" s="71"/>
-      <c r="V27" s="71"/>
-      <c r="W27" s="76"/>
+      <c r="S27" s="70"/>
+      <c r="T27" s="70"/>
+      <c r="U27" s="70"/>
+      <c r="V27" s="70"/>
+      <c r="W27" s="75"/>
     </row>
     <row r="28" spans="1:24" ht="16" x14ac:dyDescent="0.15">
       <c r="A28" s="51"/>
@@ -2263,11 +2892,11 @@
       <c r="P28" s="62"/>
       <c r="Q28" s="59"/>
       <c r="R28" s="62"/>
-      <c r="S28" s="71"/>
-      <c r="T28" s="71"/>
-      <c r="U28" s="71"/>
-      <c r="V28" s="71"/>
-      <c r="W28" s="76"/>
+      <c r="S28" s="70"/>
+      <c r="T28" s="70"/>
+      <c r="U28" s="70"/>
+      <c r="V28" s="70"/>
+      <c r="W28" s="75"/>
     </row>
     <row r="29" spans="1:24" ht="16" x14ac:dyDescent="0.15">
       <c r="A29" s="51"/>
@@ -2288,10 +2917,10 @@
       <c r="P29" s="62"/>
       <c r="Q29" s="59"/>
       <c r="R29" s="62"/>
-      <c r="S29" s="69"/>
-      <c r="T29" s="69"/>
-      <c r="U29" s="69"/>
-      <c r="V29" s="69"/>
+      <c r="S29" s="68"/>
+      <c r="T29" s="68"/>
+      <c r="U29" s="68"/>
+      <c r="V29" s="68"/>
       <c r="W29" s="62"/>
     </row>
     <row r="30" spans="1:24" ht="16" x14ac:dyDescent="0.15">
@@ -2317,7 +2946,7 @@
       <c r="T30" s="56"/>
       <c r="U30" s="56"/>
       <c r="V30" s="56"/>
-      <c r="W30" s="74"/>
+      <c r="W30" s="73"/>
     </row>
     <row r="31" spans="1:24" ht="16" x14ac:dyDescent="0.15">
       <c r="A31" s="51"/>
@@ -2342,7 +2971,7 @@
       <c r="T31" s="56"/>
       <c r="U31" s="56"/>
       <c r="V31" s="56"/>
-      <c r="W31" s="74"/>
+      <c r="W31" s="73"/>
     </row>
     <row r="32" spans="1:24" ht="16" x14ac:dyDescent="0.15">
       <c r="A32" s="51"/>
@@ -2367,7 +2996,7 @@
       <c r="T32" s="56"/>
       <c r="U32" s="56"/>
       <c r="V32" s="56"/>
-      <c r="W32" s="74"/>
+      <c r="W32" s="73"/>
     </row>
     <row r="33" spans="1:23" ht="16" x14ac:dyDescent="0.15">
       <c r="A33" s="51"/>
@@ -2388,11 +3017,11 @@
       <c r="P33" s="62"/>
       <c r="Q33" s="59"/>
       <c r="R33" s="62"/>
-      <c r="S33" s="71"/>
-      <c r="T33" s="71"/>
-      <c r="U33" s="71"/>
-      <c r="V33" s="71"/>
-      <c r="W33" s="76"/>
+      <c r="S33" s="70"/>
+      <c r="T33" s="70"/>
+      <c r="U33" s="70"/>
+      <c r="V33" s="70"/>
+      <c r="W33" s="75"/>
     </row>
     <row r="34" spans="1:23" ht="16" x14ac:dyDescent="0.15">
       <c r="A34" s="51"/>
@@ -2417,7 +3046,7 @@
       <c r="T34" s="56"/>
       <c r="U34" s="56"/>
       <c r="V34" s="56"/>
-      <c r="W34" s="72"/>
+      <c r="W34" s="71"/>
     </row>
     <row r="35" spans="1:23" ht="16" x14ac:dyDescent="0.15">
       <c r="A35" s="51"/>
@@ -2442,7 +3071,7 @@
       <c r="T35" s="56"/>
       <c r="U35" s="56"/>
       <c r="V35" s="56"/>
-      <c r="W35" s="74"/>
+      <c r="W35" s="73"/>
     </row>
     <row r="36" spans="1:23" ht="16" x14ac:dyDescent="0.15">
       <c r="A36" s="51"/>
@@ -2467,7 +3096,7 @@
       <c r="T36" s="56"/>
       <c r="U36" s="56"/>
       <c r="V36" s="56"/>
-      <c r="W36" s="74"/>
+      <c r="W36" s="73"/>
     </row>
     <row r="37" spans="1:23" ht="16" x14ac:dyDescent="0.15">
       <c r="A37" s="51"/>
@@ -2492,7 +3121,7 @@
       <c r="T37" s="56"/>
       <c r="U37" s="56"/>
       <c r="V37" s="56"/>
-      <c r="W37" s="74"/>
+      <c r="W37" s="73"/>
     </row>
     <row r="38" spans="1:23" ht="16" x14ac:dyDescent="0.15">
       <c r="A38" s="51"/>
@@ -2517,7 +3146,7 @@
       <c r="T38" s="56"/>
       <c r="U38" s="56"/>
       <c r="V38" s="56"/>
-      <c r="W38" s="74"/>
+      <c r="W38" s="73"/>
     </row>
     <row r="39" spans="1:23" ht="16" x14ac:dyDescent="0.15">
       <c r="A39" s="51"/>
@@ -2542,7 +3171,7 @@
       <c r="T39" s="56"/>
       <c r="U39" s="56"/>
       <c r="V39" s="56"/>
-      <c r="W39" s="74"/>
+      <c r="W39" s="73"/>
     </row>
     <row r="40" spans="1:23" ht="16" x14ac:dyDescent="0.15">
       <c r="A40" s="51"/>
@@ -2567,7 +3196,7 @@
       <c r="T40" s="56"/>
       <c r="U40" s="56"/>
       <c r="V40" s="56"/>
-      <c r="W40" s="74"/>
+      <c r="W40" s="73"/>
     </row>
     <row r="41" spans="1:23" ht="16" x14ac:dyDescent="0.15">
       <c r="A41" s="51"/>
@@ -2592,7 +3221,7 @@
       <c r="T41" s="56"/>
       <c r="U41" s="56"/>
       <c r="V41" s="56"/>
-      <c r="W41" s="74"/>
+      <c r="W41" s="73"/>
     </row>
     <row r="42" spans="1:23" ht="16" x14ac:dyDescent="0.15">
       <c r="A42" s="51"/>
@@ -2617,7 +3246,7 @@
       <c r="T42" s="56"/>
       <c r="U42" s="56"/>
       <c r="V42" s="56"/>
-      <c r="W42" s="74"/>
+      <c r="W42" s="73"/>
     </row>
     <row r="43" spans="1:23" ht="16" x14ac:dyDescent="0.15">
       <c r="A43" s="51"/>
@@ -2642,7 +3271,7 @@
       <c r="T43" s="56"/>
       <c r="U43" s="56"/>
       <c r="V43" s="56"/>
-      <c r="W43" s="74"/>
+      <c r="W43" s="73"/>
     </row>
     <row r="44" spans="1:23" ht="16" x14ac:dyDescent="0.15">
       <c r="A44" s="51"/>
@@ -2667,7 +3296,7 @@
       <c r="T44" s="56"/>
       <c r="U44" s="56"/>
       <c r="V44" s="56"/>
-      <c r="W44" s="74"/>
+      <c r="W44" s="73"/>
     </row>
     <row r="45" spans="1:23" ht="16" x14ac:dyDescent="0.15">
       <c r="A45" s="51"/>
@@ -2688,11 +3317,11 @@
       <c r="P45" s="62"/>
       <c r="Q45" s="59"/>
       <c r="R45" s="62"/>
-      <c r="S45" s="69"/>
-      <c r="T45" s="69"/>
-      <c r="U45" s="69"/>
-      <c r="V45" s="69"/>
-      <c r="W45" s="74"/>
+      <c r="S45" s="68"/>
+      <c r="T45" s="68"/>
+      <c r="U45" s="68"/>
+      <c r="V45" s="68"/>
+      <c r="W45" s="73"/>
     </row>
     <row r="46" spans="1:23" ht="16" x14ac:dyDescent="0.15">
       <c r="A46" s="51"/>
@@ -2713,11 +3342,11 @@
       <c r="P46" s="62"/>
       <c r="Q46" s="59"/>
       <c r="R46" s="62"/>
-      <c r="S46" s="69"/>
-      <c r="T46" s="69"/>
-      <c r="U46" s="69"/>
-      <c r="V46" s="69"/>
-      <c r="W46" s="74"/>
+      <c r="S46" s="68"/>
+      <c r="T46" s="68"/>
+      <c r="U46" s="68"/>
+      <c r="V46" s="68"/>
+      <c r="W46" s="73"/>
     </row>
     <row r="47" spans="1:23" ht="16" x14ac:dyDescent="0.15">
       <c r="A47" s="51"/>
@@ -5703,10 +6332,13 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C1:C1048576">
       <formula1>"紧急,不紧急"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="V1:V1048576 I1:I1048576 G1:G1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G1:G1048576 I1:I1048576 V1:V1048576">
       <formula1>"是,否"</formula1>
     </dataValidation>
   </dataValidations>
+  <hyperlinks>
+    <hyperlink ref="S6" r:id="rId1"/>
+  </hyperlinks>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="300"/>
 </worksheet>
@@ -5883,19 +6515,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="17" x14ac:dyDescent="0.15">
-      <c r="A1" s="78" t="s">
+      <c r="A1" s="79" t="s">
         <v>39</v>
       </c>
-      <c r="B1" s="79"/>
-      <c r="C1" s="79"/>
-      <c r="D1" s="79"/>
-      <c r="E1" s="79"/>
-      <c r="F1" s="79"/>
-      <c r="G1" s="79"/>
-      <c r="H1" s="79"/>
-      <c r="I1" s="79"/>
-      <c r="J1" s="79"/>
-      <c r="K1" s="79"/>
+      <c r="B1" s="80"/>
+      <c r="C1" s="80"/>
+      <c r="D1" s="80"/>
+      <c r="E1" s="80"/>
+      <c r="F1" s="80"/>
+      <c r="G1" s="80"/>
+      <c r="H1" s="80"/>
+      <c r="I1" s="80"/>
+      <c r="J1" s="80"/>
+      <c r="K1" s="80"/>
     </row>
     <row r="2" spans="1:11" ht="15" x14ac:dyDescent="0.15">
       <c r="A2" s="18" t="s">
@@ -5933,8 +6565,8 @@
       </c>
     </row>
     <row r="3" spans="1:11" ht="15" x14ac:dyDescent="0.15">
-      <c r="A3" s="80"/>
-      <c r="B3" s="80"/>
+      <c r="A3" s="81"/>
+      <c r="B3" s="81"/>
       <c r="C3" s="20"/>
       <c r="D3" s="21"/>
       <c r="E3" s="21"/>
@@ -5946,8 +6578,8 @@
       <c r="K3" s="28"/>
     </row>
     <row r="4" spans="1:11" ht="15" x14ac:dyDescent="0.15">
-      <c r="A4" s="81"/>
-      <c r="B4" s="82"/>
+      <c r="A4" s="82"/>
+      <c r="B4" s="83"/>
       <c r="C4" s="20"/>
       <c r="D4" s="21"/>
       <c r="E4" s="21"/>
@@ -5959,8 +6591,8 @@
       <c r="K4" s="28"/>
     </row>
     <row r="5" spans="1:11" ht="15" x14ac:dyDescent="0.15">
-      <c r="A5" s="80"/>
-      <c r="B5" s="80"/>
+      <c r="A5" s="81"/>
+      <c r="B5" s="81"/>
       <c r="C5" s="20"/>
       <c r="D5" s="21"/>
       <c r="E5" s="21"/>
@@ -5972,8 +6604,8 @@
       <c r="K5" s="28"/>
     </row>
     <row r="6" spans="1:11" ht="15" x14ac:dyDescent="0.15">
-      <c r="A6" s="82"/>
-      <c r="B6" s="82"/>
+      <c r="A6" s="83"/>
+      <c r="B6" s="83"/>
       <c r="C6" s="20"/>
       <c r="D6" s="21"/>
       <c r="E6" s="21"/>
@@ -5985,8 +6617,8 @@
       <c r="K6" s="28"/>
     </row>
     <row r="7" spans="1:11" ht="15" x14ac:dyDescent="0.15">
-      <c r="A7" s="82"/>
-      <c r="B7" s="82"/>
+      <c r="A7" s="83"/>
+      <c r="B7" s="83"/>
       <c r="C7" s="20"/>
       <c r="D7" s="21"/>
       <c r="E7" s="21"/>
@@ -5998,8 +6630,8 @@
       <c r="K7" s="28"/>
     </row>
     <row r="8" spans="1:11" ht="15" x14ac:dyDescent="0.15">
-      <c r="A8" s="82"/>
-      <c r="B8" s="82"/>
+      <c r="A8" s="83"/>
+      <c r="B8" s="83"/>
       <c r="C8" s="20"/>
       <c r="D8" s="21"/>
       <c r="E8" s="21"/>
@@ -6011,8 +6643,8 @@
       <c r="K8" s="28"/>
     </row>
     <row r="9" spans="1:11" ht="15" x14ac:dyDescent="0.15">
-      <c r="A9" s="82"/>
-      <c r="B9" s="82"/>
+      <c r="A9" s="83"/>
+      <c r="B9" s="83"/>
       <c r="C9" s="20"/>
       <c r="D9" s="21"/>
       <c r="E9" s="21"/>
@@ -6024,8 +6656,8 @@
       <c r="K9" s="28"/>
     </row>
     <row r="10" spans="1:11" ht="15" x14ac:dyDescent="0.15">
-      <c r="A10" s="81"/>
-      <c r="B10" s="81"/>
+      <c r="A10" s="82"/>
+      <c r="B10" s="82"/>
       <c r="C10" s="20"/>
       <c r="D10" s="21"/>
       <c r="E10" s="21"/>
@@ -6067,7 +6699,7 @@
   <dimension ref="A1:M16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G18" sqref="G18"/>
+      <selection activeCell="A5" sqref="A5:L5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="39.5" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
@@ -6086,36 +6718,36 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A1" s="83" t="s">
+      <c r="A1" s="84" t="s">
         <v>50</v>
       </c>
-      <c r="B1" s="83"/>
-      <c r="C1" s="83"/>
-      <c r="D1" s="83"/>
-      <c r="E1" s="83"/>
-      <c r="F1" s="83"/>
-      <c r="G1" s="83"/>
-      <c r="H1" s="83"/>
-      <c r="I1" s="83"/>
-      <c r="J1" s="83"/>
-      <c r="K1" s="83"/>
-      <c r="L1" s="83"/>
-      <c r="M1" s="84"/>
+      <c r="B1" s="84"/>
+      <c r="C1" s="84"/>
+      <c r="D1" s="84"/>
+      <c r="E1" s="84"/>
+      <c r="F1" s="84"/>
+      <c r="G1" s="84"/>
+      <c r="H1" s="84"/>
+      <c r="I1" s="84"/>
+      <c r="J1" s="84"/>
+      <c r="K1" s="84"/>
+      <c r="L1" s="84"/>
+      <c r="M1" s="85"/>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A2" s="85"/>
-      <c r="B2" s="85"/>
-      <c r="C2" s="85"/>
-      <c r="D2" s="85"/>
-      <c r="E2" s="85"/>
-      <c r="F2" s="85"/>
-      <c r="G2" s="85"/>
-      <c r="H2" s="85"/>
-      <c r="I2" s="85"/>
-      <c r="J2" s="85"/>
-      <c r="K2" s="85"/>
-      <c r="L2" s="85"/>
-      <c r="M2" s="86"/>
+      <c r="A2" s="86"/>
+      <c r="B2" s="86"/>
+      <c r="C2" s="86"/>
+      <c r="D2" s="86"/>
+      <c r="E2" s="86"/>
+      <c r="F2" s="86"/>
+      <c r="G2" s="86"/>
+      <c r="H2" s="86"/>
+      <c r="I2" s="86"/>
+      <c r="J2" s="86"/>
+      <c r="K2" s="86"/>
+      <c r="L2" s="86"/>
+      <c r="M2" s="87"/>
     </row>
     <row r="3" spans="1:13" ht="16" x14ac:dyDescent="0.15">
       <c r="A3" s="8" t="s">
@@ -6158,35 +6790,79 @@
         <v>22</v>
       </c>
     </row>
-    <row r="4" spans="1:13" ht="16" x14ac:dyDescent="0.15">
-      <c r="A4" s="9"/>
-      <c r="B4" s="9"/>
+    <row r="4" spans="1:13" ht="32" x14ac:dyDescent="0.15">
+      <c r="A4" s="9">
+        <v>1</v>
+      </c>
+      <c r="B4" s="9" t="s">
+        <v>98</v>
+      </c>
       <c r="C4" s="9"/>
-      <c r="D4" s="9"/>
-      <c r="E4" s="11"/>
-      <c r="F4" s="9"/>
-      <c r="G4" s="12"/>
-      <c r="H4" s="9"/>
+      <c r="D4" s="9" t="s">
+        <v>99</v>
+      </c>
+      <c r="E4" s="11" t="s">
+        <v>100</v>
+      </c>
+      <c r="F4" s="9" t="s">
+        <v>101</v>
+      </c>
+      <c r="G4" s="12" t="s">
+        <v>102</v>
+      </c>
+      <c r="H4" s="9" t="s">
+        <v>103</v>
+      </c>
       <c r="I4" s="9"/>
-      <c r="J4" s="9"/>
-      <c r="K4" s="9"/>
-      <c r="L4" s="9"/>
+      <c r="J4" s="9" t="s">
+        <v>104</v>
+      </c>
+      <c r="K4" s="9" t="s">
+        <v>104</v>
+      </c>
+      <c r="L4" s="9" t="s">
+        <v>105</v>
+      </c>
       <c r="M4" s="12"/>
     </row>
-    <row r="5" spans="1:13" ht="16" x14ac:dyDescent="0.15">
-      <c r="A5" s="9"/>
-      <c r="B5" s="9"/>
-      <c r="C5" s="9"/>
-      <c r="D5" s="9"/>
-      <c r="E5" s="11"/>
-      <c r="F5" s="9"/>
-      <c r="G5" s="12"/>
-      <c r="H5" s="9"/>
-      <c r="I5" s="9"/>
-      <c r="J5" s="9"/>
-      <c r="K5" s="9"/>
-      <c r="L5" s="9"/>
-      <c r="M5" s="12"/>
+    <row r="5" spans="1:13" ht="48" x14ac:dyDescent="0.15">
+      <c r="A5" s="89">
+        <v>1</v>
+      </c>
+      <c r="B5" s="89" t="s">
+        <v>107</v>
+      </c>
+      <c r="C5" s="89" t="s">
+        <v>108</v>
+      </c>
+      <c r="D5" s="90" t="s">
+        <v>109</v>
+      </c>
+      <c r="E5" s="91" t="s">
+        <v>110</v>
+      </c>
+      <c r="F5" s="89" t="s">
+        <v>101</v>
+      </c>
+      <c r="G5" s="92" t="s">
+        <v>111</v>
+      </c>
+      <c r="H5" s="89" t="s">
+        <v>112</v>
+      </c>
+      <c r="I5" s="89" t="s">
+        <v>106</v>
+      </c>
+      <c r="J5" s="89" t="s">
+        <v>113</v>
+      </c>
+      <c r="K5" s="89" t="s">
+        <v>113</v>
+      </c>
+      <c r="L5" s="89" t="s">
+        <v>114</v>
+      </c>
+      <c r="M5" s="92"/>
     </row>
     <row r="6" spans="1:13" ht="16" x14ac:dyDescent="0.15">
       <c r="A6" s="9"/>
@@ -6373,6 +7049,7 @@
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
 
@@ -6381,7 +7058,7 @@
   <dimension ref="A1:M16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+      <selection activeCell="A5" sqref="A5:L5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="39.5" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
@@ -6400,36 +7077,36 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A1" s="83" t="s">
+      <c r="A1" s="84" t="s">
         <v>50</v>
       </c>
-      <c r="B1" s="83"/>
-      <c r="C1" s="83"/>
-      <c r="D1" s="83"/>
-      <c r="E1" s="83"/>
-      <c r="F1" s="83"/>
-      <c r="G1" s="83"/>
-      <c r="H1" s="83"/>
-      <c r="I1" s="83"/>
-      <c r="J1" s="83"/>
-      <c r="K1" s="83"/>
-      <c r="L1" s="83"/>
-      <c r="M1" s="84"/>
+      <c r="B1" s="84"/>
+      <c r="C1" s="84"/>
+      <c r="D1" s="84"/>
+      <c r="E1" s="84"/>
+      <c r="F1" s="84"/>
+      <c r="G1" s="84"/>
+      <c r="H1" s="84"/>
+      <c r="I1" s="84"/>
+      <c r="J1" s="84"/>
+      <c r="K1" s="84"/>
+      <c r="L1" s="84"/>
+      <c r="M1" s="85"/>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A2" s="85"/>
-      <c r="B2" s="85"/>
-      <c r="C2" s="85"/>
-      <c r="D2" s="85"/>
-      <c r="E2" s="85"/>
-      <c r="F2" s="85"/>
-      <c r="G2" s="85"/>
-      <c r="H2" s="85"/>
-      <c r="I2" s="85"/>
-      <c r="J2" s="85"/>
-      <c r="K2" s="85"/>
-      <c r="L2" s="85"/>
-      <c r="M2" s="86"/>
+      <c r="A2" s="86"/>
+      <c r="B2" s="86"/>
+      <c r="C2" s="86"/>
+      <c r="D2" s="86"/>
+      <c r="E2" s="86"/>
+      <c r="F2" s="86"/>
+      <c r="G2" s="86"/>
+      <c r="H2" s="86"/>
+      <c r="I2" s="86"/>
+      <c r="J2" s="86"/>
+      <c r="K2" s="86"/>
+      <c r="L2" s="86"/>
+      <c r="M2" s="87"/>
     </row>
     <row r="3" spans="1:13" ht="16" x14ac:dyDescent="0.15">
       <c r="A3" s="8" t="s">
@@ -6472,35 +7149,79 @@
         <v>22</v>
       </c>
     </row>
-    <row r="4" spans="1:13" ht="16" x14ac:dyDescent="0.15">
-      <c r="A4" s="9"/>
-      <c r="B4" s="9"/>
+    <row r="4" spans="1:13" ht="32" x14ac:dyDescent="0.15">
+      <c r="A4" s="9">
+        <v>1</v>
+      </c>
+      <c r="B4" s="9" t="s">
+        <v>98</v>
+      </c>
       <c r="C4" s="9"/>
-      <c r="D4" s="9"/>
-      <c r="E4" s="11"/>
-      <c r="F4" s="9"/>
-      <c r="G4" s="12"/>
-      <c r="H4" s="9"/>
+      <c r="D4" s="9" t="s">
+        <v>99</v>
+      </c>
+      <c r="E4" s="11" t="s">
+        <v>100</v>
+      </c>
+      <c r="F4" s="9" t="s">
+        <v>101</v>
+      </c>
+      <c r="G4" s="12" t="s">
+        <v>102</v>
+      </c>
+      <c r="H4" s="9" t="s">
+        <v>103</v>
+      </c>
       <c r="I4" s="9"/>
-      <c r="J4" s="9"/>
-      <c r="K4" s="9"/>
-      <c r="L4" s="9"/>
+      <c r="J4" s="9" t="s">
+        <v>104</v>
+      </c>
+      <c r="K4" s="9" t="s">
+        <v>104</v>
+      </c>
+      <c r="L4" s="9" t="s">
+        <v>105</v>
+      </c>
       <c r="M4" s="12"/>
     </row>
-    <row r="5" spans="1:13" ht="16" x14ac:dyDescent="0.15">
-      <c r="A5" s="9"/>
-      <c r="B5" s="9"/>
-      <c r="C5" s="9"/>
-      <c r="D5" s="9"/>
-      <c r="E5" s="11"/>
-      <c r="F5" s="9"/>
-      <c r="G5" s="12"/>
-      <c r="H5" s="9"/>
-      <c r="I5" s="9"/>
-      <c r="J5" s="9"/>
-      <c r="K5" s="9"/>
-      <c r="L5" s="9"/>
-      <c r="M5" s="12"/>
+    <row r="5" spans="1:13" ht="48" x14ac:dyDescent="0.15">
+      <c r="A5" s="89">
+        <v>1</v>
+      </c>
+      <c r="B5" s="89" t="s">
+        <v>107</v>
+      </c>
+      <c r="C5" s="89" t="s">
+        <v>108</v>
+      </c>
+      <c r="D5" s="90" t="s">
+        <v>109</v>
+      </c>
+      <c r="E5" s="91" t="s">
+        <v>110</v>
+      </c>
+      <c r="F5" s="89" t="s">
+        <v>101</v>
+      </c>
+      <c r="G5" s="92" t="s">
+        <v>111</v>
+      </c>
+      <c r="H5" s="89" t="s">
+        <v>112</v>
+      </c>
+      <c r="I5" s="89" t="s">
+        <v>106</v>
+      </c>
+      <c r="J5" s="89" t="s">
+        <v>113</v>
+      </c>
+      <c r="K5" s="89" t="s">
+        <v>113</v>
+      </c>
+      <c r="L5" s="89" t="s">
+        <v>114</v>
+      </c>
+      <c r="M5" s="92"/>
     </row>
     <row r="6" spans="1:13" ht="16" x14ac:dyDescent="0.15">
       <c r="A6" s="9"/>
@@ -6695,7 +7416,7 @@
   <dimension ref="A1:M16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="39.5" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
@@ -6714,36 +7435,36 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A1" s="83" t="s">
+      <c r="A1" s="84" t="s">
         <v>50</v>
       </c>
-      <c r="B1" s="83"/>
-      <c r="C1" s="83"/>
-      <c r="D1" s="83"/>
-      <c r="E1" s="83"/>
-      <c r="F1" s="83"/>
-      <c r="G1" s="83"/>
-      <c r="H1" s="83"/>
-      <c r="I1" s="83"/>
-      <c r="J1" s="83"/>
-      <c r="K1" s="83"/>
-      <c r="L1" s="83"/>
-      <c r="M1" s="84"/>
+      <c r="B1" s="84"/>
+      <c r="C1" s="84"/>
+      <c r="D1" s="84"/>
+      <c r="E1" s="84"/>
+      <c r="F1" s="84"/>
+      <c r="G1" s="84"/>
+      <c r="H1" s="84"/>
+      <c r="I1" s="84"/>
+      <c r="J1" s="84"/>
+      <c r="K1" s="84"/>
+      <c r="L1" s="84"/>
+      <c r="M1" s="85"/>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A2" s="85"/>
-      <c r="B2" s="85"/>
-      <c r="C2" s="85"/>
-      <c r="D2" s="85"/>
-      <c r="E2" s="85"/>
-      <c r="F2" s="85"/>
-      <c r="G2" s="85"/>
-      <c r="H2" s="85"/>
-      <c r="I2" s="85"/>
-      <c r="J2" s="85"/>
-      <c r="K2" s="85"/>
-      <c r="L2" s="85"/>
-      <c r="M2" s="86"/>
+      <c r="A2" s="86"/>
+      <c r="B2" s="86"/>
+      <c r="C2" s="86"/>
+      <c r="D2" s="86"/>
+      <c r="E2" s="86"/>
+      <c r="F2" s="86"/>
+      <c r="G2" s="86"/>
+      <c r="H2" s="86"/>
+      <c r="I2" s="86"/>
+      <c r="J2" s="86"/>
+      <c r="K2" s="86"/>
+      <c r="L2" s="86"/>
+      <c r="M2" s="87"/>
     </row>
     <row r="3" spans="1:13" ht="16" x14ac:dyDescent="0.15">
       <c r="A3" s="8" t="s">
@@ -6786,35 +7507,79 @@
         <v>22</v>
       </c>
     </row>
-    <row r="4" spans="1:13" ht="16" x14ac:dyDescent="0.15">
-      <c r="A4" s="9"/>
-      <c r="B4" s="9"/>
+    <row r="4" spans="1:13" ht="32" x14ac:dyDescent="0.15">
+      <c r="A4" s="9">
+        <v>1</v>
+      </c>
+      <c r="B4" s="9" t="s">
+        <v>98</v>
+      </c>
       <c r="C4" s="9"/>
-      <c r="D4" s="9"/>
-      <c r="E4" s="11"/>
-      <c r="F4" s="9"/>
-      <c r="G4" s="12"/>
-      <c r="H4" s="9"/>
+      <c r="D4" s="9" t="s">
+        <v>99</v>
+      </c>
+      <c r="E4" s="11" t="s">
+        <v>100</v>
+      </c>
+      <c r="F4" s="9" t="s">
+        <v>101</v>
+      </c>
+      <c r="G4" s="12" t="s">
+        <v>102</v>
+      </c>
+      <c r="H4" s="9" t="s">
+        <v>103</v>
+      </c>
       <c r="I4" s="9"/>
-      <c r="J4" s="9"/>
-      <c r="K4" s="9"/>
-      <c r="L4" s="9"/>
+      <c r="J4" s="9" t="s">
+        <v>104</v>
+      </c>
+      <c r="K4" s="9" t="s">
+        <v>104</v>
+      </c>
+      <c r="L4" s="9" t="s">
+        <v>105</v>
+      </c>
       <c r="M4" s="12"/>
     </row>
-    <row r="5" spans="1:13" ht="16" x14ac:dyDescent="0.15">
-      <c r="A5" s="9"/>
-      <c r="B5" s="9"/>
-      <c r="C5" s="9"/>
-      <c r="D5" s="9"/>
-      <c r="E5" s="11"/>
-      <c r="F5" s="9"/>
-      <c r="G5" s="12"/>
-      <c r="H5" s="9"/>
-      <c r="I5" s="9"/>
-      <c r="J5" s="9"/>
-      <c r="K5" s="9"/>
-      <c r="L5" s="9"/>
-      <c r="M5" s="12"/>
+    <row r="5" spans="1:13" ht="48" x14ac:dyDescent="0.15">
+      <c r="A5" s="89">
+        <v>1</v>
+      </c>
+      <c r="B5" s="89" t="s">
+        <v>107</v>
+      </c>
+      <c r="C5" s="89" t="s">
+        <v>108</v>
+      </c>
+      <c r="D5" s="90" t="s">
+        <v>109</v>
+      </c>
+      <c r="E5" s="91" t="s">
+        <v>110</v>
+      </c>
+      <c r="F5" s="89" t="s">
+        <v>101</v>
+      </c>
+      <c r="G5" s="92" t="s">
+        <v>111</v>
+      </c>
+      <c r="H5" s="89" t="s">
+        <v>112</v>
+      </c>
+      <c r="I5" s="89" t="s">
+        <v>106</v>
+      </c>
+      <c r="J5" s="89" t="s">
+        <v>113</v>
+      </c>
+      <c r="K5" s="89" t="s">
+        <v>113</v>
+      </c>
+      <c r="L5" s="89" t="s">
+        <v>114</v>
+      </c>
+      <c r="M5" s="92"/>
     </row>
     <row r="6" spans="1:13" ht="16" x14ac:dyDescent="0.15">
       <c r="A6" s="9"/>
@@ -7030,36 +7795,36 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A1" s="83" t="s">
+      <c r="A1" s="84" t="s">
         <v>50</v>
       </c>
-      <c r="B1" s="83"/>
-      <c r="C1" s="83"/>
-      <c r="D1" s="83"/>
-      <c r="E1" s="83"/>
-      <c r="F1" s="83"/>
-      <c r="G1" s="83"/>
-      <c r="H1" s="83"/>
-      <c r="I1" s="83"/>
-      <c r="J1" s="83"/>
-      <c r="K1" s="83"/>
-      <c r="L1" s="83"/>
-      <c r="M1" s="84"/>
+      <c r="B1" s="84"/>
+      <c r="C1" s="84"/>
+      <c r="D1" s="84"/>
+      <c r="E1" s="84"/>
+      <c r="F1" s="84"/>
+      <c r="G1" s="84"/>
+      <c r="H1" s="84"/>
+      <c r="I1" s="84"/>
+      <c r="J1" s="84"/>
+      <c r="K1" s="84"/>
+      <c r="L1" s="84"/>
+      <c r="M1" s="85"/>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A2" s="85"/>
-      <c r="B2" s="85"/>
-      <c r="C2" s="85"/>
-      <c r="D2" s="85"/>
-      <c r="E2" s="85"/>
-      <c r="F2" s="85"/>
-      <c r="G2" s="85"/>
-      <c r="H2" s="85"/>
-      <c r="I2" s="85"/>
-      <c r="J2" s="85"/>
-      <c r="K2" s="85"/>
-      <c r="L2" s="85"/>
-      <c r="M2" s="86"/>
+      <c r="A2" s="86"/>
+      <c r="B2" s="86"/>
+      <c r="C2" s="86"/>
+      <c r="D2" s="86"/>
+      <c r="E2" s="86"/>
+      <c r="F2" s="86"/>
+      <c r="G2" s="86"/>
+      <c r="H2" s="86"/>
+      <c r="I2" s="86"/>
+      <c r="J2" s="86"/>
+      <c r="K2" s="86"/>
+      <c r="L2" s="86"/>
+      <c r="M2" s="87"/>
     </row>
     <row r="3" spans="1:13" ht="16" x14ac:dyDescent="0.15">
       <c r="A3" s="8" t="s">

--- a/VersionRecords/Version 5.4.0 20170420/版本Bug和特性计划及评审表v5.4.0.xlsx
+++ b/VersionRecords/Version 5.4.0 20170420/版本Bug和特性计划及评审表v5.4.0.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="26124"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yuanbingqiu/work/Mogo_Doc/VersionRecords/Version 5.4.0 20170420/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\mogoDoc\Mogo_Doc\VersionRecords\Version 5.4.0 20170420\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="30180" yWindow="3220" windowWidth="25600" windowHeight="14560"/>
+    <workbookView xWindow="30180" yWindow="3225" windowWidth="25605" windowHeight="14565"/>
   </bookViews>
   <sheets>
     <sheet name="01 版本X.X.X 新特性|Fix Bug" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
     <sheet name="05 数据修复" sheetId="8" r:id="rId8"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'01 版本X.X.X 新特性|Fix Bug'!$A$1:$W$20</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'01 版本X.X.X 新特性|Fix Bug'!$A$1:$W$21</definedName>
     <definedName name="LOCAL_MYSQL_DATE_FORMAT" localSheetId="1" hidden="1">REPT(LOCAL_YEAR_FORMAT,4)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_MONTH_FORMAT,2)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_DAY_FORMAT,2)&amp;" "&amp;REPT(LOCAL_HOUR_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_MINUTE_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_SECOND_FORMAT,2)</definedName>
     <definedName name="LOCAL_MYSQL_DATE_FORMAT" localSheetId="3" hidden="1">REPT(LOCAL_YEAR_FORMAT,4)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_MONTH_FORMAT,2)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_DAY_FORMAT,2)&amp;" "&amp;REPT(LOCAL_HOUR_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_MINUTE_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_SECOND_FORMAT,2)</definedName>
     <definedName name="LOCAL_MYSQL_DATE_FORMAT" localSheetId="4" hidden="1">REPT(LOCAL_YEAR_FORMAT,4)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_MONTH_FORMAT,2)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_DAY_FORMAT,2)&amp;" "&amp;REPT(LOCAL_HOUR_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_MINUTE_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_SECOND_FORMAT,2)</definedName>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="317" uniqueCount="138">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="365" uniqueCount="163">
   <si>
     <t>No</t>
   </si>
@@ -676,12 +676,91 @@
     <t>DV-3301</t>
     <phoneticPr fontId="24" type="noConversion"/>
   </si>
+  <si>
+    <t>运营报表一期</t>
+    <phoneticPr fontId="24" type="noConversion"/>
+  </si>
+  <si>
+    <t>房东PC</t>
+    <phoneticPr fontId="24" type="noConversion"/>
+  </si>
+  <si>
+    <t>孙苏文、嵇智</t>
+    <phoneticPr fontId="24" type="noConversion"/>
+  </si>
+  <si>
+    <t>张勋</t>
+    <phoneticPr fontId="24" type="noConversion"/>
+  </si>
+  <si>
+    <t>PM-176</t>
+  </si>
+  <si>
+    <t>dc</t>
+  </si>
+  <si>
+    <t>LTS</t>
+  </si>
+  <si>
+    <t>mogoda-tasktracker</t>
+  </si>
+  <si>
+    <t>运营报表数据库数据初始化定时器</t>
+  </si>
+  <si>
+    <t>王岩</t>
+  </si>
+  <si>
+    <t>孙苏文</t>
+  </si>
+  <si>
+    <t>启用</t>
+  </si>
+  <si>
+    <t>否</t>
+  </si>
+  <si>
+    <t>com.mogoroom.tasktracker.task.dc.LandlordOperateInitTask</t>
+  </si>
+  <si>
+    <t>不用填</t>
+  </si>
+  <si>
+    <t>LandlordOperateInitTask</t>
+  </si>
+  <si>
+    <t>{"taskImpl":"com.mogoroom.tasktracker.task.dc.LandlordOperateInitTask"}</t>
+  </si>
+  <si>
+    <t>定时任务</t>
+  </si>
+  <si>
+    <t>单次执行，上线后由开发通知执行一次。</t>
+  </si>
+  <si>
+    <t>不可重复执行，如有错，需开发修复</t>
+  </si>
+  <si>
+    <t>运营报表更新昨日Dc数据定时器</t>
+  </si>
+  <si>
+    <t>com.mogoroom.tasktracker.task.dc.DcCopyToLandlordOperate</t>
+  </si>
+  <si>
+    <t>DcCopyToLandlordOperate</t>
+  </si>
+  <si>
+    <t>{"taskImpl":"com.mogoroom.tasktracker.task.dc.DcCopyToLandlordOperate"}</t>
+  </si>
+  <si>
+    <t>每日凌晨5点</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="26" x14ac:knownFonts="1">
+  <fonts count="27">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -701,20 +780,23 @@
       <sz val="12"/>
       <color theme="1"/>
       <name val="微软雅黑"/>
-      <charset val="161"/>
+      <family val="2"/>
+      <charset val="134"/>
     </font>
     <font>
       <b/>
       <sz val="10"/>
       <color theme="1"/>
       <name val="微软雅黑"/>
-      <charset val="161"/>
+      <family val="2"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="10"/>
       <color theme="1"/>
       <name val="微软雅黑"/>
-      <charset val="161"/>
+      <family val="2"/>
+      <charset val="134"/>
     </font>
     <font>
       <b/>
@@ -752,41 +834,48 @@
       <sz val="10"/>
       <color theme="1"/>
       <name val="微软雅黑"/>
-      <charset val="161"/>
+      <family val="2"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="10"/>
       <color theme="1"/>
       <name val="微软雅黑"/>
-      <charset val="161"/>
+      <family val="2"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="10"/>
       <color indexed="63"/>
       <name val="微软雅黑"/>
-      <charset val="161"/>
+      <family val="2"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="10"/>
       <name val="微软雅黑"/>
-      <charset val="161"/>
+      <family val="2"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="10"/>
       <color theme="0" tint="-0.249977111117893"/>
       <name val="微软雅黑"/>
-      <charset val="161"/>
+      <family val="2"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="10"/>
       <name val="微软雅黑"/>
-      <charset val="161"/>
+      <family val="2"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="10"/>
       <color indexed="8"/>
       <name val="微软雅黑"/>
-      <charset val="161"/>
+      <family val="2"/>
+      <charset val="134"/>
     </font>
     <font>
       <u/>
@@ -800,6 +889,8 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -819,17 +910,22 @@
       <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color indexed="63"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -850,7 +946,14 @@
       <sz val="11"/>
       <color theme="11"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF000000"/>
+      <name val="Menlo"/>
+      <family val="1"/>
     </font>
   </fonts>
   <fills count="10">
@@ -1092,7 +1195,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="93">
+  <cellXfs count="104">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1330,6 +1433,21 @@
     <xf numFmtId="0" fontId="12" fillId="6" borderId="10" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="10" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="12" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="10" xfId="12" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="12" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="12" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1358,19 +1476,37 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="6" borderId="10" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="11" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="12" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="10" xfId="12" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="12" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="12" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="15">
@@ -1387,8 +1523,8 @@
     <cellStyle name="常规 9" xfId="1"/>
     <cellStyle name="超链接" xfId="13" builtinId="8"/>
     <cellStyle name="甘特图" xfId="3"/>
-    <cellStyle name="个性色4" xfId="11" builtinId="41"/>
     <cellStyle name="已访问的超链接" xfId="14" builtinId="9" hidden="1"/>
+    <cellStyle name="着色 4" xfId="11" builtinId="41"/>
   </cellStyles>
   <dxfs count="1">
     <dxf>
@@ -1403,13 +1539,16 @@
     </dxf>
   </dxfs>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium7">
-    <tableStyle name="MySqlDefault" count="2">
+    <tableStyle name="MySqlDefault" count="1">
       <tableStyleElement type="headerRow" dxfId="0"/>
     </tableStyle>
   </tableStyles>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1744,39 +1883,39 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:X170"/>
+  <dimension ref="A1:X171"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A11"/>
+      <selection activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="6.83203125" style="47" customWidth="1"/>
-    <col min="2" max="3" width="9.83203125" style="47" customWidth="1"/>
-    <col min="4" max="4" width="20.33203125" style="48" customWidth="1"/>
+    <col min="1" max="1" width="6.875" style="47" customWidth="1"/>
+    <col min="2" max="3" width="9.875" style="47" customWidth="1"/>
+    <col min="4" max="4" width="20.375" style="48" customWidth="1"/>
     <col min="5" max="5" width="15" style="47" customWidth="1"/>
-    <col min="6" max="6" width="18.1640625" style="47" customWidth="1"/>
-    <col min="7" max="7" width="9.6640625" style="47" customWidth="1"/>
-    <col min="8" max="8" width="12.1640625" style="48" customWidth="1"/>
-    <col min="9" max="9" width="9.6640625" style="47" customWidth="1"/>
-    <col min="10" max="10" width="12.33203125" style="48" customWidth="1"/>
-    <col min="11" max="11" width="10.1640625" style="48" customWidth="1"/>
-    <col min="12" max="12" width="13.83203125" style="47" customWidth="1"/>
-    <col min="13" max="13" width="15.83203125" style="47" customWidth="1"/>
-    <col min="14" max="15" width="11.33203125" style="47" customWidth="1"/>
+    <col min="6" max="6" width="18.125" style="47" customWidth="1"/>
+    <col min="7" max="7" width="9.625" style="47" customWidth="1"/>
+    <col min="8" max="8" width="12.125" style="48" customWidth="1"/>
+    <col min="9" max="9" width="9.625" style="47" customWidth="1"/>
+    <col min="10" max="10" width="12.375" style="48" customWidth="1"/>
+    <col min="11" max="11" width="10.125" style="48" customWidth="1"/>
+    <col min="12" max="12" width="13.875" style="47" customWidth="1"/>
+    <col min="13" max="13" width="15.875" style="47" customWidth="1"/>
+    <col min="14" max="15" width="11.375" style="47" customWidth="1"/>
     <col min="16" max="16" width="10" style="48" customWidth="1"/>
     <col min="17" max="17" width="12.5" style="48" customWidth="1"/>
-    <col min="18" max="18" width="7.6640625" style="48" customWidth="1"/>
+    <col min="18" max="18" width="7.625" style="48" customWidth="1"/>
     <col min="19" max="20" width="12" style="49" customWidth="1"/>
     <col min="21" max="21" width="17" style="49" customWidth="1"/>
-    <col min="22" max="22" width="14.1640625" style="49" customWidth="1"/>
-    <col min="23" max="23" width="41.83203125" style="48" customWidth="1"/>
-    <col min="24" max="24" width="8.83203125" customWidth="1"/>
+    <col min="22" max="22" width="14.125" style="49" customWidth="1"/>
+    <col min="23" max="23" width="41.875" style="48" customWidth="1"/>
+    <col min="24" max="24" width="8.875" customWidth="1"/>
     <col min="25" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" s="45" customFormat="1" ht="28" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:24" s="45" customFormat="1" ht="27">
       <c r="A1" s="50" t="s">
         <v>0</v>
       </c>
@@ -1847,7 +1986,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:24" s="46" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:24" s="46" customFormat="1" ht="18" customHeight="1">
       <c r="A2" s="51">
         <v>1</v>
       </c>
@@ -1909,7 +2048,7 @@
       <c r="W2" s="71"/>
       <c r="X2" s="72"/>
     </row>
-    <row r="3" spans="1:24" s="46" customFormat="1" ht="32" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:24" s="46" customFormat="1" ht="33">
       <c r="A3" s="51">
         <v>2</v>
       </c>
@@ -1971,14 +2110,14 @@
       <c r="W3" s="73"/>
       <c r="X3" s="72"/>
     </row>
-    <row r="4" spans="1:24" s="46" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:24" s="46" customFormat="1" ht="16.5" customHeight="1">
       <c r="A4" s="51">
         <v>3</v>
       </c>
-      <c r="B4" s="88" t="s">
+      <c r="B4" s="79" t="s">
         <v>68</v>
       </c>
-      <c r="C4" s="88" t="s">
+      <c r="C4" s="79" t="s">
         <v>86</v>
       </c>
       <c r="D4" s="77" t="s">
@@ -2033,14 +2172,14 @@
       <c r="W4" s="71"/>
       <c r="X4" s="72"/>
     </row>
-    <row r="5" spans="1:24" s="46" customFormat="1" ht="144" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:24" s="46" customFormat="1" ht="148.5">
       <c r="A5" s="51">
         <v>4</v>
       </c>
-      <c r="B5" s="88" t="s">
+      <c r="B5" s="79" t="s">
         <v>68</v>
       </c>
-      <c r="C5" s="88" t="s">
+      <c r="C5" s="79" t="s">
         <v>86</v>
       </c>
       <c r="D5" s="77" t="s">
@@ -2095,14 +2234,14 @@
       <c r="W5" s="73"/>
       <c r="X5" s="72"/>
     </row>
-    <row r="6" spans="1:24" s="46" customFormat="1" ht="16" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:24" s="46" customFormat="1" ht="16.5">
       <c r="A6" s="51">
         <v>5</v>
       </c>
-      <c r="B6" s="88" t="s">
+      <c r="B6" s="79" t="s">
         <v>68</v>
       </c>
-      <c r="C6" s="88" t="s">
+      <c r="C6" s="79" t="s">
         <v>69</v>
       </c>
       <c r="D6" s="77" t="s">
@@ -2157,24 +2296,24 @@
       <c r="W6" s="73"/>
       <c r="X6" s="72"/>
     </row>
-    <row r="7" spans="1:24" s="46" customFormat="1" ht="16" x14ac:dyDescent="0.15">
-      <c r="A7" s="51">
-        <v>6</v>
-      </c>
-      <c r="B7" s="88" t="s">
+    <row r="7" spans="1:24" s="46" customFormat="1" ht="16.5">
+      <c r="A7" s="79">
+        <v>1</v>
+      </c>
+      <c r="B7" s="79" t="s">
         <v>68</v>
       </c>
-      <c r="C7" s="88" t="s">
-        <v>69</v>
+      <c r="C7" s="79" t="s">
+        <v>86</v>
       </c>
       <c r="D7" s="77" t="s">
-        <v>122</v>
+        <v>138</v>
       </c>
       <c r="E7" s="58" t="s">
         <v>71</v>
       </c>
       <c r="F7" s="58" t="s">
-        <v>123</v>
+        <v>139</v>
       </c>
       <c r="G7" s="58" t="s">
         <v>74</v>
@@ -2190,16 +2329,16 @@
       </c>
       <c r="K7" s="58"/>
       <c r="L7" s="78" t="s">
-        <v>124</v>
+        <v>140</v>
       </c>
       <c r="M7" s="58" t="s">
-        <v>125</v>
+        <v>118</v>
       </c>
       <c r="N7" s="58" t="s">
         <v>77</v>
       </c>
       <c r="O7" s="58" t="s">
-        <v>126</v>
+        <v>141</v>
       </c>
       <c r="P7" s="78" t="s">
         <v>79</v>
@@ -2211,32 +2350,32 @@
         <v>80</v>
       </c>
       <c r="S7" s="67" t="s">
-        <v>127</v>
+        <v>142</v>
       </c>
       <c r="T7" s="67"/>
       <c r="U7" s="56"/>
       <c r="V7" s="66"/>
-      <c r="W7" s="73"/>
+      <c r="W7" s="93"/>
       <c r="X7" s="72"/>
     </row>
-    <row r="8" spans="1:24" s="46" customFormat="1" ht="32" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:24" s="46" customFormat="1" ht="16.5">
       <c r="A8" s="51">
-        <v>7</v>
-      </c>
-      <c r="B8" s="88" t="s">
+        <v>6</v>
+      </c>
+      <c r="B8" s="79" t="s">
         <v>68</v>
       </c>
-      <c r="C8" s="88" t="s">
+      <c r="C8" s="79" t="s">
         <v>69</v>
       </c>
       <c r="D8" s="77" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
       <c r="E8" s="58" t="s">
         <v>71</v>
       </c>
       <c r="F8" s="58" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="G8" s="58" t="s">
         <v>74</v>
@@ -2273,7 +2412,7 @@
         <v>80</v>
       </c>
       <c r="S8" s="67" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="T8" s="67"/>
       <c r="U8" s="56"/>
@@ -2281,24 +2420,24 @@
       <c r="W8" s="73"/>
       <c r="X8" s="72"/>
     </row>
-    <row r="9" spans="1:24" s="46" customFormat="1" ht="16" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:24" s="46" customFormat="1" ht="33">
       <c r="A9" s="51">
-        <v>8</v>
-      </c>
-      <c r="B9" s="88" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9" s="79" t="s">
         <v>68</v>
       </c>
-      <c r="C9" s="88" t="s">
+      <c r="C9" s="79" t="s">
         <v>69</v>
       </c>
       <c r="D9" s="77" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="E9" s="58" t="s">
         <v>71</v>
       </c>
       <c r="F9" s="58" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="G9" s="58" t="s">
         <v>74</v>
@@ -2334,27 +2473,27 @@
       <c r="R9" s="78" t="s">
         <v>80</v>
       </c>
-      <c r="S9" s="66" t="s">
-        <v>133</v>
-      </c>
-      <c r="T9" s="56"/>
+      <c r="S9" s="67" t="s">
+        <v>130</v>
+      </c>
+      <c r="T9" s="67"/>
       <c r="U9" s="56"/>
       <c r="V9" s="66"/>
       <c r="W9" s="73"/>
       <c r="X9" s="72"/>
     </row>
-    <row r="10" spans="1:24" s="46" customFormat="1" ht="32" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:24" s="46" customFormat="1" ht="16.5">
       <c r="A10" s="51">
-        <v>9</v>
-      </c>
-      <c r="B10" s="88" t="s">
+        <v>8</v>
+      </c>
+      <c r="B10" s="79" t="s">
         <v>68</v>
       </c>
-      <c r="C10" s="88" t="s">
+      <c r="C10" s="79" t="s">
         <v>69</v>
       </c>
       <c r="D10" s="77" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="E10" s="58" t="s">
         <v>71</v>
@@ -2397,7 +2536,7 @@
         <v>80</v>
       </c>
       <c r="S10" s="66" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="T10" s="56"/>
       <c r="U10" s="56"/>
@@ -2405,24 +2544,24 @@
       <c r="W10" s="73"/>
       <c r="X10" s="72"/>
     </row>
-    <row r="11" spans="1:24" s="46" customFormat="1" ht="32" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:24" s="46" customFormat="1" ht="33">
       <c r="A11" s="51">
-        <v>10</v>
-      </c>
-      <c r="B11" s="88" t="s">
+        <v>9</v>
+      </c>
+      <c r="B11" s="79" t="s">
         <v>68</v>
       </c>
-      <c r="C11" s="88" t="s">
+      <c r="C11" s="79" t="s">
         <v>69</v>
       </c>
       <c r="D11" s="77" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="E11" s="58" t="s">
         <v>71</v>
       </c>
       <c r="F11" s="58" t="s">
-        <v>116</v>
+        <v>132</v>
       </c>
       <c r="G11" s="58" t="s">
         <v>74</v>
@@ -2459,7 +2598,7 @@
         <v>80</v>
       </c>
       <c r="S11" s="66" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="T11" s="56"/>
       <c r="U11" s="56"/>
@@ -2467,33 +2606,69 @@
       <c r="W11" s="73"/>
       <c r="X11" s="72"/>
     </row>
-    <row r="12" spans="1:24" s="46" customFormat="1" ht="16" x14ac:dyDescent="0.15">
-      <c r="A12" s="51"/>
-      <c r="B12" s="51"/>
-      <c r="C12" s="51"/>
-      <c r="D12" s="52"/>
-      <c r="E12" s="58"/>
-      <c r="F12" s="58"/>
-      <c r="G12" s="58"/>
-      <c r="H12" s="59"/>
-      <c r="I12" s="58"/>
-      <c r="J12" s="59"/>
+    <row r="12" spans="1:24" s="46" customFormat="1" ht="33">
+      <c r="A12" s="51">
+        <v>10</v>
+      </c>
+      <c r="B12" s="79" t="s">
+        <v>68</v>
+      </c>
+      <c r="C12" s="79" t="s">
+        <v>69</v>
+      </c>
+      <c r="D12" s="77" t="s">
+        <v>136</v>
+      </c>
+      <c r="E12" s="58" t="s">
+        <v>71</v>
+      </c>
+      <c r="F12" s="58" t="s">
+        <v>116</v>
+      </c>
+      <c r="G12" s="58" t="s">
+        <v>74</v>
+      </c>
+      <c r="H12" s="59">
+        <v>42843</v>
+      </c>
+      <c r="I12" s="58" t="s">
+        <v>74</v>
+      </c>
+      <c r="J12" s="59">
+        <v>42843</v>
+      </c>
       <c r="K12" s="58"/>
-      <c r="L12" s="62"/>
-      <c r="M12" s="58"/>
-      <c r="N12" s="58"/>
-      <c r="O12" s="58"/>
-      <c r="P12" s="62"/>
-      <c r="Q12" s="59"/>
-      <c r="R12" s="62"/>
-      <c r="S12" s="56"/>
+      <c r="L12" s="78" t="s">
+        <v>124</v>
+      </c>
+      <c r="M12" s="58" t="s">
+        <v>125</v>
+      </c>
+      <c r="N12" s="58" t="s">
+        <v>77</v>
+      </c>
+      <c r="O12" s="58" t="s">
+        <v>126</v>
+      </c>
+      <c r="P12" s="78" t="s">
+        <v>79</v>
+      </c>
+      <c r="Q12" s="59">
+        <v>42843</v>
+      </c>
+      <c r="R12" s="78" t="s">
+        <v>80</v>
+      </c>
+      <c r="S12" s="66" t="s">
+        <v>137</v>
+      </c>
       <c r="T12" s="56"/>
       <c r="U12" s="56"/>
       <c r="V12" s="66"/>
       <c r="W12" s="73"/>
       <c r="X12" s="72"/>
     </row>
-    <row r="13" spans="1:24" s="46" customFormat="1" ht="16" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:24" s="46" customFormat="1" ht="16.5">
       <c r="A13" s="51"/>
       <c r="B13" s="51"/>
       <c r="C13" s="51"/>
@@ -2519,7 +2694,7 @@
       <c r="W13" s="73"/>
       <c r="X13" s="72"/>
     </row>
-    <row r="14" spans="1:24" s="46" customFormat="1" ht="16" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:24" s="46" customFormat="1" ht="16.5">
       <c r="A14" s="51"/>
       <c r="B14" s="51"/>
       <c r="C14" s="51"/>
@@ -2545,7 +2720,7 @@
       <c r="W14" s="73"/>
       <c r="X14" s="72"/>
     </row>
-    <row r="15" spans="1:24" s="46" customFormat="1" ht="16" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:24" s="46" customFormat="1" ht="16.5">
       <c r="A15" s="51"/>
       <c r="B15" s="51"/>
       <c r="C15" s="51"/>
@@ -2554,7 +2729,7 @@
       <c r="F15" s="58"/>
       <c r="G15" s="58"/>
       <c r="H15" s="59"/>
-      <c r="I15" s="59"/>
+      <c r="I15" s="58"/>
       <c r="J15" s="59"/>
       <c r="K15" s="58"/>
       <c r="L15" s="62"/>
@@ -2567,11 +2742,11 @@
       <c r="S15" s="56"/>
       <c r="T15" s="56"/>
       <c r="U15" s="56"/>
-      <c r="V15" s="56"/>
+      <c r="V15" s="66"/>
       <c r="W15" s="73"/>
       <c r="X15" s="72"/>
     </row>
-    <row r="16" spans="1:24" s="46" customFormat="1" ht="16" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:24" s="46" customFormat="1" ht="16.5">
       <c r="A16" s="51"/>
       <c r="B16" s="51"/>
       <c r="C16" s="51"/>
@@ -2597,7 +2772,7 @@
       <c r="W16" s="73"/>
       <c r="X16" s="72"/>
     </row>
-    <row r="17" spans="1:24" s="46" customFormat="1" ht="16" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:24" s="46" customFormat="1" ht="16.5">
       <c r="A17" s="51"/>
       <c r="B17" s="51"/>
       <c r="C17" s="51"/>
@@ -2608,22 +2783,22 @@
       <c r="H17" s="59"/>
       <c r="I17" s="59"/>
       <c r="J17" s="59"/>
-      <c r="K17" s="63"/>
+      <c r="K17" s="58"/>
       <c r="L17" s="62"/>
       <c r="M17" s="58"/>
       <c r="N17" s="58"/>
       <c r="O17" s="58"/>
-      <c r="P17" s="65"/>
+      <c r="P17" s="62"/>
       <c r="Q17" s="59"/>
-      <c r="R17" s="65"/>
+      <c r="R17" s="62"/>
       <c r="S17" s="56"/>
       <c r="T17" s="56"/>
       <c r="U17" s="56"/>
       <c r="V17" s="56"/>
-      <c r="W17" s="74"/>
+      <c r="W17" s="73"/>
       <c r="X17" s="72"/>
     </row>
-    <row r="18" spans="1:24" ht="16" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:24" s="46" customFormat="1" ht="16.5">
       <c r="A18" s="51"/>
       <c r="B18" s="51"/>
       <c r="C18" s="51"/>
@@ -2634,21 +2809,22 @@
       <c r="H18" s="59"/>
       <c r="I18" s="59"/>
       <c r="J18" s="59"/>
-      <c r="K18" s="64"/>
+      <c r="K18" s="63"/>
       <c r="L18" s="62"/>
       <c r="M18" s="58"/>
       <c r="N18" s="58"/>
       <c r="O18" s="58"/>
-      <c r="P18" s="62"/>
+      <c r="P18" s="65"/>
       <c r="Q18" s="59"/>
-      <c r="R18" s="62"/>
+      <c r="R18" s="65"/>
       <c r="S18" s="56"/>
       <c r="T18" s="56"/>
       <c r="U18" s="56"/>
       <c r="V18" s="56"/>
-      <c r="W18" s="57"/>
-    </row>
-    <row r="19" spans="1:24" ht="16" x14ac:dyDescent="0.15">
+      <c r="W18" s="74"/>
+      <c r="X18" s="72"/>
+    </row>
+    <row r="19" spans="1:24" ht="16.5">
       <c r="A19" s="51"/>
       <c r="B19" s="51"/>
       <c r="C19" s="51"/>
@@ -2664,7 +2840,7 @@
       <c r="M19" s="58"/>
       <c r="N19" s="58"/>
       <c r="O19" s="58"/>
-      <c r="P19" s="56"/>
+      <c r="P19" s="62"/>
       <c r="Q19" s="59"/>
       <c r="R19" s="62"/>
       <c r="S19" s="56"/>
@@ -2673,7 +2849,7 @@
       <c r="V19" s="56"/>
       <c r="W19" s="57"/>
     </row>
-    <row r="20" spans="1:24" ht="16" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:24" ht="16.5">
       <c r="A20" s="51"/>
       <c r="B20" s="51"/>
       <c r="C20" s="51"/>
@@ -2689,7 +2865,7 @@
       <c r="M20" s="58"/>
       <c r="N20" s="58"/>
       <c r="O20" s="58"/>
-      <c r="P20" s="66"/>
+      <c r="P20" s="56"/>
       <c r="Q20" s="59"/>
       <c r="R20" s="62"/>
       <c r="S20" s="56"/>
@@ -2698,32 +2874,32 @@
       <c r="V20" s="56"/>
       <c r="W20" s="57"/>
     </row>
-    <row r="21" spans="1:24" ht="16" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:24" ht="16.5">
       <c r="A21" s="51"/>
       <c r="B21" s="51"/>
       <c r="C21" s="51"/>
-      <c r="D21" s="54"/>
+      <c r="D21" s="52"/>
       <c r="E21" s="58"/>
-      <c r="F21" s="60"/>
+      <c r="F21" s="58"/>
       <c r="G21" s="58"/>
       <c r="H21" s="59"/>
-      <c r="I21" s="58"/>
+      <c r="I21" s="59"/>
       <c r="J21" s="59"/>
-      <c r="K21" s="58"/>
+      <c r="K21" s="64"/>
       <c r="L21" s="62"/>
       <c r="M21" s="58"/>
       <c r="N21" s="58"/>
-      <c r="O21" s="62"/>
-      <c r="P21" s="62"/>
+      <c r="O21" s="58"/>
+      <c r="P21" s="66"/>
       <c r="Q21" s="59"/>
       <c r="R21" s="62"/>
       <c r="S21" s="56"/>
       <c r="T21" s="56"/>
       <c r="U21" s="56"/>
       <c r="V21" s="56"/>
-      <c r="W21" s="73"/>
-    </row>
-    <row r="22" spans="1:24" ht="16" x14ac:dyDescent="0.15">
+      <c r="W21" s="57"/>
+    </row>
+    <row r="22" spans="1:24" ht="16.5">
       <c r="A22" s="51"/>
       <c r="B22" s="51"/>
       <c r="C22" s="51"/>
@@ -2748,7 +2924,7 @@
       <c r="V22" s="56"/>
       <c r="W22" s="73"/>
     </row>
-    <row r="23" spans="1:24" ht="16" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:24" ht="16.5">
       <c r="A23" s="51"/>
       <c r="B23" s="51"/>
       <c r="C23" s="51"/>
@@ -2773,7 +2949,7 @@
       <c r="V23" s="56"/>
       <c r="W23" s="73"/>
     </row>
-    <row r="24" spans="1:24" ht="16" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:24" ht="16.5">
       <c r="A24" s="51"/>
       <c r="B24" s="51"/>
       <c r="C24" s="51"/>
@@ -2792,13 +2968,13 @@
       <c r="P24" s="62"/>
       <c r="Q24" s="59"/>
       <c r="R24" s="62"/>
-      <c r="S24" s="69"/>
-      <c r="T24" s="69"/>
-      <c r="U24" s="69"/>
-      <c r="V24" s="69"/>
-      <c r="W24" s="75"/>
-    </row>
-    <row r="25" spans="1:24" ht="16" x14ac:dyDescent="0.15">
+      <c r="S24" s="56"/>
+      <c r="T24" s="56"/>
+      <c r="U24" s="56"/>
+      <c r="V24" s="56"/>
+      <c r="W24" s="73"/>
+    </row>
+    <row r="25" spans="1:24" ht="16.5">
       <c r="A25" s="51"/>
       <c r="B25" s="51"/>
       <c r="C25" s="51"/>
@@ -2817,13 +2993,13 @@
       <c r="P25" s="62"/>
       <c r="Q25" s="59"/>
       <c r="R25" s="62"/>
-      <c r="S25" s="70"/>
-      <c r="T25" s="70"/>
-      <c r="U25" s="70"/>
-      <c r="V25" s="70"/>
+      <c r="S25" s="69"/>
+      <c r="T25" s="69"/>
+      <c r="U25" s="69"/>
+      <c r="V25" s="69"/>
       <c r="W25" s="75"/>
     </row>
-    <row r="26" spans="1:24" ht="16" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:24" ht="16.5">
       <c r="A26" s="51"/>
       <c r="B26" s="51"/>
       <c r="C26" s="51"/>
@@ -2835,7 +3011,7 @@
       <c r="I26" s="58"/>
       <c r="J26" s="59"/>
       <c r="K26" s="58"/>
-      <c r="L26" s="58"/>
+      <c r="L26" s="62"/>
       <c r="M26" s="58"/>
       <c r="N26" s="58"/>
       <c r="O26" s="62"/>
@@ -2845,10 +3021,10 @@
       <c r="S26" s="70"/>
       <c r="T26" s="70"/>
       <c r="U26" s="70"/>
-      <c r="V26" s="76"/>
+      <c r="V26" s="70"/>
       <c r="W26" s="75"/>
     </row>
-    <row r="27" spans="1:24" ht="16" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:24" ht="16.5">
       <c r="A27" s="51"/>
       <c r="B27" s="51"/>
       <c r="C27" s="51"/>
@@ -2870,10 +3046,10 @@
       <c r="S27" s="70"/>
       <c r="T27" s="70"/>
       <c r="U27" s="70"/>
-      <c r="V27" s="70"/>
+      <c r="V27" s="76"/>
       <c r="W27" s="75"/>
     </row>
-    <row r="28" spans="1:24" ht="16" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:24" ht="16.5">
       <c r="A28" s="51"/>
       <c r="B28" s="51"/>
       <c r="C28" s="51"/>
@@ -2885,7 +3061,7 @@
       <c r="I28" s="58"/>
       <c r="J28" s="59"/>
       <c r="K28" s="58"/>
-      <c r="L28" s="62"/>
+      <c r="L28" s="58"/>
       <c r="M28" s="58"/>
       <c r="N28" s="58"/>
       <c r="O28" s="62"/>
@@ -2898,7 +3074,7 @@
       <c r="V28" s="70"/>
       <c r="W28" s="75"/>
     </row>
-    <row r="29" spans="1:24" ht="16" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:24" ht="16.5">
       <c r="A29" s="51"/>
       <c r="B29" s="51"/>
       <c r="C29" s="51"/>
@@ -2917,13 +3093,13 @@
       <c r="P29" s="62"/>
       <c r="Q29" s="59"/>
       <c r="R29" s="62"/>
-      <c r="S29" s="68"/>
-      <c r="T29" s="68"/>
-      <c r="U29" s="68"/>
-      <c r="V29" s="68"/>
-      <c r="W29" s="62"/>
-    </row>
-    <row r="30" spans="1:24" ht="16" x14ac:dyDescent="0.15">
+      <c r="S29" s="70"/>
+      <c r="T29" s="70"/>
+      <c r="U29" s="70"/>
+      <c r="V29" s="70"/>
+      <c r="W29" s="75"/>
+    </row>
+    <row r="30" spans="1:24" ht="16.5">
       <c r="A30" s="51"/>
       <c r="B30" s="51"/>
       <c r="C30" s="51"/>
@@ -2942,13 +3118,13 @@
       <c r="P30" s="62"/>
       <c r="Q30" s="59"/>
       <c r="R30" s="62"/>
-      <c r="S30" s="56"/>
-      <c r="T30" s="56"/>
-      <c r="U30" s="56"/>
-      <c r="V30" s="56"/>
-      <c r="W30" s="73"/>
-    </row>
-    <row r="31" spans="1:24" ht="16" x14ac:dyDescent="0.15">
+      <c r="S30" s="68"/>
+      <c r="T30" s="68"/>
+      <c r="U30" s="68"/>
+      <c r="V30" s="68"/>
+      <c r="W30" s="62"/>
+    </row>
+    <row r="31" spans="1:24" ht="16.5">
       <c r="A31" s="51"/>
       <c r="B31" s="51"/>
       <c r="C31" s="51"/>
@@ -2973,7 +3149,7 @@
       <c r="V31" s="56"/>
       <c r="W31" s="73"/>
     </row>
-    <row r="32" spans="1:24" ht="16" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:24" ht="16.5">
       <c r="A32" s="51"/>
       <c r="B32" s="51"/>
       <c r="C32" s="51"/>
@@ -2998,7 +3174,7 @@
       <c r="V32" s="56"/>
       <c r="W32" s="73"/>
     </row>
-    <row r="33" spans="1:23" ht="16" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:23" ht="16.5">
       <c r="A33" s="51"/>
       <c r="B33" s="51"/>
       <c r="C33" s="51"/>
@@ -3009,7 +3185,7 @@
       <c r="H33" s="59"/>
       <c r="I33" s="58"/>
       <c r="J33" s="59"/>
-      <c r="K33" s="60"/>
+      <c r="K33" s="58"/>
       <c r="L33" s="62"/>
       <c r="M33" s="58"/>
       <c r="N33" s="58"/>
@@ -3017,38 +3193,38 @@
       <c r="P33" s="62"/>
       <c r="Q33" s="59"/>
       <c r="R33" s="62"/>
-      <c r="S33" s="70"/>
-      <c r="T33" s="70"/>
-      <c r="U33" s="70"/>
-      <c r="V33" s="70"/>
-      <c r="W33" s="75"/>
-    </row>
-    <row r="34" spans="1:23" ht="16" x14ac:dyDescent="0.15">
+      <c r="S33" s="56"/>
+      <c r="T33" s="56"/>
+      <c r="U33" s="56"/>
+      <c r="V33" s="56"/>
+      <c r="W33" s="73"/>
+    </row>
+    <row r="34" spans="1:23" ht="16.5">
       <c r="A34" s="51"/>
       <c r="B34" s="51"/>
       <c r="C34" s="51"/>
-      <c r="D34" s="52"/>
+      <c r="D34" s="54"/>
       <c r="E34" s="58"/>
-      <c r="F34" s="58"/>
+      <c r="F34" s="60"/>
       <c r="G34" s="58"/>
       <c r="H34" s="59"/>
       <c r="I34" s="58"/>
       <c r="J34" s="59"/>
-      <c r="K34" s="58"/>
+      <c r="K34" s="60"/>
       <c r="L34" s="62"/>
       <c r="M34" s="58"/>
       <c r="N34" s="58"/>
-      <c r="O34" s="58"/>
+      <c r="O34" s="62"/>
       <c r="P34" s="62"/>
       <c r="Q34" s="59"/>
       <c r="R34" s="62"/>
-      <c r="S34" s="56"/>
-      <c r="T34" s="56"/>
-      <c r="U34" s="56"/>
-      <c r="V34" s="56"/>
-      <c r="W34" s="71"/>
-    </row>
-    <row r="35" spans="1:23" ht="16" x14ac:dyDescent="0.15">
+      <c r="S34" s="70"/>
+      <c r="T34" s="70"/>
+      <c r="U34" s="70"/>
+      <c r="V34" s="70"/>
+      <c r="W34" s="75"/>
+    </row>
+    <row r="35" spans="1:23" ht="16.5">
       <c r="A35" s="51"/>
       <c r="B35" s="51"/>
       <c r="C35" s="51"/>
@@ -3071,9 +3247,9 @@
       <c r="T35" s="56"/>
       <c r="U35" s="56"/>
       <c r="V35" s="56"/>
-      <c r="W35" s="73"/>
-    </row>
-    <row r="36" spans="1:23" ht="16" x14ac:dyDescent="0.15">
+      <c r="W35" s="71"/>
+    </row>
+    <row r="36" spans="1:23" ht="16.5">
       <c r="A36" s="51"/>
       <c r="B36" s="51"/>
       <c r="C36" s="51"/>
@@ -3098,7 +3274,7 @@
       <c r="V36" s="56"/>
       <c r="W36" s="73"/>
     </row>
-    <row r="37" spans="1:23" ht="16" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:23" ht="16.5">
       <c r="A37" s="51"/>
       <c r="B37" s="51"/>
       <c r="C37" s="51"/>
@@ -3123,7 +3299,7 @@
       <c r="V37" s="56"/>
       <c r="W37" s="73"/>
     </row>
-    <row r="38" spans="1:23" ht="16" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:23" ht="16.5">
       <c r="A38" s="51"/>
       <c r="B38" s="51"/>
       <c r="C38" s="51"/>
@@ -3148,7 +3324,7 @@
       <c r="V38" s="56"/>
       <c r="W38" s="73"/>
     </row>
-    <row r="39" spans="1:23" ht="16" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:23" ht="16.5">
       <c r="A39" s="51"/>
       <c r="B39" s="51"/>
       <c r="C39" s="51"/>
@@ -3173,7 +3349,7 @@
       <c r="V39" s="56"/>
       <c r="W39" s="73"/>
     </row>
-    <row r="40" spans="1:23" ht="16" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:23" ht="16.5">
       <c r="A40" s="51"/>
       <c r="B40" s="51"/>
       <c r="C40" s="51"/>
@@ -3198,7 +3374,7 @@
       <c r="V40" s="56"/>
       <c r="W40" s="73"/>
     </row>
-    <row r="41" spans="1:23" ht="16" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:23" ht="16.5">
       <c r="A41" s="51"/>
       <c r="B41" s="51"/>
       <c r="C41" s="51"/>
@@ -3223,7 +3399,7 @@
       <c r="V41" s="56"/>
       <c r="W41" s="73"/>
     </row>
-    <row r="42" spans="1:23" ht="16" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:23" ht="16.5">
       <c r="A42" s="51"/>
       <c r="B42" s="51"/>
       <c r="C42" s="51"/>
@@ -3248,7 +3424,7 @@
       <c r="V42" s="56"/>
       <c r="W42" s="73"/>
     </row>
-    <row r="43" spans="1:23" ht="16" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:23" ht="16.5">
       <c r="A43" s="51"/>
       <c r="B43" s="51"/>
       <c r="C43" s="51"/>
@@ -3273,7 +3449,7 @@
       <c r="V43" s="56"/>
       <c r="W43" s="73"/>
     </row>
-    <row r="44" spans="1:23" ht="16" x14ac:dyDescent="0.15">
+    <row r="44" spans="1:23" ht="16.5">
       <c r="A44" s="51"/>
       <c r="B44" s="51"/>
       <c r="C44" s="51"/>
@@ -3298,32 +3474,32 @@
       <c r="V44" s="56"/>
       <c r="W44" s="73"/>
     </row>
-    <row r="45" spans="1:23" ht="16" x14ac:dyDescent="0.15">
+    <row r="45" spans="1:23" ht="16.5">
       <c r="A45" s="51"/>
       <c r="B45" s="51"/>
       <c r="C45" s="51"/>
-      <c r="D45" s="53"/>
+      <c r="D45" s="52"/>
       <c r="E45" s="58"/>
       <c r="F45" s="58"/>
       <c r="G45" s="58"/>
       <c r="H45" s="59"/>
-      <c r="I45" s="59"/>
+      <c r="I45" s="58"/>
       <c r="J45" s="59"/>
       <c r="K45" s="58"/>
       <c r="L45" s="62"/>
-      <c r="M45" s="62"/>
+      <c r="M45" s="58"/>
       <c r="N45" s="58"/>
       <c r="O45" s="58"/>
       <c r="P45" s="62"/>
       <c r="Q45" s="59"/>
       <c r="R45" s="62"/>
-      <c r="S45" s="68"/>
-      <c r="T45" s="68"/>
-      <c r="U45" s="68"/>
-      <c r="V45" s="68"/>
+      <c r="S45" s="56"/>
+      <c r="T45" s="56"/>
+      <c r="U45" s="56"/>
+      <c r="V45" s="56"/>
       <c r="W45" s="73"/>
     </row>
-    <row r="46" spans="1:23" ht="16" x14ac:dyDescent="0.15">
+    <row r="46" spans="1:23" ht="16.5">
       <c r="A46" s="51"/>
       <c r="B46" s="51"/>
       <c r="C46" s="51"/>
@@ -3348,18 +3524,18 @@
       <c r="V46" s="68"/>
       <c r="W46" s="73"/>
     </row>
-    <row r="47" spans="1:23" ht="16" x14ac:dyDescent="0.15">
+    <row r="47" spans="1:23" ht="16.5">
       <c r="A47" s="51"/>
       <c r="B47" s="51"/>
       <c r="C47" s="51"/>
-      <c r="D47" s="55"/>
+      <c r="D47" s="53"/>
       <c r="E47" s="58"/>
       <c r="F47" s="58"/>
       <c r="G47" s="58"/>
       <c r="H47" s="59"/>
       <c r="I47" s="59"/>
       <c r="J47" s="59"/>
-      <c r="K47" s="64"/>
+      <c r="K47" s="58"/>
       <c r="L47" s="62"/>
       <c r="M47" s="62"/>
       <c r="N47" s="58"/>
@@ -3367,13 +3543,13 @@
       <c r="P47" s="62"/>
       <c r="Q47" s="59"/>
       <c r="R47" s="62"/>
-      <c r="S47" s="56"/>
-      <c r="T47" s="56"/>
-      <c r="U47" s="56"/>
-      <c r="V47" s="56"/>
-      <c r="W47" s="57"/>
-    </row>
-    <row r="48" spans="1:23" ht="16" x14ac:dyDescent="0.15">
+      <c r="S47" s="68"/>
+      <c r="T47" s="68"/>
+      <c r="U47" s="68"/>
+      <c r="V47" s="68"/>
+      <c r="W47" s="73"/>
+    </row>
+    <row r="48" spans="1:23" ht="16.5">
       <c r="A48" s="51"/>
       <c r="B48" s="51"/>
       <c r="C48" s="51"/>
@@ -3398,7 +3574,7 @@
       <c r="V48" s="56"/>
       <c r="W48" s="57"/>
     </row>
-    <row r="49" spans="1:23" ht="16" x14ac:dyDescent="0.15">
+    <row r="49" spans="1:23" ht="16.5">
       <c r="A49" s="51"/>
       <c r="B49" s="51"/>
       <c r="C49" s="51"/>
@@ -3423,7 +3599,7 @@
       <c r="V49" s="56"/>
       <c r="W49" s="57"/>
     </row>
-    <row r="50" spans="1:23" ht="16" x14ac:dyDescent="0.15">
+    <row r="50" spans="1:23" ht="16.5">
       <c r="A50" s="51"/>
       <c r="B50" s="51"/>
       <c r="C50" s="51"/>
@@ -3448,7 +3624,7 @@
       <c r="V50" s="56"/>
       <c r="W50" s="57"/>
     </row>
-    <row r="51" spans="1:23" ht="16" x14ac:dyDescent="0.15">
+    <row r="51" spans="1:23" ht="16.5">
       <c r="A51" s="51"/>
       <c r="B51" s="51"/>
       <c r="C51" s="51"/>
@@ -3473,7 +3649,7 @@
       <c r="V51" s="56"/>
       <c r="W51" s="57"/>
     </row>
-    <row r="52" spans="1:23" ht="16" x14ac:dyDescent="0.15">
+    <row r="52" spans="1:23" ht="16.5">
       <c r="A52" s="51"/>
       <c r="B52" s="51"/>
       <c r="C52" s="51"/>
@@ -3498,7 +3674,7 @@
       <c r="V52" s="56"/>
       <c r="W52" s="57"/>
     </row>
-    <row r="53" spans="1:23" ht="16" x14ac:dyDescent="0.15">
+    <row r="53" spans="1:23" ht="16.5">
       <c r="A53" s="51"/>
       <c r="B53" s="51"/>
       <c r="C53" s="51"/>
@@ -3523,32 +3699,32 @@
       <c r="V53" s="56"/>
       <c r="W53" s="57"/>
     </row>
-    <row r="54" spans="1:23" ht="16" x14ac:dyDescent="0.15">
-      <c r="A54" s="56"/>
-      <c r="B54" s="56"/>
-      <c r="C54" s="56"/>
-      <c r="D54" s="57"/>
-      <c r="E54" s="56"/>
+    <row r="54" spans="1:23" ht="16.5">
+      <c r="A54" s="51"/>
+      <c r="B54" s="51"/>
+      <c r="C54" s="51"/>
+      <c r="D54" s="55"/>
+      <c r="E54" s="58"/>
       <c r="F54" s="58"/>
       <c r="G54" s="58"/>
-      <c r="H54" s="61"/>
-      <c r="I54" s="56"/>
-      <c r="J54" s="61"/>
+      <c r="H54" s="59"/>
+      <c r="I54" s="59"/>
+      <c r="J54" s="59"/>
       <c r="K54" s="64"/>
-      <c r="L54" s="56"/>
-      <c r="M54" s="56"/>
+      <c r="L54" s="62"/>
+      <c r="M54" s="62"/>
       <c r="N54" s="58"/>
-      <c r="O54" s="56"/>
-      <c r="P54" s="56"/>
-      <c r="Q54" s="61"/>
-      <c r="R54" s="57"/>
+      <c r="O54" s="58"/>
+      <c r="P54" s="62"/>
+      <c r="Q54" s="59"/>
+      <c r="R54" s="62"/>
       <c r="S54" s="56"/>
       <c r="T54" s="56"/>
       <c r="U54" s="56"/>
       <c r="V54" s="56"/>
       <c r="W54" s="57"/>
     </row>
-    <row r="55" spans="1:23" ht="16" x14ac:dyDescent="0.15">
+    <row r="55" spans="1:23" ht="16.5">
       <c r="A55" s="56"/>
       <c r="B55" s="56"/>
       <c r="C55" s="56"/>
@@ -3573,7 +3749,7 @@
       <c r="V55" s="56"/>
       <c r="W55" s="57"/>
     </row>
-    <row r="56" spans="1:23" ht="16" x14ac:dyDescent="0.15">
+    <row r="56" spans="1:23" ht="16.5">
       <c r="A56" s="56"/>
       <c r="B56" s="56"/>
       <c r="C56" s="56"/>
@@ -3598,7 +3774,7 @@
       <c r="V56" s="56"/>
       <c r="W56" s="57"/>
     </row>
-    <row r="57" spans="1:23" ht="16" x14ac:dyDescent="0.15">
+    <row r="57" spans="1:23" ht="16.5">
       <c r="A57" s="56"/>
       <c r="B57" s="56"/>
       <c r="C57" s="56"/>
@@ -3623,7 +3799,7 @@
       <c r="V57" s="56"/>
       <c r="W57" s="57"/>
     </row>
-    <row r="58" spans="1:23" ht="16" x14ac:dyDescent="0.15">
+    <row r="58" spans="1:23" ht="16.5">
       <c r="A58" s="56"/>
       <c r="B58" s="56"/>
       <c r="C58" s="56"/>
@@ -3648,7 +3824,7 @@
       <c r="V58" s="56"/>
       <c r="W58" s="57"/>
     </row>
-    <row r="59" spans="1:23" ht="16" x14ac:dyDescent="0.15">
+    <row r="59" spans="1:23" ht="16.5">
       <c r="A59" s="56"/>
       <c r="B59" s="56"/>
       <c r="C59" s="56"/>
@@ -3673,7 +3849,7 @@
       <c r="V59" s="56"/>
       <c r="W59" s="57"/>
     </row>
-    <row r="60" spans="1:23" ht="16" x14ac:dyDescent="0.15">
+    <row r="60" spans="1:23" ht="16.5">
       <c r="A60" s="56"/>
       <c r="B60" s="56"/>
       <c r="C60" s="56"/>
@@ -3698,7 +3874,7 @@
       <c r="V60" s="56"/>
       <c r="W60" s="57"/>
     </row>
-    <row r="61" spans="1:23" ht="16" x14ac:dyDescent="0.15">
+    <row r="61" spans="1:23" ht="16.5">
       <c r="A61" s="56"/>
       <c r="B61" s="56"/>
       <c r="C61" s="56"/>
@@ -3723,7 +3899,7 @@
       <c r="V61" s="56"/>
       <c r="W61" s="57"/>
     </row>
-    <row r="62" spans="1:23" ht="16" x14ac:dyDescent="0.15">
+    <row r="62" spans="1:23" ht="16.5">
       <c r="A62" s="56"/>
       <c r="B62" s="56"/>
       <c r="C62" s="56"/>
@@ -3748,7 +3924,7 @@
       <c r="V62" s="56"/>
       <c r="W62" s="57"/>
     </row>
-    <row r="63" spans="1:23" ht="16" x14ac:dyDescent="0.15">
+    <row r="63" spans="1:23" ht="16.5">
       <c r="A63" s="56"/>
       <c r="B63" s="56"/>
       <c r="C63" s="56"/>
@@ -3773,7 +3949,7 @@
       <c r="V63" s="56"/>
       <c r="W63" s="57"/>
     </row>
-    <row r="64" spans="1:23" ht="16" x14ac:dyDescent="0.15">
+    <row r="64" spans="1:23" ht="16.5">
       <c r="A64" s="56"/>
       <c r="B64" s="56"/>
       <c r="C64" s="56"/>
@@ -3798,7 +3974,7 @@
       <c r="V64" s="56"/>
       <c r="W64" s="57"/>
     </row>
-    <row r="65" spans="1:23" ht="16" x14ac:dyDescent="0.15">
+    <row r="65" spans="1:23" ht="16.5">
       <c r="A65" s="56"/>
       <c r="B65" s="56"/>
       <c r="C65" s="56"/>
@@ -3823,7 +3999,7 @@
       <c r="V65" s="56"/>
       <c r="W65" s="57"/>
     </row>
-    <row r="66" spans="1:23" ht="16" x14ac:dyDescent="0.15">
+    <row r="66" spans="1:23" ht="16.5">
       <c r="A66" s="56"/>
       <c r="B66" s="56"/>
       <c r="C66" s="56"/>
@@ -3848,7 +4024,7 @@
       <c r="V66" s="56"/>
       <c r="W66" s="57"/>
     </row>
-    <row r="67" spans="1:23" ht="16" x14ac:dyDescent="0.15">
+    <row r="67" spans="1:23" ht="16.5">
       <c r="A67" s="56"/>
       <c r="B67" s="56"/>
       <c r="C67" s="56"/>
@@ -3873,7 +4049,7 @@
       <c r="V67" s="56"/>
       <c r="W67" s="57"/>
     </row>
-    <row r="68" spans="1:23" ht="16" x14ac:dyDescent="0.15">
+    <row r="68" spans="1:23" ht="16.5">
       <c r="A68" s="56"/>
       <c r="B68" s="56"/>
       <c r="C68" s="56"/>
@@ -3898,7 +4074,7 @@
       <c r="V68" s="56"/>
       <c r="W68" s="57"/>
     </row>
-    <row r="69" spans="1:23" ht="16" x14ac:dyDescent="0.15">
+    <row r="69" spans="1:23" ht="16.5">
       <c r="A69" s="56"/>
       <c r="B69" s="56"/>
       <c r="C69" s="56"/>
@@ -3923,14 +4099,14 @@
       <c r="V69" s="56"/>
       <c r="W69" s="57"/>
     </row>
-    <row r="70" spans="1:23" ht="16" x14ac:dyDescent="0.15">
+    <row r="70" spans="1:23" ht="16.5">
       <c r="A70" s="56"/>
       <c r="B70" s="56"/>
       <c r="C70" s="56"/>
       <c r="D70" s="57"/>
       <c r="E70" s="56"/>
       <c r="F70" s="58"/>
-      <c r="G70" s="56"/>
+      <c r="G70" s="58"/>
       <c r="H70" s="61"/>
       <c r="I70" s="56"/>
       <c r="J70" s="61"/>
@@ -3948,7 +4124,7 @@
       <c r="V70" s="56"/>
       <c r="W70" s="57"/>
     </row>
-    <row r="71" spans="1:23" ht="16" x14ac:dyDescent="0.15">
+    <row r="71" spans="1:23" ht="16.5">
       <c r="A71" s="56"/>
       <c r="B71" s="56"/>
       <c r="C71" s="56"/>
@@ -3973,7 +4149,7 @@
       <c r="V71" s="56"/>
       <c r="W71" s="57"/>
     </row>
-    <row r="72" spans="1:23" ht="16" x14ac:dyDescent="0.15">
+    <row r="72" spans="1:23" ht="16.5">
       <c r="A72" s="56"/>
       <c r="B72" s="56"/>
       <c r="C72" s="56"/>
@@ -3998,7 +4174,7 @@
       <c r="V72" s="56"/>
       <c r="W72" s="57"/>
     </row>
-    <row r="73" spans="1:23" ht="16" x14ac:dyDescent="0.15">
+    <row r="73" spans="1:23" ht="16.5">
       <c r="A73" s="56"/>
       <c r="B73" s="56"/>
       <c r="C73" s="56"/>
@@ -4023,7 +4199,7 @@
       <c r="V73" s="56"/>
       <c r="W73" s="57"/>
     </row>
-    <row r="74" spans="1:23" ht="16" x14ac:dyDescent="0.15">
+    <row r="74" spans="1:23" ht="16.5">
       <c r="A74" s="56"/>
       <c r="B74" s="56"/>
       <c r="C74" s="56"/>
@@ -4048,7 +4224,7 @@
       <c r="V74" s="56"/>
       <c r="W74" s="57"/>
     </row>
-    <row r="75" spans="1:23" ht="16" x14ac:dyDescent="0.15">
+    <row r="75" spans="1:23" ht="16.5">
       <c r="A75" s="56"/>
       <c r="B75" s="56"/>
       <c r="C75" s="56"/>
@@ -4073,13 +4249,13 @@
       <c r="V75" s="56"/>
       <c r="W75" s="57"/>
     </row>
-    <row r="76" spans="1:23" ht="16" x14ac:dyDescent="0.15">
+    <row r="76" spans="1:23" ht="16.5">
       <c r="A76" s="56"/>
       <c r="B76" s="56"/>
       <c r="C76" s="56"/>
       <c r="D76" s="57"/>
       <c r="E76" s="56"/>
-      <c r="F76" s="56"/>
+      <c r="F76" s="58"/>
       <c r="G76" s="56"/>
       <c r="H76" s="61"/>
       <c r="I76" s="56"/>
@@ -4098,7 +4274,7 @@
       <c r="V76" s="56"/>
       <c r="W76" s="57"/>
     </row>
-    <row r="77" spans="1:23" ht="16" x14ac:dyDescent="0.15">
+    <row r="77" spans="1:23" ht="16.5">
       <c r="A77" s="56"/>
       <c r="B77" s="56"/>
       <c r="C77" s="56"/>
@@ -4123,7 +4299,7 @@
       <c r="V77" s="56"/>
       <c r="W77" s="57"/>
     </row>
-    <row r="78" spans="1:23" ht="16" x14ac:dyDescent="0.15">
+    <row r="78" spans="1:23" ht="16.5">
       <c r="A78" s="56"/>
       <c r="B78" s="56"/>
       <c r="C78" s="56"/>
@@ -4148,7 +4324,7 @@
       <c r="V78" s="56"/>
       <c r="W78" s="57"/>
     </row>
-    <row r="79" spans="1:23" ht="16" x14ac:dyDescent="0.15">
+    <row r="79" spans="1:23" ht="16.5">
       <c r="A79" s="56"/>
       <c r="B79" s="56"/>
       <c r="C79" s="56"/>
@@ -4173,7 +4349,7 @@
       <c r="V79" s="56"/>
       <c r="W79" s="57"/>
     </row>
-    <row r="80" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="80" spans="1:23" ht="16.5">
       <c r="A80" s="56"/>
       <c r="B80" s="56"/>
       <c r="C80" s="56"/>
@@ -4187,7 +4363,7 @@
       <c r="K80" s="64"/>
       <c r="L80" s="56"/>
       <c r="M80" s="56"/>
-      <c r="N80" s="56"/>
+      <c r="N80" s="58"/>
       <c r="O80" s="56"/>
       <c r="P80" s="56"/>
       <c r="Q80" s="61"/>
@@ -4198,7 +4374,7 @@
       <c r="V80" s="56"/>
       <c r="W80" s="57"/>
     </row>
-    <row r="81" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="81" spans="1:23">
       <c r="A81" s="56"/>
       <c r="B81" s="56"/>
       <c r="C81" s="56"/>
@@ -4223,7 +4399,7 @@
       <c r="V81" s="56"/>
       <c r="W81" s="57"/>
     </row>
-    <row r="82" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="82" spans="1:23">
       <c r="A82" s="56"/>
       <c r="B82" s="56"/>
       <c r="C82" s="56"/>
@@ -4248,7 +4424,7 @@
       <c r="V82" s="56"/>
       <c r="W82" s="57"/>
     </row>
-    <row r="83" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="83" spans="1:23">
       <c r="A83" s="56"/>
       <c r="B83" s="56"/>
       <c r="C83" s="56"/>
@@ -4273,7 +4449,7 @@
       <c r="V83" s="56"/>
       <c r="W83" s="57"/>
     </row>
-    <row r="84" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="84" spans="1:23">
       <c r="A84" s="56"/>
       <c r="B84" s="56"/>
       <c r="C84" s="56"/>
@@ -4298,7 +4474,7 @@
       <c r="V84" s="56"/>
       <c r="W84" s="57"/>
     </row>
-    <row r="85" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="85" spans="1:23">
       <c r="A85" s="56"/>
       <c r="B85" s="56"/>
       <c r="C85" s="56"/>
@@ -4323,7 +4499,7 @@
       <c r="V85" s="56"/>
       <c r="W85" s="57"/>
     </row>
-    <row r="86" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="86" spans="1:23">
       <c r="A86" s="56"/>
       <c r="B86" s="56"/>
       <c r="C86" s="56"/>
@@ -4348,7 +4524,7 @@
       <c r="V86" s="56"/>
       <c r="W86" s="57"/>
     </row>
-    <row r="87" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="87" spans="1:23">
       <c r="A87" s="56"/>
       <c r="B87" s="56"/>
       <c r="C87" s="56"/>
@@ -4373,7 +4549,7 @@
       <c r="V87" s="56"/>
       <c r="W87" s="57"/>
     </row>
-    <row r="88" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="88" spans="1:23">
       <c r="A88" s="56"/>
       <c r="B88" s="56"/>
       <c r="C88" s="56"/>
@@ -4398,7 +4574,7 @@
       <c r="V88" s="56"/>
       <c r="W88" s="57"/>
     </row>
-    <row r="89" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="89" spans="1:23">
       <c r="A89" s="56"/>
       <c r="B89" s="56"/>
       <c r="C89" s="56"/>
@@ -4423,7 +4599,7 @@
       <c r="V89" s="56"/>
       <c r="W89" s="57"/>
     </row>
-    <row r="90" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="90" spans="1:23">
       <c r="A90" s="56"/>
       <c r="B90" s="56"/>
       <c r="C90" s="56"/>
@@ -4448,7 +4624,7 @@
       <c r="V90" s="56"/>
       <c r="W90" s="57"/>
     </row>
-    <row r="91" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="91" spans="1:23">
       <c r="A91" s="56"/>
       <c r="B91" s="56"/>
       <c r="C91" s="56"/>
@@ -4473,7 +4649,7 @@
       <c r="V91" s="56"/>
       <c r="W91" s="57"/>
     </row>
-    <row r="92" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="92" spans="1:23">
       <c r="A92" s="56"/>
       <c r="B92" s="56"/>
       <c r="C92" s="56"/>
@@ -4498,7 +4674,7 @@
       <c r="V92" s="56"/>
       <c r="W92" s="57"/>
     </row>
-    <row r="93" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="93" spans="1:23">
       <c r="A93" s="56"/>
       <c r="B93" s="56"/>
       <c r="C93" s="56"/>
@@ -4523,7 +4699,7 @@
       <c r="V93" s="56"/>
       <c r="W93" s="57"/>
     </row>
-    <row r="94" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="94" spans="1:23">
       <c r="A94" s="56"/>
       <c r="B94" s="56"/>
       <c r="C94" s="56"/>
@@ -4548,7 +4724,7 @@
       <c r="V94" s="56"/>
       <c r="W94" s="57"/>
     </row>
-    <row r="95" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="95" spans="1:23">
       <c r="A95" s="56"/>
       <c r="B95" s="56"/>
       <c r="C95" s="56"/>
@@ -4573,7 +4749,7 @@
       <c r="V95" s="56"/>
       <c r="W95" s="57"/>
     </row>
-    <row r="96" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="96" spans="1:23">
       <c r="A96" s="56"/>
       <c r="B96" s="56"/>
       <c r="C96" s="56"/>
@@ -4598,7 +4774,7 @@
       <c r="V96" s="56"/>
       <c r="W96" s="57"/>
     </row>
-    <row r="97" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="97" spans="1:23">
       <c r="A97" s="56"/>
       <c r="B97" s="56"/>
       <c r="C97" s="56"/>
@@ -4623,7 +4799,7 @@
       <c r="V97" s="56"/>
       <c r="W97" s="57"/>
     </row>
-    <row r="98" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="98" spans="1:23">
       <c r="A98" s="56"/>
       <c r="B98" s="56"/>
       <c r="C98" s="56"/>
@@ -4648,7 +4824,7 @@
       <c r="V98" s="56"/>
       <c r="W98" s="57"/>
     </row>
-    <row r="99" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="99" spans="1:23">
       <c r="A99" s="56"/>
       <c r="B99" s="56"/>
       <c r="C99" s="56"/>
@@ -4673,7 +4849,7 @@
       <c r="V99" s="56"/>
       <c r="W99" s="57"/>
     </row>
-    <row r="100" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="100" spans="1:23">
       <c r="A100" s="56"/>
       <c r="B100" s="56"/>
       <c r="C100" s="56"/>
@@ -4698,7 +4874,7 @@
       <c r="V100" s="56"/>
       <c r="W100" s="57"/>
     </row>
-    <row r="101" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="101" spans="1:23">
       <c r="A101" s="56"/>
       <c r="B101" s="56"/>
       <c r="C101" s="56"/>
@@ -4723,7 +4899,7 @@
       <c r="V101" s="56"/>
       <c r="W101" s="57"/>
     </row>
-    <row r="102" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="102" spans="1:23">
       <c r="A102" s="56"/>
       <c r="B102" s="56"/>
       <c r="C102" s="56"/>
@@ -4748,7 +4924,7 @@
       <c r="V102" s="56"/>
       <c r="W102" s="57"/>
     </row>
-    <row r="103" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="103" spans="1:23">
       <c r="A103" s="56"/>
       <c r="B103" s="56"/>
       <c r="C103" s="56"/>
@@ -4773,7 +4949,7 @@
       <c r="V103" s="56"/>
       <c r="W103" s="57"/>
     </row>
-    <row r="104" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="104" spans="1:23">
       <c r="A104" s="56"/>
       <c r="B104" s="56"/>
       <c r="C104" s="56"/>
@@ -4798,7 +4974,7 @@
       <c r="V104" s="56"/>
       <c r="W104" s="57"/>
     </row>
-    <row r="105" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="105" spans="1:23">
       <c r="A105" s="56"/>
       <c r="B105" s="56"/>
       <c r="C105" s="56"/>
@@ -4823,7 +4999,7 @@
       <c r="V105" s="56"/>
       <c r="W105" s="57"/>
     </row>
-    <row r="106" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="106" spans="1:23">
       <c r="A106" s="56"/>
       <c r="B106" s="56"/>
       <c r="C106" s="56"/>
@@ -4848,7 +5024,7 @@
       <c r="V106" s="56"/>
       <c r="W106" s="57"/>
     </row>
-    <row r="107" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="107" spans="1:23">
       <c r="A107" s="56"/>
       <c r="B107" s="56"/>
       <c r="C107" s="56"/>
@@ -4873,7 +5049,7 @@
       <c r="V107" s="56"/>
       <c r="W107" s="57"/>
     </row>
-    <row r="108" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="108" spans="1:23">
       <c r="A108" s="56"/>
       <c r="B108" s="56"/>
       <c r="C108" s="56"/>
@@ -4898,7 +5074,7 @@
       <c r="V108" s="56"/>
       <c r="W108" s="57"/>
     </row>
-    <row r="109" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="109" spans="1:23">
       <c r="A109" s="56"/>
       <c r="B109" s="56"/>
       <c r="C109" s="56"/>
@@ -4923,7 +5099,7 @@
       <c r="V109" s="56"/>
       <c r="W109" s="57"/>
     </row>
-    <row r="110" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="110" spans="1:23">
       <c r="A110" s="56"/>
       <c r="B110" s="56"/>
       <c r="C110" s="56"/>
@@ -4948,7 +5124,7 @@
       <c r="V110" s="56"/>
       <c r="W110" s="57"/>
     </row>
-    <row r="111" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="111" spans="1:23">
       <c r="A111" s="56"/>
       <c r="B111" s="56"/>
       <c r="C111" s="56"/>
@@ -4973,7 +5149,7 @@
       <c r="V111" s="56"/>
       <c r="W111" s="57"/>
     </row>
-    <row r="112" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="112" spans="1:23">
       <c r="A112" s="56"/>
       <c r="B112" s="56"/>
       <c r="C112" s="56"/>
@@ -4998,7 +5174,7 @@
       <c r="V112" s="56"/>
       <c r="W112" s="57"/>
     </row>
-    <row r="113" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="113" spans="1:23">
       <c r="A113" s="56"/>
       <c r="B113" s="56"/>
       <c r="C113" s="56"/>
@@ -5023,7 +5199,7 @@
       <c r="V113" s="56"/>
       <c r="W113" s="57"/>
     </row>
-    <row r="114" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="114" spans="1:23">
       <c r="A114" s="56"/>
       <c r="B114" s="56"/>
       <c r="C114" s="56"/>
@@ -5048,7 +5224,7 @@
       <c r="V114" s="56"/>
       <c r="W114" s="57"/>
     </row>
-    <row r="115" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="115" spans="1:23">
       <c r="A115" s="56"/>
       <c r="B115" s="56"/>
       <c r="C115" s="56"/>
@@ -5073,7 +5249,7 @@
       <c r="V115" s="56"/>
       <c r="W115" s="57"/>
     </row>
-    <row r="116" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="116" spans="1:23">
       <c r="A116" s="56"/>
       <c r="B116" s="56"/>
       <c r="C116" s="56"/>
@@ -5098,7 +5274,7 @@
       <c r="V116" s="56"/>
       <c r="W116" s="57"/>
     </row>
-    <row r="117" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="117" spans="1:23">
       <c r="A117" s="56"/>
       <c r="B117" s="56"/>
       <c r="C117" s="56"/>
@@ -5123,7 +5299,7 @@
       <c r="V117" s="56"/>
       <c r="W117" s="57"/>
     </row>
-    <row r="118" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="118" spans="1:23">
       <c r="A118" s="56"/>
       <c r="B118" s="56"/>
       <c r="C118" s="56"/>
@@ -5148,7 +5324,7 @@
       <c r="V118" s="56"/>
       <c r="W118" s="57"/>
     </row>
-    <row r="119" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="119" spans="1:23">
       <c r="A119" s="56"/>
       <c r="B119" s="56"/>
       <c r="C119" s="56"/>
@@ -5173,7 +5349,7 @@
       <c r="V119" s="56"/>
       <c r="W119" s="57"/>
     </row>
-    <row r="120" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="120" spans="1:23">
       <c r="A120" s="56"/>
       <c r="B120" s="56"/>
       <c r="C120" s="56"/>
@@ -5198,7 +5374,7 @@
       <c r="V120" s="56"/>
       <c r="W120" s="57"/>
     </row>
-    <row r="121" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="121" spans="1:23">
       <c r="A121" s="56"/>
       <c r="B121" s="56"/>
       <c r="C121" s="56"/>
@@ -5223,7 +5399,7 @@
       <c r="V121" s="56"/>
       <c r="W121" s="57"/>
     </row>
-    <row r="122" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="122" spans="1:23">
       <c r="A122" s="56"/>
       <c r="B122" s="56"/>
       <c r="C122" s="56"/>
@@ -5248,7 +5424,7 @@
       <c r="V122" s="56"/>
       <c r="W122" s="57"/>
     </row>
-    <row r="123" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="123" spans="1:23">
       <c r="A123" s="56"/>
       <c r="B123" s="56"/>
       <c r="C123" s="56"/>
@@ -5273,7 +5449,7 @@
       <c r="V123" s="56"/>
       <c r="W123" s="57"/>
     </row>
-    <row r="124" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="124" spans="1:23">
       <c r="A124" s="56"/>
       <c r="B124" s="56"/>
       <c r="C124" s="56"/>
@@ -5298,7 +5474,7 @@
       <c r="V124" s="56"/>
       <c r="W124" s="57"/>
     </row>
-    <row r="125" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="125" spans="1:23">
       <c r="A125" s="56"/>
       <c r="B125" s="56"/>
       <c r="C125" s="56"/>
@@ -5323,7 +5499,7 @@
       <c r="V125" s="56"/>
       <c r="W125" s="57"/>
     </row>
-    <row r="126" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="126" spans="1:23">
       <c r="A126" s="56"/>
       <c r="B126" s="56"/>
       <c r="C126" s="56"/>
@@ -5348,7 +5524,7 @@
       <c r="V126" s="56"/>
       <c r="W126" s="57"/>
     </row>
-    <row r="127" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="127" spans="1:23">
       <c r="A127" s="56"/>
       <c r="B127" s="56"/>
       <c r="C127" s="56"/>
@@ -5373,7 +5549,7 @@
       <c r="V127" s="56"/>
       <c r="W127" s="57"/>
     </row>
-    <row r="128" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="128" spans="1:23">
       <c r="A128" s="56"/>
       <c r="B128" s="56"/>
       <c r="C128" s="56"/>
@@ -5398,7 +5574,7 @@
       <c r="V128" s="56"/>
       <c r="W128" s="57"/>
     </row>
-    <row r="129" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="129" spans="1:23">
       <c r="A129" s="56"/>
       <c r="B129" s="56"/>
       <c r="C129" s="56"/>
@@ -5423,7 +5599,7 @@
       <c r="V129" s="56"/>
       <c r="W129" s="57"/>
     </row>
-    <row r="130" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="130" spans="1:23">
       <c r="A130" s="56"/>
       <c r="B130" s="56"/>
       <c r="C130" s="56"/>
@@ -5448,7 +5624,7 @@
       <c r="V130" s="56"/>
       <c r="W130" s="57"/>
     </row>
-    <row r="131" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="131" spans="1:23">
       <c r="A131" s="56"/>
       <c r="B131" s="56"/>
       <c r="C131" s="56"/>
@@ -5473,7 +5649,7 @@
       <c r="V131" s="56"/>
       <c r="W131" s="57"/>
     </row>
-    <row r="132" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="132" spans="1:23">
       <c r="A132" s="56"/>
       <c r="B132" s="56"/>
       <c r="C132" s="56"/>
@@ -5498,7 +5674,7 @@
       <c r="V132" s="56"/>
       <c r="W132" s="57"/>
     </row>
-    <row r="133" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="133" spans="1:23">
       <c r="A133" s="56"/>
       <c r="B133" s="56"/>
       <c r="C133" s="56"/>
@@ -5523,7 +5699,7 @@
       <c r="V133" s="56"/>
       <c r="W133" s="57"/>
     </row>
-    <row r="134" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="134" spans="1:23">
       <c r="A134" s="56"/>
       <c r="B134" s="56"/>
       <c r="C134" s="56"/>
@@ -5548,7 +5724,7 @@
       <c r="V134" s="56"/>
       <c r="W134" s="57"/>
     </row>
-    <row r="135" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="135" spans="1:23">
       <c r="A135" s="56"/>
       <c r="B135" s="56"/>
       <c r="C135" s="56"/>
@@ -5573,7 +5749,7 @@
       <c r="V135" s="56"/>
       <c r="W135" s="57"/>
     </row>
-    <row r="136" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="136" spans="1:23">
       <c r="A136" s="56"/>
       <c r="B136" s="56"/>
       <c r="C136" s="56"/>
@@ -5592,9 +5768,13 @@
       <c r="P136" s="56"/>
       <c r="Q136" s="61"/>
       <c r="R136" s="57"/>
+      <c r="S136" s="56"/>
+      <c r="T136" s="56"/>
+      <c r="U136" s="56"/>
+      <c r="V136" s="56"/>
       <c r="W136" s="57"/>
     </row>
-    <row r="137" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="137" spans="1:23">
       <c r="A137" s="56"/>
       <c r="B137" s="56"/>
       <c r="C137" s="56"/>
@@ -5615,7 +5795,7 @@
       <c r="R137" s="57"/>
       <c r="W137" s="57"/>
     </row>
-    <row r="138" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="138" spans="1:23">
       <c r="A138" s="56"/>
       <c r="B138" s="56"/>
       <c r="C138" s="56"/>
@@ -5636,7 +5816,7 @@
       <c r="R138" s="57"/>
       <c r="W138" s="57"/>
     </row>
-    <row r="139" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="139" spans="1:23">
       <c r="A139" s="56"/>
       <c r="B139" s="56"/>
       <c r="C139" s="56"/>
@@ -5657,7 +5837,7 @@
       <c r="R139" s="57"/>
       <c r="W139" s="57"/>
     </row>
-    <row r="140" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="140" spans="1:23">
       <c r="A140" s="56"/>
       <c r="B140" s="56"/>
       <c r="C140" s="56"/>
@@ -5678,7 +5858,7 @@
       <c r="R140" s="57"/>
       <c r="W140" s="57"/>
     </row>
-    <row r="141" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="141" spans="1:23">
       <c r="A141" s="56"/>
       <c r="B141" s="56"/>
       <c r="C141" s="56"/>
@@ -5699,7 +5879,7 @@
       <c r="R141" s="57"/>
       <c r="W141" s="57"/>
     </row>
-    <row r="142" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="142" spans="1:23">
       <c r="A142" s="56"/>
       <c r="B142" s="56"/>
       <c r="C142" s="56"/>
@@ -5720,7 +5900,7 @@
       <c r="R142" s="57"/>
       <c r="W142" s="57"/>
     </row>
-    <row r="143" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="143" spans="1:23">
       <c r="A143" s="56"/>
       <c r="B143" s="56"/>
       <c r="C143" s="56"/>
@@ -5741,7 +5921,7 @@
       <c r="R143" s="57"/>
       <c r="W143" s="57"/>
     </row>
-    <row r="144" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="144" spans="1:23">
       <c r="A144" s="56"/>
       <c r="B144" s="56"/>
       <c r="C144" s="56"/>
@@ -5762,7 +5942,7 @@
       <c r="R144" s="57"/>
       <c r="W144" s="57"/>
     </row>
-    <row r="145" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="145" spans="1:23">
       <c r="A145" s="56"/>
       <c r="B145" s="56"/>
       <c r="C145" s="56"/>
@@ -5783,7 +5963,7 @@
       <c r="R145" s="57"/>
       <c r="W145" s="57"/>
     </row>
-    <row r="146" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="146" spans="1:23">
       <c r="A146" s="56"/>
       <c r="B146" s="56"/>
       <c r="C146" s="56"/>
@@ -5804,7 +5984,7 @@
       <c r="R146" s="57"/>
       <c r="W146" s="57"/>
     </row>
-    <row r="147" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="147" spans="1:23">
       <c r="A147" s="56"/>
       <c r="B147" s="56"/>
       <c r="C147" s="56"/>
@@ -5825,7 +6005,7 @@
       <c r="R147" s="57"/>
       <c r="W147" s="57"/>
     </row>
-    <row r="148" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="148" spans="1:23">
       <c r="A148" s="56"/>
       <c r="B148" s="56"/>
       <c r="C148" s="56"/>
@@ -5846,7 +6026,7 @@
       <c r="R148" s="57"/>
       <c r="W148" s="57"/>
     </row>
-    <row r="149" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="149" spans="1:23">
       <c r="A149" s="56"/>
       <c r="B149" s="56"/>
       <c r="C149" s="56"/>
@@ -5867,7 +6047,7 @@
       <c r="R149" s="57"/>
       <c r="W149" s="57"/>
     </row>
-    <row r="150" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="150" spans="1:23">
       <c r="A150" s="56"/>
       <c r="B150" s="56"/>
       <c r="C150" s="56"/>
@@ -5888,7 +6068,7 @@
       <c r="R150" s="57"/>
       <c r="W150" s="57"/>
     </row>
-    <row r="151" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="151" spans="1:23">
       <c r="A151" s="56"/>
       <c r="B151" s="56"/>
       <c r="C151" s="56"/>
@@ -5909,7 +6089,7 @@
       <c r="R151" s="57"/>
       <c r="W151" s="57"/>
     </row>
-    <row r="152" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="152" spans="1:23">
       <c r="A152" s="56"/>
       <c r="B152" s="56"/>
       <c r="C152" s="56"/>
@@ -5930,7 +6110,7 @@
       <c r="R152" s="57"/>
       <c r="W152" s="57"/>
     </row>
-    <row r="153" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="153" spans="1:23">
       <c r="A153" s="56"/>
       <c r="B153" s="56"/>
       <c r="C153" s="56"/>
@@ -5951,7 +6131,7 @@
       <c r="R153" s="57"/>
       <c r="W153" s="57"/>
     </row>
-    <row r="154" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="154" spans="1:23">
       <c r="A154" s="56"/>
       <c r="B154" s="56"/>
       <c r="C154" s="56"/>
@@ -5972,7 +6152,7 @@
       <c r="R154" s="57"/>
       <c r="W154" s="57"/>
     </row>
-    <row r="155" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="155" spans="1:23">
       <c r="A155" s="56"/>
       <c r="B155" s="56"/>
       <c r="C155" s="56"/>
@@ -5993,7 +6173,7 @@
       <c r="R155" s="57"/>
       <c r="W155" s="57"/>
     </row>
-    <row r="156" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="156" spans="1:23">
       <c r="A156" s="56"/>
       <c r="B156" s="56"/>
       <c r="C156" s="56"/>
@@ -6014,7 +6194,7 @@
       <c r="R156" s="57"/>
       <c r="W156" s="57"/>
     </row>
-    <row r="157" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="157" spans="1:23">
       <c r="A157" s="56"/>
       <c r="B157" s="56"/>
       <c r="C157" s="56"/>
@@ -6035,7 +6215,7 @@
       <c r="R157" s="57"/>
       <c r="W157" s="57"/>
     </row>
-    <row r="158" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="158" spans="1:23">
       <c r="A158" s="56"/>
       <c r="B158" s="56"/>
       <c r="C158" s="56"/>
@@ -6056,7 +6236,7 @@
       <c r="R158" s="57"/>
       <c r="W158" s="57"/>
     </row>
-    <row r="159" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="159" spans="1:23">
       <c r="A159" s="56"/>
       <c r="B159" s="56"/>
       <c r="C159" s="56"/>
@@ -6077,7 +6257,7 @@
       <c r="R159" s="57"/>
       <c r="W159" s="57"/>
     </row>
-    <row r="160" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="160" spans="1:23">
       <c r="A160" s="56"/>
       <c r="B160" s="56"/>
       <c r="C160" s="56"/>
@@ -6098,7 +6278,7 @@
       <c r="R160" s="57"/>
       <c r="W160" s="57"/>
     </row>
-    <row r="161" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="161" spans="1:23">
       <c r="A161" s="56"/>
       <c r="B161" s="56"/>
       <c r="C161" s="56"/>
@@ -6119,7 +6299,7 @@
       <c r="R161" s="57"/>
       <c r="W161" s="57"/>
     </row>
-    <row r="162" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="162" spans="1:23">
       <c r="A162" s="56"/>
       <c r="B162" s="56"/>
       <c r="C162" s="56"/>
@@ -6140,7 +6320,7 @@
       <c r="R162" s="57"/>
       <c r="W162" s="57"/>
     </row>
-    <row r="163" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="163" spans="1:23">
       <c r="A163" s="56"/>
       <c r="B163" s="56"/>
       <c r="C163" s="56"/>
@@ -6161,7 +6341,7 @@
       <c r="R163" s="57"/>
       <c r="W163" s="57"/>
     </row>
-    <row r="164" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="164" spans="1:23">
       <c r="A164" s="56"/>
       <c r="B164" s="56"/>
       <c r="C164" s="56"/>
@@ -6182,7 +6362,7 @@
       <c r="R164" s="57"/>
       <c r="W164" s="57"/>
     </row>
-    <row r="165" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="165" spans="1:23">
       <c r="A165" s="56"/>
       <c r="B165" s="56"/>
       <c r="C165" s="56"/>
@@ -6203,7 +6383,7 @@
       <c r="R165" s="57"/>
       <c r="W165" s="57"/>
     </row>
-    <row r="166" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="166" spans="1:23">
       <c r="A166" s="56"/>
       <c r="B166" s="56"/>
       <c r="C166" s="56"/>
@@ -6224,7 +6404,7 @@
       <c r="R166" s="57"/>
       <c r="W166" s="57"/>
     </row>
-    <row r="167" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="167" spans="1:23">
       <c r="A167" s="56"/>
       <c r="B167" s="56"/>
       <c r="C167" s="56"/>
@@ -6245,7 +6425,7 @@
       <c r="R167" s="57"/>
       <c r="W167" s="57"/>
     </row>
-    <row r="168" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="168" spans="1:23">
       <c r="A168" s="56"/>
       <c r="B168" s="56"/>
       <c r="C168" s="56"/>
@@ -6266,7 +6446,7 @@
       <c r="R168" s="57"/>
       <c r="W168" s="57"/>
     </row>
-    <row r="169" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="169" spans="1:23">
       <c r="A169" s="56"/>
       <c r="B169" s="56"/>
       <c r="C169" s="56"/>
@@ -6287,7 +6467,7 @@
       <c r="R169" s="57"/>
       <c r="W169" s="57"/>
     </row>
-    <row r="170" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="170" spans="1:23">
       <c r="A170" s="56"/>
       <c r="B170" s="56"/>
       <c r="C170" s="56"/>
@@ -6308,13 +6488,34 @@
       <c r="R170" s="57"/>
       <c r="W170" s="57"/>
     </row>
+    <row r="171" spans="1:23">
+      <c r="A171" s="56"/>
+      <c r="B171" s="56"/>
+      <c r="C171" s="56"/>
+      <c r="D171" s="57"/>
+      <c r="E171" s="56"/>
+      <c r="F171" s="56"/>
+      <c r="G171" s="56"/>
+      <c r="H171" s="61"/>
+      <c r="I171" s="56"/>
+      <c r="J171" s="61"/>
+      <c r="K171" s="64"/>
+      <c r="L171" s="56"/>
+      <c r="M171" s="56"/>
+      <c r="N171" s="56"/>
+      <c r="O171" s="56"/>
+      <c r="P171" s="56"/>
+      <c r="Q171" s="61"/>
+      <c r="R171" s="57"/>
+      <c r="W171" s="57"/>
+    </row>
   </sheetData>
   <phoneticPr fontId="24" type="noConversion"/>
   <dataValidations count="8">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="R1:R1048576">
       <formula1>"能,否"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="N2:N79">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="N2:N80">
       <formula1>"高,中,低"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E1:E1048576">
@@ -6332,12 +6533,13 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C1:C1048576">
       <formula1>"紧急,不紧急"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G1:G1048576 I1:I1048576 V1:V1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="V1:V1048576 I1:I1048576 G1:G1048576">
       <formula1>"是,否"</formula1>
     </dataValidation>
   </dataValidations>
   <hyperlinks>
     <hyperlink ref="S6" r:id="rId1"/>
+    <hyperlink ref="S7" r:id="rId2"/>
   </hyperlinks>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="300"/>
@@ -6349,30 +6551,30 @@
   <dimension ref="A1:R4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G16" sqref="G16"/>
+      <selection activeCell="A2" sqref="A2:XFD3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="26.1640625" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="26.125" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="2" width="8" customWidth="1"/>
-    <col min="3" max="3" width="21.6640625" customWidth="1"/>
-    <col min="4" max="4" width="6.33203125" customWidth="1"/>
-    <col min="5" max="5" width="18.6640625" customWidth="1"/>
-    <col min="6" max="7" width="7.1640625" customWidth="1"/>
+    <col min="3" max="3" width="21.625" customWidth="1"/>
+    <col min="4" max="4" width="6.375" customWidth="1"/>
+    <col min="5" max="5" width="18.625" customWidth="1"/>
+    <col min="6" max="7" width="7.125" customWidth="1"/>
     <col min="8" max="8" width="8" customWidth="1"/>
-    <col min="9" max="9" width="7.1640625" customWidth="1"/>
-    <col min="10" max="10" width="44.33203125" customWidth="1"/>
+    <col min="9" max="9" width="7.125" customWidth="1"/>
+    <col min="10" max="10" width="44.375" customWidth="1"/>
     <col min="11" max="11" width="25.5" customWidth="1"/>
     <col min="12" max="12" width="23.5" customWidth="1"/>
-    <col min="13" max="13" width="54.83203125" customWidth="1"/>
+    <col min="13" max="13" width="54.875" customWidth="1"/>
     <col min="14" max="14" width="8" customWidth="1"/>
-    <col min="15" max="15" width="15.1640625" customWidth="1"/>
-    <col min="16" max="16" width="14.33203125" customWidth="1"/>
-    <col min="17" max="17" width="31.1640625" customWidth="1"/>
-    <col min="18" max="18" width="4.6640625" customWidth="1"/>
+    <col min="15" max="15" width="15.125" customWidth="1"/>
+    <col min="16" max="16" width="14.375" customWidth="1"/>
+    <col min="17" max="17" width="31.125" customWidth="1"/>
+    <col min="18" max="18" width="4.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" ht="36" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:18" ht="36" customHeight="1">
       <c r="A1" s="30" t="s">
         <v>23</v>
       </c>
@@ -6428,47 +6630,115 @@
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:18" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="32"/>
-      <c r="B2" s="33"/>
-      <c r="C2" s="33"/>
-      <c r="D2" s="34"/>
-      <c r="E2" s="33"/>
-      <c r="F2" s="35"/>
-      <c r="G2" s="36"/>
-      <c r="H2" s="37"/>
-      <c r="I2" s="40"/>
-      <c r="J2" s="41"/>
-      <c r="K2" s="42"/>
-      <c r="L2" s="41"/>
-      <c r="M2" s="41"/>
-      <c r="N2" s="41"/>
-      <c r="O2" s="43"/>
-      <c r="P2" s="44"/>
-      <c r="Q2" s="43"/>
-      <c r="R2" s="43"/>
-    </row>
-    <row r="3" spans="1:18" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="32"/>
-      <c r="B3" s="33"/>
-      <c r="C3" s="33"/>
-      <c r="D3" s="34"/>
-      <c r="E3" s="33"/>
-      <c r="F3" s="35"/>
-      <c r="G3" s="36"/>
-      <c r="H3" s="37"/>
-      <c r="I3" s="40"/>
-      <c r="J3" s="41"/>
-      <c r="K3" s="42"/>
-      <c r="L3" s="41"/>
-      <c r="M3" s="41"/>
-      <c r="N3" s="41"/>
-      <c r="O3" s="43"/>
-      <c r="P3" s="44"/>
-      <c r="Q3" s="43"/>
-      <c r="R3" s="43"/>
-    </row>
-    <row r="4" spans="1:18" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:18" s="103" customFormat="1" ht="49.5">
+      <c r="A2" s="94" t="s">
+        <v>143</v>
+      </c>
+      <c r="B2" s="95" t="s">
+        <v>144</v>
+      </c>
+      <c r="C2" s="95" t="s">
+        <v>145</v>
+      </c>
+      <c r="D2" s="96" t="s">
+        <v>118</v>
+      </c>
+      <c r="E2" s="95" t="s">
+        <v>146</v>
+      </c>
+      <c r="F2" s="97" t="s">
+        <v>147</v>
+      </c>
+      <c r="G2" s="98" t="s">
+        <v>148</v>
+      </c>
+      <c r="H2" s="37" t="s">
+        <v>149</v>
+      </c>
+      <c r="I2" s="40" t="s">
+        <v>150</v>
+      </c>
+      <c r="J2" s="99" t="s">
+        <v>151</v>
+      </c>
+      <c r="K2" s="42" t="s">
+        <v>152</v>
+      </c>
+      <c r="L2" s="100" t="s">
+        <v>153</v>
+      </c>
+      <c r="M2" s="99" t="s">
+        <v>154</v>
+      </c>
+      <c r="N2" s="99" t="s">
+        <v>155</v>
+      </c>
+      <c r="O2" s="101" t="s">
+        <v>156</v>
+      </c>
+      <c r="P2" s="102" t="s">
+        <v>150</v>
+      </c>
+      <c r="Q2" s="101" t="s">
+        <v>157</v>
+      </c>
+      <c r="R2" s="101"/>
+    </row>
+    <row r="3" spans="1:18" s="103" customFormat="1" ht="33">
+      <c r="A3" s="94" t="s">
+        <v>143</v>
+      </c>
+      <c r="B3" s="95" t="s">
+        <v>144</v>
+      </c>
+      <c r="C3" s="95" t="s">
+        <v>145</v>
+      </c>
+      <c r="D3" s="96" t="s">
+        <v>118</v>
+      </c>
+      <c r="E3" s="95" t="s">
+        <v>158</v>
+      </c>
+      <c r="F3" s="97" t="s">
+        <v>147</v>
+      </c>
+      <c r="G3" s="98" t="s">
+        <v>148</v>
+      </c>
+      <c r="H3" s="37" t="s">
+        <v>149</v>
+      </c>
+      <c r="I3" s="40" t="s">
+        <v>150</v>
+      </c>
+      <c r="J3" s="99" t="s">
+        <v>159</v>
+      </c>
+      <c r="K3" s="42" t="s">
+        <v>152</v>
+      </c>
+      <c r="L3" s="100" t="s">
+        <v>160</v>
+      </c>
+      <c r="M3" s="99" t="s">
+        <v>161</v>
+      </c>
+      <c r="N3" s="99" t="s">
+        <v>155</v>
+      </c>
+      <c r="O3" s="101" t="s">
+        <v>162</v>
+      </c>
+      <c r="P3" s="102" t="s">
+        <v>150</v>
+      </c>
+      <c r="Q3" s="101" t="s">
+        <v>157</v>
+      </c>
+      <c r="R3" s="101"/>
+    </row>
+    <row r="4" spans="1:18" ht="30" customHeight="1">
       <c r="A4" s="32"/>
       <c r="B4" s="33"/>
       <c r="C4" s="33"/>
@@ -6502,34 +6772,34 @@
       <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col min="2" max="2" width="12.1640625" customWidth="1"/>
-    <col min="3" max="3" width="15.1640625" customWidth="1"/>
-    <col min="4" max="4" width="23.1640625" customWidth="1"/>
-    <col min="5" max="5" width="25.6640625" customWidth="1"/>
-    <col min="6" max="6" width="19.6640625" customWidth="1"/>
-    <col min="7" max="7" width="11.33203125" customWidth="1"/>
-    <col min="8" max="8" width="12.33203125" customWidth="1"/>
-    <col min="9" max="9" width="10.33203125" customWidth="1"/>
+    <col min="2" max="2" width="12.125" customWidth="1"/>
+    <col min="3" max="3" width="15.125" customWidth="1"/>
+    <col min="4" max="4" width="23.125" customWidth="1"/>
+    <col min="5" max="5" width="25.625" customWidth="1"/>
+    <col min="6" max="6" width="19.625" customWidth="1"/>
+    <col min="7" max="7" width="11.375" customWidth="1"/>
+    <col min="8" max="8" width="12.375" customWidth="1"/>
+    <col min="9" max="9" width="10.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="17" x14ac:dyDescent="0.15">
-      <c r="A1" s="79" t="s">
+    <row r="1" spans="1:11" ht="20.25">
+      <c r="A1" s="84" t="s">
         <v>39</v>
       </c>
-      <c r="B1" s="80"/>
-      <c r="C1" s="80"/>
-      <c r="D1" s="80"/>
-      <c r="E1" s="80"/>
-      <c r="F1" s="80"/>
-      <c r="G1" s="80"/>
-      <c r="H1" s="80"/>
-      <c r="I1" s="80"/>
-      <c r="J1" s="80"/>
-      <c r="K1" s="80"/>
-    </row>
-    <row r="2" spans="1:11" ht="15" x14ac:dyDescent="0.15">
+      <c r="B1" s="85"/>
+      <c r="C1" s="85"/>
+      <c r="D1" s="85"/>
+      <c r="E1" s="85"/>
+      <c r="F1" s="85"/>
+      <c r="G1" s="85"/>
+      <c r="H1" s="85"/>
+      <c r="I1" s="85"/>
+      <c r="J1" s="85"/>
+      <c r="K1" s="85"/>
+    </row>
+    <row r="2" spans="1:11" ht="17.25">
       <c r="A2" s="18" t="s">
         <v>40</v>
       </c>
@@ -6564,9 +6834,9 @@
         <v>22</v>
       </c>
     </row>
-    <row r="3" spans="1:11" ht="15" x14ac:dyDescent="0.15">
-      <c r="A3" s="81"/>
-      <c r="B3" s="81"/>
+    <row r="3" spans="1:11" ht="17.25">
+      <c r="A3" s="86"/>
+      <c r="B3" s="86"/>
       <c r="C3" s="20"/>
       <c r="D3" s="21"/>
       <c r="E3" s="21"/>
@@ -6577,9 +6847,9 @@
       <c r="J3" s="27"/>
       <c r="K3" s="28"/>
     </row>
-    <row r="4" spans="1:11" ht="15" x14ac:dyDescent="0.15">
-      <c r="A4" s="82"/>
-      <c r="B4" s="83"/>
+    <row r="4" spans="1:11" ht="17.25">
+      <c r="A4" s="87"/>
+      <c r="B4" s="88"/>
       <c r="C4" s="20"/>
       <c r="D4" s="21"/>
       <c r="E4" s="21"/>
@@ -6590,9 +6860,9 @@
       <c r="J4" s="27"/>
       <c r="K4" s="28"/>
     </row>
-    <row r="5" spans="1:11" ht="15" x14ac:dyDescent="0.15">
-      <c r="A5" s="81"/>
-      <c r="B5" s="81"/>
+    <row r="5" spans="1:11" ht="17.25">
+      <c r="A5" s="86"/>
+      <c r="B5" s="86"/>
       <c r="C5" s="20"/>
       <c r="D5" s="21"/>
       <c r="E5" s="21"/>
@@ -6603,9 +6873,9 @@
       <c r="J5" s="27"/>
       <c r="K5" s="28"/>
     </row>
-    <row r="6" spans="1:11" ht="15" x14ac:dyDescent="0.15">
-      <c r="A6" s="83"/>
-      <c r="B6" s="83"/>
+    <row r="6" spans="1:11" ht="17.25">
+      <c r="A6" s="88"/>
+      <c r="B6" s="88"/>
       <c r="C6" s="20"/>
       <c r="D6" s="21"/>
       <c r="E6" s="21"/>
@@ -6616,9 +6886,9 @@
       <c r="J6" s="27"/>
       <c r="K6" s="28"/>
     </row>
-    <row r="7" spans="1:11" ht="15" x14ac:dyDescent="0.15">
-      <c r="A7" s="83"/>
-      <c r="B7" s="83"/>
+    <row r="7" spans="1:11" ht="17.25">
+      <c r="A7" s="88"/>
+      <c r="B7" s="88"/>
       <c r="C7" s="20"/>
       <c r="D7" s="21"/>
       <c r="E7" s="21"/>
@@ -6629,9 +6899,9 @@
       <c r="J7" s="27"/>
       <c r="K7" s="28"/>
     </row>
-    <row r="8" spans="1:11" ht="15" x14ac:dyDescent="0.15">
-      <c r="A8" s="83"/>
-      <c r="B8" s="83"/>
+    <row r="8" spans="1:11" ht="17.25">
+      <c r="A8" s="88"/>
+      <c r="B8" s="88"/>
       <c r="C8" s="20"/>
       <c r="D8" s="21"/>
       <c r="E8" s="21"/>
@@ -6642,9 +6912,9 @@
       <c r="J8" s="27"/>
       <c r="K8" s="28"/>
     </row>
-    <row r="9" spans="1:11" ht="15" x14ac:dyDescent="0.15">
-      <c r="A9" s="83"/>
-      <c r="B9" s="83"/>
+    <row r="9" spans="1:11" ht="17.25">
+      <c r="A9" s="88"/>
+      <c r="B9" s="88"/>
       <c r="C9" s="20"/>
       <c r="D9" s="21"/>
       <c r="E9" s="21"/>
@@ -6655,9 +6925,9 @@
       <c r="J9" s="27"/>
       <c r="K9" s="28"/>
     </row>
-    <row r="10" spans="1:11" ht="15" x14ac:dyDescent="0.15">
-      <c r="A10" s="82"/>
-      <c r="B10" s="82"/>
+    <row r="10" spans="1:11" ht="17.25">
+      <c r="A10" s="87"/>
+      <c r="B10" s="87"/>
       <c r="C10" s="20"/>
       <c r="D10" s="21"/>
       <c r="E10" s="21"/>
@@ -6668,7 +6938,7 @@
       <c r="J10" s="27"/>
       <c r="K10" s="28"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:11" ht="16.5">
       <c r="A11" s="22"/>
       <c r="B11" s="22"/>
       <c r="C11" s="20"/>
@@ -6702,54 +6972,54 @@
       <selection activeCell="A5" sqref="A5:L5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="39.5" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="39.5" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="4.83203125" customWidth="1"/>
-    <col min="2" max="3" width="6.33203125" customWidth="1"/>
+    <col min="1" max="1" width="4.875" customWidth="1"/>
+    <col min="2" max="3" width="6.375" customWidth="1"/>
     <col min="4" max="4" width="11.5" customWidth="1"/>
-    <col min="5" max="5" width="32.83203125" customWidth="1"/>
-    <col min="6" max="6" width="4.83203125" customWidth="1"/>
-    <col min="7" max="7" width="57.1640625" customWidth="1"/>
-    <col min="8" max="8" width="16.83203125" customWidth="1"/>
+    <col min="5" max="5" width="32.875" customWidth="1"/>
+    <col min="6" max="6" width="4.875" customWidth="1"/>
+    <col min="7" max="7" width="57.125" customWidth="1"/>
+    <col min="8" max="8" width="16.875" customWidth="1"/>
     <col min="9" max="9" width="8" customWidth="1"/>
-    <col min="10" max="11" width="6.33203125" customWidth="1"/>
+    <col min="10" max="11" width="6.375" customWidth="1"/>
     <col min="12" max="12" width="8" customWidth="1"/>
-    <col min="13" max="13" width="32.83203125" customWidth="1"/>
+    <col min="13" max="13" width="32.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A1" s="84" t="s">
+    <row r="1" spans="1:13">
+      <c r="A1" s="89" t="s">
         <v>50</v>
       </c>
-      <c r="B1" s="84"/>
-      <c r="C1" s="84"/>
-      <c r="D1" s="84"/>
-      <c r="E1" s="84"/>
-      <c r="F1" s="84"/>
-      <c r="G1" s="84"/>
-      <c r="H1" s="84"/>
-      <c r="I1" s="84"/>
-      <c r="J1" s="84"/>
-      <c r="K1" s="84"/>
-      <c r="L1" s="84"/>
-      <c r="M1" s="85"/>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A2" s="86"/>
-      <c r="B2" s="86"/>
-      <c r="C2" s="86"/>
-      <c r="D2" s="86"/>
-      <c r="E2" s="86"/>
-      <c r="F2" s="86"/>
-      <c r="G2" s="86"/>
-      <c r="H2" s="86"/>
-      <c r="I2" s="86"/>
-      <c r="J2" s="86"/>
-      <c r="K2" s="86"/>
-      <c r="L2" s="86"/>
-      <c r="M2" s="87"/>
-    </row>
-    <row r="3" spans="1:13" ht="16" x14ac:dyDescent="0.15">
+      <c r="B1" s="89"/>
+      <c r="C1" s="89"/>
+      <c r="D1" s="89"/>
+      <c r="E1" s="89"/>
+      <c r="F1" s="89"/>
+      <c r="G1" s="89"/>
+      <c r="H1" s="89"/>
+      <c r="I1" s="89"/>
+      <c r="J1" s="89"/>
+      <c r="K1" s="89"/>
+      <c r="L1" s="89"/>
+      <c r="M1" s="90"/>
+    </row>
+    <row r="2" spans="1:13">
+      <c r="A2" s="91"/>
+      <c r="B2" s="91"/>
+      <c r="C2" s="91"/>
+      <c r="D2" s="91"/>
+      <c r="E2" s="91"/>
+      <c r="F2" s="91"/>
+      <c r="G2" s="91"/>
+      <c r="H2" s="91"/>
+      <c r="I2" s="91"/>
+      <c r="J2" s="91"/>
+      <c r="K2" s="91"/>
+      <c r="L2" s="91"/>
+      <c r="M2" s="92"/>
+    </row>
+    <row r="3" spans="1:13" ht="16.5">
       <c r="A3" s="8" t="s">
         <v>51</v>
       </c>
@@ -6790,7 +7060,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="4" spans="1:13" ht="32" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:13" ht="33">
       <c r="A4" s="9">
         <v>1</v>
       </c>
@@ -6825,46 +7095,46 @@
       </c>
       <c r="M4" s="12"/>
     </row>
-    <row r="5" spans="1:13" ht="48" x14ac:dyDescent="0.15">
-      <c r="A5" s="89">
+    <row r="5" spans="1:13" ht="49.5">
+      <c r="A5" s="80">
         <v>1</v>
       </c>
-      <c r="B5" s="89" t="s">
+      <c r="B5" s="80" t="s">
         <v>107</v>
       </c>
-      <c r="C5" s="89" t="s">
+      <c r="C5" s="80" t="s">
         <v>108</v>
       </c>
-      <c r="D5" s="90" t="s">
+      <c r="D5" s="81" t="s">
         <v>109</v>
       </c>
-      <c r="E5" s="91" t="s">
+      <c r="E5" s="82" t="s">
         <v>110</v>
       </c>
-      <c r="F5" s="89" t="s">
+      <c r="F5" s="80" t="s">
         <v>101</v>
       </c>
-      <c r="G5" s="92" t="s">
+      <c r="G5" s="83" t="s">
         <v>111</v>
       </c>
-      <c r="H5" s="89" t="s">
+      <c r="H5" s="80" t="s">
         <v>112</v>
       </c>
-      <c r="I5" s="89" t="s">
+      <c r="I5" s="80" t="s">
         <v>106</v>
       </c>
-      <c r="J5" s="89" t="s">
+      <c r="J5" s="80" t="s">
         <v>113</v>
       </c>
-      <c r="K5" s="89" t="s">
+      <c r="K5" s="80" t="s">
         <v>113</v>
       </c>
-      <c r="L5" s="89" t="s">
+      <c r="L5" s="80" t="s">
         <v>114</v>
       </c>
-      <c r="M5" s="92"/>
-    </row>
-    <row r="6" spans="1:13" ht="16" x14ac:dyDescent="0.15">
+      <c r="M5" s="83"/>
+    </row>
+    <row r="6" spans="1:13" ht="16.5">
       <c r="A6" s="9"/>
       <c r="B6" s="13"/>
       <c r="C6" s="13"/>
@@ -6879,7 +7149,7 @@
       <c r="L6" s="13"/>
       <c r="M6" s="9"/>
     </row>
-    <row r="7" spans="1:13" ht="16" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:13" ht="16.5">
       <c r="A7" s="9"/>
       <c r="B7" s="10"/>
       <c r="C7" s="10"/>
@@ -6894,7 +7164,7 @@
       <c r="L7" s="10"/>
       <c r="M7" s="17"/>
     </row>
-    <row r="8" spans="1:13" ht="16" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:13" ht="16.5">
       <c r="A8" s="9"/>
       <c r="B8" s="10"/>
       <c r="C8" s="10"/>
@@ -6909,7 +7179,7 @@
       <c r="L8" s="9"/>
       <c r="M8" s="12"/>
     </row>
-    <row r="9" spans="1:13" ht="16" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:13" ht="16.5">
       <c r="A9" s="9"/>
       <c r="B9" s="9"/>
       <c r="C9" s="9"/>
@@ -6924,7 +7194,7 @@
       <c r="L9" s="9"/>
       <c r="M9" s="9"/>
     </row>
-    <row r="10" spans="1:13" ht="16" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:13" ht="16.5">
       <c r="A10" s="9"/>
       <c r="B10" s="9"/>
       <c r="C10" s="9"/>
@@ -6939,7 +7209,7 @@
       <c r="L10" s="9"/>
       <c r="M10" s="9"/>
     </row>
-    <row r="11" spans="1:13" ht="16" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:13" ht="16.5">
       <c r="A11" s="9"/>
       <c r="B11" s="9"/>
       <c r="C11" s="9"/>
@@ -6954,7 +7224,7 @@
       <c r="L11" s="9"/>
       <c r="M11" s="9"/>
     </row>
-    <row r="12" spans="1:13" ht="16" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:13" ht="16.5">
       <c r="A12" s="9"/>
       <c r="B12" s="9"/>
       <c r="C12" s="9"/>
@@ -6969,7 +7239,7 @@
       <c r="L12" s="9"/>
       <c r="M12" s="9"/>
     </row>
-    <row r="13" spans="1:13" ht="16" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:13" ht="16.5">
       <c r="A13" s="9"/>
       <c r="B13" s="9"/>
       <c r="C13" s="9"/>
@@ -6984,7 +7254,7 @@
       <c r="L13" s="9"/>
       <c r="M13" s="9"/>
     </row>
-    <row r="14" spans="1:13" ht="16" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:13" ht="16.5">
       <c r="A14" s="9"/>
       <c r="B14" s="9"/>
       <c r="C14" s="9"/>
@@ -6999,7 +7269,7 @@
       <c r="L14" s="9"/>
       <c r="M14" s="9"/>
     </row>
-    <row r="15" spans="1:13" ht="16" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:13" ht="16.5">
       <c r="A15" s="9"/>
       <c r="B15" s="9"/>
       <c r="C15" s="9"/>
@@ -7014,7 +7284,7 @@
       <c r="L15" s="9"/>
       <c r="M15" s="9"/>
     </row>
-    <row r="16" spans="1:13" ht="16" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:13" ht="16.5">
       <c r="A16" s="9"/>
       <c r="B16" s="9"/>
       <c r="C16" s="9"/>
@@ -7061,54 +7331,54 @@
       <selection activeCell="A5" sqref="A5:L5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="39.5" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="39.5" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="4.83203125" customWidth="1"/>
-    <col min="2" max="3" width="6.33203125" customWidth="1"/>
+    <col min="1" max="1" width="4.875" customWidth="1"/>
+    <col min="2" max="3" width="6.375" customWidth="1"/>
     <col min="4" max="4" width="11.5" customWidth="1"/>
-    <col min="5" max="5" width="32.83203125" customWidth="1"/>
-    <col min="6" max="6" width="4.83203125" customWidth="1"/>
-    <col min="7" max="7" width="57.1640625" customWidth="1"/>
-    <col min="8" max="8" width="16.83203125" customWidth="1"/>
+    <col min="5" max="5" width="32.875" customWidth="1"/>
+    <col min="6" max="6" width="4.875" customWidth="1"/>
+    <col min="7" max="7" width="57.125" customWidth="1"/>
+    <col min="8" max="8" width="16.875" customWidth="1"/>
     <col min="9" max="9" width="8" customWidth="1"/>
-    <col min="10" max="11" width="6.33203125" customWidth="1"/>
+    <col min="10" max="11" width="6.375" customWidth="1"/>
     <col min="12" max="12" width="8" customWidth="1"/>
-    <col min="13" max="13" width="32.83203125" customWidth="1"/>
+    <col min="13" max="13" width="32.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A1" s="84" t="s">
+    <row r="1" spans="1:13">
+      <c r="A1" s="89" t="s">
         <v>50</v>
       </c>
-      <c r="B1" s="84"/>
-      <c r="C1" s="84"/>
-      <c r="D1" s="84"/>
-      <c r="E1" s="84"/>
-      <c r="F1" s="84"/>
-      <c r="G1" s="84"/>
-      <c r="H1" s="84"/>
-      <c r="I1" s="84"/>
-      <c r="J1" s="84"/>
-      <c r="K1" s="84"/>
-      <c r="L1" s="84"/>
-      <c r="M1" s="85"/>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A2" s="86"/>
-      <c r="B2" s="86"/>
-      <c r="C2" s="86"/>
-      <c r="D2" s="86"/>
-      <c r="E2" s="86"/>
-      <c r="F2" s="86"/>
-      <c r="G2" s="86"/>
-      <c r="H2" s="86"/>
-      <c r="I2" s="86"/>
-      <c r="J2" s="86"/>
-      <c r="K2" s="86"/>
-      <c r="L2" s="86"/>
-      <c r="M2" s="87"/>
-    </row>
-    <row r="3" spans="1:13" ht="16" x14ac:dyDescent="0.15">
+      <c r="B1" s="89"/>
+      <c r="C1" s="89"/>
+      <c r="D1" s="89"/>
+      <c r="E1" s="89"/>
+      <c r="F1" s="89"/>
+      <c r="G1" s="89"/>
+      <c r="H1" s="89"/>
+      <c r="I1" s="89"/>
+      <c r="J1" s="89"/>
+      <c r="K1" s="89"/>
+      <c r="L1" s="89"/>
+      <c r="M1" s="90"/>
+    </row>
+    <row r="2" spans="1:13">
+      <c r="A2" s="91"/>
+      <c r="B2" s="91"/>
+      <c r="C2" s="91"/>
+      <c r="D2" s="91"/>
+      <c r="E2" s="91"/>
+      <c r="F2" s="91"/>
+      <c r="G2" s="91"/>
+      <c r="H2" s="91"/>
+      <c r="I2" s="91"/>
+      <c r="J2" s="91"/>
+      <c r="K2" s="91"/>
+      <c r="L2" s="91"/>
+      <c r="M2" s="92"/>
+    </row>
+    <row r="3" spans="1:13" ht="16.5">
       <c r="A3" s="8" t="s">
         <v>51</v>
       </c>
@@ -7149,7 +7419,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="4" spans="1:13" ht="32" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:13" ht="33">
       <c r="A4" s="9">
         <v>1</v>
       </c>
@@ -7184,46 +7454,46 @@
       </c>
       <c r="M4" s="12"/>
     </row>
-    <row r="5" spans="1:13" ht="48" x14ac:dyDescent="0.15">
-      <c r="A5" s="89">
+    <row r="5" spans="1:13" ht="49.5">
+      <c r="A5" s="80">
         <v>1</v>
       </c>
-      <c r="B5" s="89" t="s">
+      <c r="B5" s="80" t="s">
         <v>107</v>
       </c>
-      <c r="C5" s="89" t="s">
+      <c r="C5" s="80" t="s">
         <v>108</v>
       </c>
-      <c r="D5" s="90" t="s">
+      <c r="D5" s="81" t="s">
         <v>109</v>
       </c>
-      <c r="E5" s="91" t="s">
+      <c r="E5" s="82" t="s">
         <v>110</v>
       </c>
-      <c r="F5" s="89" t="s">
+      <c r="F5" s="80" t="s">
         <v>101</v>
       </c>
-      <c r="G5" s="92" t="s">
+      <c r="G5" s="83" t="s">
         <v>111</v>
       </c>
-      <c r="H5" s="89" t="s">
+      <c r="H5" s="80" t="s">
         <v>112</v>
       </c>
-      <c r="I5" s="89" t="s">
+      <c r="I5" s="80" t="s">
         <v>106</v>
       </c>
-      <c r="J5" s="89" t="s">
+      <c r="J5" s="80" t="s">
         <v>113</v>
       </c>
-      <c r="K5" s="89" t="s">
+      <c r="K5" s="80" t="s">
         <v>113</v>
       </c>
-      <c r="L5" s="89" t="s">
+      <c r="L5" s="80" t="s">
         <v>114</v>
       </c>
-      <c r="M5" s="92"/>
-    </row>
-    <row r="6" spans="1:13" ht="16" x14ac:dyDescent="0.15">
+      <c r="M5" s="83"/>
+    </row>
+    <row r="6" spans="1:13" ht="16.5">
       <c r="A6" s="9"/>
       <c r="B6" s="13"/>
       <c r="C6" s="13"/>
@@ -7238,7 +7508,7 @@
       <c r="L6" s="13"/>
       <c r="M6" s="9"/>
     </row>
-    <row r="7" spans="1:13" ht="16" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:13" ht="16.5">
       <c r="A7" s="9"/>
       <c r="B7" s="10"/>
       <c r="C7" s="10"/>
@@ -7253,7 +7523,7 @@
       <c r="L7" s="10"/>
       <c r="M7" s="17"/>
     </row>
-    <row r="8" spans="1:13" ht="16" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:13" ht="16.5">
       <c r="A8" s="9"/>
       <c r="B8" s="10"/>
       <c r="C8" s="10"/>
@@ -7268,7 +7538,7 @@
       <c r="L8" s="9"/>
       <c r="M8" s="12"/>
     </row>
-    <row r="9" spans="1:13" ht="16" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:13" ht="16.5">
       <c r="A9" s="9"/>
       <c r="B9" s="9"/>
       <c r="C9" s="9"/>
@@ -7283,7 +7553,7 @@
       <c r="L9" s="9"/>
       <c r="M9" s="9"/>
     </row>
-    <row r="10" spans="1:13" ht="16" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:13" ht="16.5">
       <c r="A10" s="9"/>
       <c r="B10" s="9"/>
       <c r="C10" s="9"/>
@@ -7298,7 +7568,7 @@
       <c r="L10" s="9"/>
       <c r="M10" s="9"/>
     </row>
-    <row r="11" spans="1:13" ht="16" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:13" ht="16.5">
       <c r="A11" s="9"/>
       <c r="B11" s="9"/>
       <c r="C11" s="9"/>
@@ -7313,7 +7583,7 @@
       <c r="L11" s="9"/>
       <c r="M11" s="9"/>
     </row>
-    <row r="12" spans="1:13" ht="16" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:13" ht="16.5">
       <c r="A12" s="9"/>
       <c r="B12" s="9"/>
       <c r="C12" s="9"/>
@@ -7328,7 +7598,7 @@
       <c r="L12" s="9"/>
       <c r="M12" s="9"/>
     </row>
-    <row r="13" spans="1:13" ht="16" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:13" ht="16.5">
       <c r="A13" s="9"/>
       <c r="B13" s="9"/>
       <c r="C13" s="9"/>
@@ -7343,7 +7613,7 @@
       <c r="L13" s="9"/>
       <c r="M13" s="9"/>
     </row>
-    <row r="14" spans="1:13" ht="16" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:13" ht="16.5">
       <c r="A14" s="9"/>
       <c r="B14" s="9"/>
       <c r="C14" s="9"/>
@@ -7358,7 +7628,7 @@
       <c r="L14" s="9"/>
       <c r="M14" s="9"/>
     </row>
-    <row r="15" spans="1:13" ht="16" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:13" ht="16.5">
       <c r="A15" s="9"/>
       <c r="B15" s="9"/>
       <c r="C15" s="9"/>
@@ -7373,7 +7643,7 @@
       <c r="L15" s="9"/>
       <c r="M15" s="9"/>
     </row>
-    <row r="16" spans="1:13" ht="16" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:13" ht="16.5">
       <c r="A16" s="9"/>
       <c r="B16" s="9"/>
       <c r="C16" s="9"/>
@@ -7419,54 +7689,54 @@
       <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="39.5" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="39.5" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="4.83203125" customWidth="1"/>
-    <col min="2" max="3" width="6.33203125" customWidth="1"/>
+    <col min="1" max="1" width="4.875" customWidth="1"/>
+    <col min="2" max="3" width="6.375" customWidth="1"/>
     <col min="4" max="4" width="11.5" customWidth="1"/>
-    <col min="5" max="5" width="32.83203125" customWidth="1"/>
-    <col min="6" max="6" width="4.83203125" customWidth="1"/>
-    <col min="7" max="7" width="57.1640625" customWidth="1"/>
-    <col min="8" max="8" width="16.83203125" customWidth="1"/>
+    <col min="5" max="5" width="32.875" customWidth="1"/>
+    <col min="6" max="6" width="4.875" customWidth="1"/>
+    <col min="7" max="7" width="57.125" customWidth="1"/>
+    <col min="8" max="8" width="16.875" customWidth="1"/>
     <col min="9" max="9" width="8" customWidth="1"/>
-    <col min="10" max="11" width="6.33203125" customWidth="1"/>
+    <col min="10" max="11" width="6.375" customWidth="1"/>
     <col min="12" max="12" width="8" customWidth="1"/>
-    <col min="13" max="13" width="32.83203125" customWidth="1"/>
+    <col min="13" max="13" width="32.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A1" s="84" t="s">
+    <row r="1" spans="1:13">
+      <c r="A1" s="89" t="s">
         <v>50</v>
       </c>
-      <c r="B1" s="84"/>
-      <c r="C1" s="84"/>
-      <c r="D1" s="84"/>
-      <c r="E1" s="84"/>
-      <c r="F1" s="84"/>
-      <c r="G1" s="84"/>
-      <c r="H1" s="84"/>
-      <c r="I1" s="84"/>
-      <c r="J1" s="84"/>
-      <c r="K1" s="84"/>
-      <c r="L1" s="84"/>
-      <c r="M1" s="85"/>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A2" s="86"/>
-      <c r="B2" s="86"/>
-      <c r="C2" s="86"/>
-      <c r="D2" s="86"/>
-      <c r="E2" s="86"/>
-      <c r="F2" s="86"/>
-      <c r="G2" s="86"/>
-      <c r="H2" s="86"/>
-      <c r="I2" s="86"/>
-      <c r="J2" s="86"/>
-      <c r="K2" s="86"/>
-      <c r="L2" s="86"/>
-      <c r="M2" s="87"/>
-    </row>
-    <row r="3" spans="1:13" ht="16" x14ac:dyDescent="0.15">
+      <c r="B1" s="89"/>
+      <c r="C1" s="89"/>
+      <c r="D1" s="89"/>
+      <c r="E1" s="89"/>
+      <c r="F1" s="89"/>
+      <c r="G1" s="89"/>
+      <c r="H1" s="89"/>
+      <c r="I1" s="89"/>
+      <c r="J1" s="89"/>
+      <c r="K1" s="89"/>
+      <c r="L1" s="89"/>
+      <c r="M1" s="90"/>
+    </row>
+    <row r="2" spans="1:13">
+      <c r="A2" s="91"/>
+      <c r="B2" s="91"/>
+      <c r="C2" s="91"/>
+      <c r="D2" s="91"/>
+      <c r="E2" s="91"/>
+      <c r="F2" s="91"/>
+      <c r="G2" s="91"/>
+      <c r="H2" s="91"/>
+      <c r="I2" s="91"/>
+      <c r="J2" s="91"/>
+      <c r="K2" s="91"/>
+      <c r="L2" s="91"/>
+      <c r="M2" s="92"/>
+    </row>
+    <row r="3" spans="1:13" ht="16.5">
       <c r="A3" s="8" t="s">
         <v>51</v>
       </c>
@@ -7507,7 +7777,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="4" spans="1:13" ht="32" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:13" ht="33">
       <c r="A4" s="9">
         <v>1</v>
       </c>
@@ -7542,46 +7812,46 @@
       </c>
       <c r="M4" s="12"/>
     </row>
-    <row r="5" spans="1:13" ht="48" x14ac:dyDescent="0.15">
-      <c r="A5" s="89">
+    <row r="5" spans="1:13" ht="49.5">
+      <c r="A5" s="80">
         <v>1</v>
       </c>
-      <c r="B5" s="89" t="s">
+      <c r="B5" s="80" t="s">
         <v>107</v>
       </c>
-      <c r="C5" s="89" t="s">
+      <c r="C5" s="80" t="s">
         <v>108</v>
       </c>
-      <c r="D5" s="90" t="s">
+      <c r="D5" s="81" t="s">
         <v>109</v>
       </c>
-      <c r="E5" s="91" t="s">
+      <c r="E5" s="82" t="s">
         <v>110</v>
       </c>
-      <c r="F5" s="89" t="s">
+      <c r="F5" s="80" t="s">
         <v>101</v>
       </c>
-      <c r="G5" s="92" t="s">
+      <c r="G5" s="83" t="s">
         <v>111</v>
       </c>
-      <c r="H5" s="89" t="s">
+      <c r="H5" s="80" t="s">
         <v>112</v>
       </c>
-      <c r="I5" s="89" t="s">
+      <c r="I5" s="80" t="s">
         <v>106</v>
       </c>
-      <c r="J5" s="89" t="s">
+      <c r="J5" s="80" t="s">
         <v>113</v>
       </c>
-      <c r="K5" s="89" t="s">
+      <c r="K5" s="80" t="s">
         <v>113</v>
       </c>
-      <c r="L5" s="89" t="s">
+      <c r="L5" s="80" t="s">
         <v>114</v>
       </c>
-      <c r="M5" s="92"/>
-    </row>
-    <row r="6" spans="1:13" ht="16" x14ac:dyDescent="0.15">
+      <c r="M5" s="83"/>
+    </row>
+    <row r="6" spans="1:13" ht="16.5">
       <c r="A6" s="9"/>
       <c r="B6" s="13"/>
       <c r="C6" s="13"/>
@@ -7596,7 +7866,7 @@
       <c r="L6" s="13"/>
       <c r="M6" s="9"/>
     </row>
-    <row r="7" spans="1:13" ht="16" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:13" ht="16.5">
       <c r="A7" s="9"/>
       <c r="B7" s="10"/>
       <c r="C7" s="10"/>
@@ -7611,7 +7881,7 @@
       <c r="L7" s="10"/>
       <c r="M7" s="17"/>
     </row>
-    <row r="8" spans="1:13" ht="16" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:13" ht="16.5">
       <c r="A8" s="9"/>
       <c r="B8" s="10"/>
       <c r="C8" s="10"/>
@@ -7626,7 +7896,7 @@
       <c r="L8" s="9"/>
       <c r="M8" s="12"/>
     </row>
-    <row r="9" spans="1:13" ht="16" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:13" ht="16.5">
       <c r="A9" s="9"/>
       <c r="B9" s="9"/>
       <c r="C9" s="9"/>
@@ -7641,7 +7911,7 @@
       <c r="L9" s="9"/>
       <c r="M9" s="9"/>
     </row>
-    <row r="10" spans="1:13" ht="16" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:13" ht="16.5">
       <c r="A10" s="9"/>
       <c r="B10" s="9"/>
       <c r="C10" s="9"/>
@@ -7656,7 +7926,7 @@
       <c r="L10" s="9"/>
       <c r="M10" s="9"/>
     </row>
-    <row r="11" spans="1:13" ht="16" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:13" ht="16.5">
       <c r="A11" s="9"/>
       <c r="B11" s="9"/>
       <c r="C11" s="9"/>
@@ -7671,7 +7941,7 @@
       <c r="L11" s="9"/>
       <c r="M11" s="9"/>
     </row>
-    <row r="12" spans="1:13" ht="16" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:13" ht="16.5">
       <c r="A12" s="9"/>
       <c r="B12" s="9"/>
       <c r="C12" s="9"/>
@@ -7686,7 +7956,7 @@
       <c r="L12" s="9"/>
       <c r="M12" s="9"/>
     </row>
-    <row r="13" spans="1:13" ht="16" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:13" ht="16.5">
       <c r="A13" s="9"/>
       <c r="B13" s="9"/>
       <c r="C13" s="9"/>
@@ -7701,7 +7971,7 @@
       <c r="L13" s="9"/>
       <c r="M13" s="9"/>
     </row>
-    <row r="14" spans="1:13" ht="16" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:13" ht="16.5">
       <c r="A14" s="9"/>
       <c r="B14" s="9"/>
       <c r="C14" s="9"/>
@@ -7716,7 +7986,7 @@
       <c r="L14" s="9"/>
       <c r="M14" s="9"/>
     </row>
-    <row r="15" spans="1:13" ht="16" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:13" ht="16.5">
       <c r="A15" s="9"/>
       <c r="B15" s="9"/>
       <c r="C15" s="9"/>
@@ -7731,7 +8001,7 @@
       <c r="L15" s="9"/>
       <c r="M15" s="9"/>
     </row>
-    <row r="16" spans="1:13" ht="16" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:13" ht="16.5">
       <c r="A16" s="9"/>
       <c r="B16" s="9"/>
       <c r="C16" s="9"/>
@@ -7777,56 +8047,56 @@
       <selection activeCell="G29" sqref="G29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="39.5" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="39.5" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="4.83203125" customWidth="1"/>
-    <col min="2" max="2" width="10.1640625" customWidth="1"/>
-    <col min="3" max="3" width="10.6640625" customWidth="1"/>
-    <col min="4" max="4" width="19.6640625" customWidth="1"/>
-    <col min="5" max="5" width="19.33203125" customWidth="1"/>
-    <col min="6" max="6" width="7.83203125" customWidth="1"/>
-    <col min="7" max="7" width="57.1640625" customWidth="1"/>
-    <col min="8" max="8" width="16.83203125" customWidth="1"/>
+    <col min="1" max="1" width="4.875" customWidth="1"/>
+    <col min="2" max="2" width="10.125" customWidth="1"/>
+    <col min="3" max="3" width="10.625" customWidth="1"/>
+    <col min="4" max="4" width="19.625" customWidth="1"/>
+    <col min="5" max="5" width="19.375" customWidth="1"/>
+    <col min="6" max="6" width="7.875" customWidth="1"/>
+    <col min="7" max="7" width="57.125" customWidth="1"/>
+    <col min="8" max="8" width="16.875" customWidth="1"/>
     <col min="9" max="9" width="8" customWidth="1"/>
-    <col min="10" max="10" width="7.83203125" customWidth="1"/>
+    <col min="10" max="10" width="7.875" customWidth="1"/>
     <col min="11" max="11" width="7.5" customWidth="1"/>
     <col min="12" max="12" width="8" customWidth="1"/>
-    <col min="13" max="13" width="32.83203125" customWidth="1"/>
+    <col min="13" max="13" width="32.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A1" s="84" t="s">
+    <row r="1" spans="1:13">
+      <c r="A1" s="89" t="s">
         <v>50</v>
       </c>
-      <c r="B1" s="84"/>
-      <c r="C1" s="84"/>
-      <c r="D1" s="84"/>
-      <c r="E1" s="84"/>
-      <c r="F1" s="84"/>
-      <c r="G1" s="84"/>
-      <c r="H1" s="84"/>
-      <c r="I1" s="84"/>
-      <c r="J1" s="84"/>
-      <c r="K1" s="84"/>
-      <c r="L1" s="84"/>
-      <c r="M1" s="85"/>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A2" s="86"/>
-      <c r="B2" s="86"/>
-      <c r="C2" s="86"/>
-      <c r="D2" s="86"/>
-      <c r="E2" s="86"/>
-      <c r="F2" s="86"/>
-      <c r="G2" s="86"/>
-      <c r="H2" s="86"/>
-      <c r="I2" s="86"/>
-      <c r="J2" s="86"/>
-      <c r="K2" s="86"/>
-      <c r="L2" s="86"/>
-      <c r="M2" s="87"/>
-    </row>
-    <row r="3" spans="1:13" ht="16" x14ac:dyDescent="0.15">
+      <c r="B1" s="89"/>
+      <c r="C1" s="89"/>
+      <c r="D1" s="89"/>
+      <c r="E1" s="89"/>
+      <c r="F1" s="89"/>
+      <c r="G1" s="89"/>
+      <c r="H1" s="89"/>
+      <c r="I1" s="89"/>
+      <c r="J1" s="89"/>
+      <c r="K1" s="89"/>
+      <c r="L1" s="89"/>
+      <c r="M1" s="90"/>
+    </row>
+    <row r="2" spans="1:13">
+      <c r="A2" s="91"/>
+      <c r="B2" s="91"/>
+      <c r="C2" s="91"/>
+      <c r="D2" s="91"/>
+      <c r="E2" s="91"/>
+      <c r="F2" s="91"/>
+      <c r="G2" s="91"/>
+      <c r="H2" s="91"/>
+      <c r="I2" s="91"/>
+      <c r="J2" s="91"/>
+      <c r="K2" s="91"/>
+      <c r="L2" s="91"/>
+      <c r="M2" s="92"/>
+    </row>
+    <row r="3" spans="1:13" ht="16.5">
       <c r="A3" s="8" t="s">
         <v>51</v>
       </c>
@@ -7867,7 +8137,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="4" spans="1:13" ht="16" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:13" ht="16.5">
       <c r="A4" s="9"/>
       <c r="B4" s="9"/>
       <c r="C4" s="9"/>
@@ -7882,7 +8152,7 @@
       <c r="L4" s="9"/>
       <c r="M4" s="12"/>
     </row>
-    <row r="5" spans="1:13" ht="16" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:13" ht="16.5">
       <c r="A5" s="9"/>
       <c r="B5" s="9"/>
       <c r="C5" s="9"/>
@@ -7897,7 +8167,7 @@
       <c r="L5" s="9"/>
       <c r="M5" s="12"/>
     </row>
-    <row r="6" spans="1:13" ht="16" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:13" ht="16.5">
       <c r="A6" s="9"/>
       <c r="B6" s="9"/>
       <c r="C6" s="9"/>
@@ -7912,7 +8182,7 @@
       <c r="L6" s="13"/>
       <c r="M6" s="9"/>
     </row>
-    <row r="7" spans="1:13" ht="16" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:13" ht="16.5">
       <c r="A7" s="9"/>
       <c r="B7" s="10"/>
       <c r="C7" s="10"/>
@@ -7927,7 +8197,7 @@
       <c r="L7" s="10"/>
       <c r="M7" s="17"/>
     </row>
-    <row r="8" spans="1:13" ht="16" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:13" ht="16.5">
       <c r="A8" s="9"/>
       <c r="B8" s="10"/>
       <c r="C8" s="10"/>
@@ -7942,7 +8212,7 @@
       <c r="L8" s="9"/>
       <c r="M8" s="12"/>
     </row>
-    <row r="9" spans="1:13" ht="16" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:13" ht="16.5">
       <c r="A9" s="9"/>
       <c r="B9" s="9"/>
       <c r="C9" s="9"/>
@@ -7957,7 +8227,7 @@
       <c r="L9" s="9"/>
       <c r="M9" s="9"/>
     </row>
-    <row r="10" spans="1:13" ht="16" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:13" ht="16.5">
       <c r="A10" s="9"/>
       <c r="B10" s="9"/>
       <c r="C10" s="9"/>
@@ -7972,7 +8242,7 @@
       <c r="L10" s="9"/>
       <c r="M10" s="9"/>
     </row>
-    <row r="11" spans="1:13" ht="16" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:13" ht="16.5">
       <c r="A11" s="9"/>
       <c r="B11" s="9"/>
       <c r="C11" s="9"/>
@@ -7987,7 +8257,7 @@
       <c r="L11" s="9"/>
       <c r="M11" s="9"/>
     </row>
-    <row r="12" spans="1:13" ht="16" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:13" ht="16.5">
       <c r="A12" s="9"/>
       <c r="B12" s="9"/>
       <c r="C12" s="9"/>
@@ -8002,7 +8272,7 @@
       <c r="L12" s="9"/>
       <c r="M12" s="9"/>
     </row>
-    <row r="13" spans="1:13" ht="16" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:13" ht="16.5">
       <c r="A13" s="9"/>
       <c r="B13" s="9"/>
       <c r="C13" s="9"/>
@@ -8017,7 +8287,7 @@
       <c r="L13" s="9"/>
       <c r="M13" s="9"/>
     </row>
-    <row r="14" spans="1:13" ht="16" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:13" ht="16.5">
       <c r="A14" s="9"/>
       <c r="B14" s="9"/>
       <c r="C14" s="9"/>
@@ -8032,7 +8302,7 @@
       <c r="L14" s="9"/>
       <c r="M14" s="9"/>
     </row>
-    <row r="15" spans="1:13" ht="16" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:13" ht="16.5">
       <c r="A15" s="9"/>
       <c r="B15" s="9"/>
       <c r="C15" s="9"/>
@@ -8047,7 +8317,7 @@
       <c r="L15" s="9"/>
       <c r="M15" s="9"/>
     </row>
-    <row r="16" spans="1:13" ht="16" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:13" ht="16.5">
       <c r="A16" s="9"/>
       <c r="B16" s="9"/>
       <c r="C16" s="9"/>
@@ -8093,18 +8363,18 @@
       <selection activeCell="C34" sqref="C34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="17" customWidth="1"/>
-    <col min="2" max="2" width="43.1640625" customWidth="1"/>
+    <col min="2" max="2" width="43.125" customWidth="1"/>
     <col min="3" max="3" width="13" customWidth="1"/>
     <col min="5" max="5" width="12" customWidth="1"/>
-    <col min="6" max="6" width="20.6640625" customWidth="1"/>
-    <col min="7" max="7" width="42.1640625" customWidth="1"/>
-    <col min="8" max="8" width="15.1640625" customWidth="1"/>
+    <col min="6" max="6" width="20.625" customWidth="1"/>
+    <col min="7" max="7" width="42.125" customWidth="1"/>
+    <col min="8" max="8" width="15.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:8">
       <c r="A1" s="2" t="s">
         <v>60</v>
       </c>
@@ -8130,7 +8400,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="2" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:8" s="1" customFormat="1">
       <c r="A2" s="3"/>
       <c r="B2" s="3"/>
       <c r="C2" s="3"/>
@@ -8140,7 +8410,7 @@
       <c r="G2" s="3"/>
       <c r="H2" s="3"/>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:8">
       <c r="A3" s="5"/>
       <c r="B3" s="5"/>
       <c r="C3" s="5"/>
@@ -8150,7 +8420,7 @@
       <c r="G3" s="5"/>
       <c r="H3" s="5"/>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:8">
       <c r="A4" s="5"/>
       <c r="B4" s="5"/>
       <c r="C4" s="5"/>
@@ -8160,7 +8430,7 @@
       <c r="G4" s="5"/>
       <c r="H4" s="5"/>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:8">
       <c r="A5" s="5"/>
       <c r="B5" s="5"/>
       <c r="C5" s="5"/>
@@ -8170,7 +8440,7 @@
       <c r="G5" s="5"/>
       <c r="H5" s="5"/>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:8">
       <c r="A6" s="5"/>
       <c r="B6" s="5"/>
       <c r="C6" s="5"/>
@@ -8180,7 +8450,7 @@
       <c r="G6" s="5"/>
       <c r="H6" s="5"/>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:8">
       <c r="A7" s="5"/>
       <c r="B7" s="5"/>
       <c r="C7" s="5"/>
@@ -8190,7 +8460,7 @@
       <c r="G7" s="5"/>
       <c r="H7" s="5"/>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:8">
       <c r="A8" s="5"/>
       <c r="B8" s="5"/>
       <c r="C8" s="5"/>
@@ -8200,7 +8470,7 @@
       <c r="G8" s="5"/>
       <c r="H8" s="5"/>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:8">
       <c r="A9" s="5"/>
       <c r="B9" s="5"/>
       <c r="C9" s="5"/>
@@ -8210,7 +8480,7 @@
       <c r="G9" s="5"/>
       <c r="H9" s="5"/>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:8">
       <c r="A10" s="5"/>
       <c r="B10" s="5"/>
       <c r="C10" s="5"/>
@@ -8220,7 +8490,7 @@
       <c r="G10" s="5"/>
       <c r="H10" s="5"/>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:8">
       <c r="A11" s="5"/>
       <c r="B11" s="5"/>
       <c r="C11" s="5"/>
@@ -8230,7 +8500,7 @@
       <c r="G11" s="5"/>
       <c r="H11" s="5"/>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:8">
       <c r="A12" s="5"/>
       <c r="B12" s="5"/>
       <c r="C12" s="5"/>
@@ -8240,7 +8510,7 @@
       <c r="G12" s="5"/>
       <c r="H12" s="5"/>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:8">
       <c r="A13" s="5"/>
       <c r="B13" s="5"/>
       <c r="C13" s="5"/>
@@ -8250,7 +8520,7 @@
       <c r="G13" s="5"/>
       <c r="H13" s="5"/>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:8">
       <c r="A14" s="5"/>
       <c r="B14" s="5"/>
       <c r="C14" s="5"/>
@@ -8260,7 +8530,7 @@
       <c r="G14" s="5"/>
       <c r="H14" s="5"/>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:8">
       <c r="A15" s="5"/>
       <c r="B15" s="5"/>
       <c r="C15" s="5"/>
@@ -8270,7 +8540,7 @@
       <c r="G15" s="5"/>
       <c r="H15" s="5"/>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:8">
       <c r="A16" s="5"/>
       <c r="B16" s="5"/>
       <c r="C16" s="5"/>
@@ -8280,7 +8550,7 @@
       <c r="G16" s="5"/>
       <c r="H16" s="5"/>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:8">
       <c r="A17" s="5"/>
       <c r="B17" s="5"/>
       <c r="C17" s="5"/>
@@ -8290,7 +8560,7 @@
       <c r="G17" s="5"/>
       <c r="H17" s="5"/>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:8">
       <c r="A18" s="5"/>
       <c r="B18" s="5"/>
       <c r="C18" s="5"/>
@@ -8300,7 +8570,7 @@
       <c r="G18" s="5"/>
       <c r="H18" s="5"/>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:8">
       <c r="A19" s="5"/>
       <c r="B19" s="5"/>
       <c r="C19" s="5"/>

--- a/VersionRecords/Version 5.4.0 20170420/版本Bug和特性计划及评审表v5.4.0.xlsx
+++ b/VersionRecords/Version 5.4.0 20170420/版本Bug和特性计划及评审表v5.4.0.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="26124"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\mogoDoc\Mogo_Doc\VersionRecords\Version 5.4.0 20170420\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yuanbingqiu/work/Mogo_Doc/VersionRecords/Version 5.4.0 20170420/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="30180" yWindow="3225" windowWidth="25605" windowHeight="14565"/>
+    <workbookView xWindow="600" yWindow="460" windowWidth="25600" windowHeight="14560"/>
   </bookViews>
   <sheets>
     <sheet name="01 版本X.X.X 新特性|Fix Bug" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="365" uniqueCount="163">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="420" uniqueCount="177">
   <si>
     <t>No</t>
   </si>
@@ -609,10 +609,6 @@
     <phoneticPr fontId="24" type="noConversion"/>
   </si>
   <si>
-    <t>DV-3306</t>
-    <phoneticPr fontId="24" type="noConversion"/>
-  </si>
-  <si>
     <t>推广页面TP及58推广判断城市字段调整</t>
     <rPh sb="0" eb="1">
       <t>tui'guang</t>
@@ -641,10 +637,6 @@
     <phoneticPr fontId="24" type="noConversion"/>
   </si>
   <si>
-    <t>DV-3303</t>
-    <phoneticPr fontId="24" type="noConversion"/>
-  </si>
-  <si>
     <t>BS后台房东列表的录入，编辑表单调整</t>
     <rPh sb="2" eb="3">
       <t>hou'tai</t>
@@ -673,94 +665,144 @@
     <phoneticPr fontId="24" type="noConversion"/>
   </si>
   <si>
+    <t>运营报表一期</t>
+    <phoneticPr fontId="24" type="noConversion"/>
+  </si>
+  <si>
+    <t>房东PC</t>
+    <phoneticPr fontId="24" type="noConversion"/>
+  </si>
+  <si>
+    <t>孙苏文、嵇智</t>
+    <phoneticPr fontId="24" type="noConversion"/>
+  </si>
+  <si>
+    <t>张勋</t>
+    <phoneticPr fontId="24" type="noConversion"/>
+  </si>
+  <si>
+    <t>PM-176</t>
+  </si>
+  <si>
+    <t>dc</t>
+  </si>
+  <si>
+    <t>LTS</t>
+  </si>
+  <si>
+    <t>mogoda-tasktracker</t>
+  </si>
+  <si>
+    <t>运营报表数据库数据初始化定时器</t>
+  </si>
+  <si>
+    <t>王岩</t>
+  </si>
+  <si>
+    <t>孙苏文</t>
+  </si>
+  <si>
+    <t>启用</t>
+  </si>
+  <si>
+    <t>否</t>
+  </si>
+  <si>
+    <t>com.mogoroom.tasktracker.task.dc.LandlordOperateInitTask</t>
+  </si>
+  <si>
+    <t>不用填</t>
+  </si>
+  <si>
+    <t>LandlordOperateInitTask</t>
+  </si>
+  <si>
+    <t>{"taskImpl":"com.mogoroom.tasktracker.task.dc.LandlordOperateInitTask"}</t>
+  </si>
+  <si>
+    <t>定时任务</t>
+  </si>
+  <si>
+    <t>单次执行，上线后由开发通知执行一次。</t>
+  </si>
+  <si>
+    <t>不可重复执行，如有错，需开发修复</t>
+  </si>
+  <si>
+    <t>运营报表更新昨日Dc数据定时器</t>
+  </si>
+  <si>
+    <t>com.mogoroom.tasktracker.task.dc.DcCopyToLandlordOperate</t>
+  </si>
+  <si>
+    <t>DcCopyToLandlordOperate</t>
+  </si>
+  <si>
+    <t>{"taskImpl":"com.mogoroom.tasktracker.task.dc.DcCopyToLandlordOperate"}</t>
+  </si>
+  <si>
+    <t>每日凌晨5点</t>
+  </si>
+  <si>
+    <t>优化城市显示动态化</t>
+  </si>
+  <si>
+    <t>renterpc，BS</t>
+  </si>
+  <si>
+    <t>彭晓春、李明</t>
+  </si>
+  <si>
+    <t>EQ组</t>
+  </si>
+  <si>
+    <t>吴永余</t>
+  </si>
+  <si>
+    <t>EQ-732</t>
+  </si>
+  <si>
+    <t>修复官网地图找房房源列表显示</t>
+  </si>
+  <si>
+    <t>Fix Bugs</t>
+  </si>
+  <si>
+    <t>renterpc</t>
+  </si>
+  <si>
+    <t>彭晓春</t>
+  </si>
+  <si>
+    <t>官网调整APP下载页面城市内容显示</t>
+  </si>
+  <si>
+    <t>李明</t>
+  </si>
+  <si>
+    <t>优化数据库IO</t>
+  </si>
+  <si>
+    <t>BS、Lts</t>
+  </si>
+  <si>
+    <t>DV-3306</t>
+    <phoneticPr fontId="24" type="noConversion"/>
+  </si>
+  <si>
+    <t>DV-3303</t>
+    <phoneticPr fontId="24" type="noConversion"/>
+  </si>
+  <si>
     <t>DV-3301</t>
     <phoneticPr fontId="24" type="noConversion"/>
-  </si>
-  <si>
-    <t>运营报表一期</t>
-    <phoneticPr fontId="24" type="noConversion"/>
-  </si>
-  <si>
-    <t>房东PC</t>
-    <phoneticPr fontId="24" type="noConversion"/>
-  </si>
-  <si>
-    <t>孙苏文、嵇智</t>
-    <phoneticPr fontId="24" type="noConversion"/>
-  </si>
-  <si>
-    <t>张勋</t>
-    <phoneticPr fontId="24" type="noConversion"/>
-  </si>
-  <si>
-    <t>PM-176</t>
-  </si>
-  <si>
-    <t>dc</t>
-  </si>
-  <si>
-    <t>LTS</t>
-  </si>
-  <si>
-    <t>mogoda-tasktracker</t>
-  </si>
-  <si>
-    <t>运营报表数据库数据初始化定时器</t>
-  </si>
-  <si>
-    <t>王岩</t>
-  </si>
-  <si>
-    <t>孙苏文</t>
-  </si>
-  <si>
-    <t>启用</t>
-  </si>
-  <si>
-    <t>否</t>
-  </si>
-  <si>
-    <t>com.mogoroom.tasktracker.task.dc.LandlordOperateInitTask</t>
-  </si>
-  <si>
-    <t>不用填</t>
-  </si>
-  <si>
-    <t>LandlordOperateInitTask</t>
-  </si>
-  <si>
-    <t>{"taskImpl":"com.mogoroom.tasktracker.task.dc.LandlordOperateInitTask"}</t>
-  </si>
-  <si>
-    <t>定时任务</t>
-  </si>
-  <si>
-    <t>单次执行，上线后由开发通知执行一次。</t>
-  </si>
-  <si>
-    <t>不可重复执行，如有错，需开发修复</t>
-  </si>
-  <si>
-    <t>运营报表更新昨日Dc数据定时器</t>
-  </si>
-  <si>
-    <t>com.mogoroom.tasktracker.task.dc.DcCopyToLandlordOperate</t>
-  </si>
-  <si>
-    <t>DcCopyToLandlordOperate</t>
-  </si>
-  <si>
-    <t>{"taskImpl":"com.mogoroom.tasktracker.task.dc.DcCopyToLandlordOperate"}</t>
-  </si>
-  <si>
-    <t>每日凌晨5点</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="27">
+  <fonts count="27" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -1012,7 +1054,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="12">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -1155,6 +1197,19 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1195,7 +1250,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="104">
+  <cellXfs count="111">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1448,6 +1503,39 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="12" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="10" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="11" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1475,38 +1563,26 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="10" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="11" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="14" fontId="15" fillId="6" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="15">
@@ -1523,8 +1599,8 @@
     <cellStyle name="常规 9" xfId="1"/>
     <cellStyle name="超链接" xfId="13" builtinId="8"/>
     <cellStyle name="甘特图" xfId="3"/>
+    <cellStyle name="个性色4" xfId="11" builtinId="41"/>
     <cellStyle name="已访问的超链接" xfId="14" builtinId="9" hidden="1"/>
-    <cellStyle name="着色 4" xfId="11" builtinId="41"/>
   </cellStyles>
   <dxfs count="1">
     <dxf>
@@ -1885,37 +1961,37 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X171"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G18" sqref="G18"/>
+    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="6.875" style="47" customWidth="1"/>
-    <col min="2" max="3" width="9.875" style="47" customWidth="1"/>
-    <col min="4" max="4" width="20.375" style="48" customWidth="1"/>
+    <col min="1" max="1" width="6.83203125" style="47" customWidth="1"/>
+    <col min="2" max="3" width="9.83203125" style="47" customWidth="1"/>
+    <col min="4" max="4" width="20.33203125" style="48" customWidth="1"/>
     <col min="5" max="5" width="15" style="47" customWidth="1"/>
-    <col min="6" max="6" width="18.125" style="47" customWidth="1"/>
-    <col min="7" max="7" width="9.625" style="47" customWidth="1"/>
-    <col min="8" max="8" width="12.125" style="48" customWidth="1"/>
-    <col min="9" max="9" width="9.625" style="47" customWidth="1"/>
-    <col min="10" max="10" width="12.375" style="48" customWidth="1"/>
-    <col min="11" max="11" width="10.125" style="48" customWidth="1"/>
-    <col min="12" max="12" width="13.875" style="47" customWidth="1"/>
-    <col min="13" max="13" width="15.875" style="47" customWidth="1"/>
-    <col min="14" max="15" width="11.375" style="47" customWidth="1"/>
+    <col min="6" max="6" width="18.1640625" style="47" customWidth="1"/>
+    <col min="7" max="7" width="9.6640625" style="47" customWidth="1"/>
+    <col min="8" max="8" width="12.1640625" style="48" customWidth="1"/>
+    <col min="9" max="9" width="9.6640625" style="47" customWidth="1"/>
+    <col min="10" max="10" width="12.33203125" style="48" customWidth="1"/>
+    <col min="11" max="11" width="10.1640625" style="48" customWidth="1"/>
+    <col min="12" max="12" width="13.83203125" style="47" customWidth="1"/>
+    <col min="13" max="13" width="15.83203125" style="47" customWidth="1"/>
+    <col min="14" max="15" width="11.33203125" style="47" customWidth="1"/>
     <col min="16" max="16" width="10" style="48" customWidth="1"/>
     <col min="17" max="17" width="12.5" style="48" customWidth="1"/>
-    <col min="18" max="18" width="7.625" style="48" customWidth="1"/>
+    <col min="18" max="18" width="7.6640625" style="48" customWidth="1"/>
     <col min="19" max="20" width="12" style="49" customWidth="1"/>
     <col min="21" max="21" width="17" style="49" customWidth="1"/>
-    <col min="22" max="22" width="14.125" style="49" customWidth="1"/>
-    <col min="23" max="23" width="41.875" style="48" customWidth="1"/>
-    <col min="24" max="24" width="8.875" customWidth="1"/>
+    <col min="22" max="22" width="14.1640625" style="49" customWidth="1"/>
+    <col min="23" max="23" width="41.83203125" style="48" customWidth="1"/>
+    <col min="24" max="24" width="8.83203125" customWidth="1"/>
     <col min="25" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" s="45" customFormat="1" ht="27">
+    <row r="1" spans="1:24" s="45" customFormat="1" ht="28" x14ac:dyDescent="0.15">
       <c r="A1" s="50" t="s">
         <v>0</v>
       </c>
@@ -1986,7 +2062,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:24" s="46" customFormat="1" ht="18" customHeight="1">
+    <row r="2" spans="1:24" s="46" customFormat="1" ht="32" x14ac:dyDescent="0.15">
       <c r="A2" s="51">
         <v>1</v>
       </c>
@@ -2048,7 +2124,7 @@
       <c r="W2" s="71"/>
       <c r="X2" s="72"/>
     </row>
-    <row r="3" spans="1:24" s="46" customFormat="1" ht="33">
+    <row r="3" spans="1:24" s="46" customFormat="1" ht="32" x14ac:dyDescent="0.15">
       <c r="A3" s="51">
         <v>2</v>
       </c>
@@ -2110,7 +2186,7 @@
       <c r="W3" s="73"/>
       <c r="X3" s="72"/>
     </row>
-    <row r="4" spans="1:24" s="46" customFormat="1" ht="16.5" customHeight="1">
+    <row r="4" spans="1:24" s="46" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="51">
         <v>3</v>
       </c>
@@ -2172,7 +2248,7 @@
       <c r="W4" s="71"/>
       <c r="X4" s="72"/>
     </row>
-    <row r="5" spans="1:24" s="46" customFormat="1" ht="148.5">
+    <row r="5" spans="1:24" s="46" customFormat="1" ht="144" x14ac:dyDescent="0.15">
       <c r="A5" s="51">
         <v>4</v>
       </c>
@@ -2234,7 +2310,7 @@
       <c r="W5" s="73"/>
       <c r="X5" s="72"/>
     </row>
-    <row r="6" spans="1:24" s="46" customFormat="1" ht="16.5">
+    <row r="6" spans="1:24" s="46" customFormat="1" ht="16" x14ac:dyDescent="0.15">
       <c r="A6" s="51">
         <v>5</v>
       </c>
@@ -2296,7 +2372,7 @@
       <c r="W6" s="73"/>
       <c r="X6" s="72"/>
     </row>
-    <row r="7" spans="1:24" s="46" customFormat="1" ht="16.5">
+    <row r="7" spans="1:24" s="46" customFormat="1" ht="16" x14ac:dyDescent="0.15">
       <c r="A7" s="79">
         <v>1</v>
       </c>
@@ -2307,13 +2383,13 @@
         <v>86</v>
       </c>
       <c r="D7" s="77" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="E7" s="58" t="s">
         <v>71</v>
       </c>
       <c r="F7" s="58" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="G7" s="58" t="s">
         <v>74</v>
@@ -2329,7 +2405,7 @@
       </c>
       <c r="K7" s="58"/>
       <c r="L7" s="78" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="M7" s="58" t="s">
         <v>118</v>
@@ -2338,7 +2414,7 @@
         <v>77</v>
       </c>
       <c r="O7" s="58" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="P7" s="78" t="s">
         <v>79</v>
@@ -2350,15 +2426,15 @@
         <v>80</v>
       </c>
       <c r="S7" s="67" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="T7" s="67"/>
       <c r="U7" s="56"/>
       <c r="V7" s="66"/>
-      <c r="W7" s="93"/>
+      <c r="W7" s="84"/>
       <c r="X7" s="72"/>
     </row>
-    <row r="8" spans="1:24" s="46" customFormat="1" ht="16.5">
+    <row r="8" spans="1:24" s="46" customFormat="1" ht="16" x14ac:dyDescent="0.15">
       <c r="A8" s="51">
         <v>6</v>
       </c>
@@ -2420,7 +2496,7 @@
       <c r="W8" s="73"/>
       <c r="X8" s="72"/>
     </row>
-    <row r="9" spans="1:24" s="46" customFormat="1" ht="33">
+    <row r="9" spans="1:24" s="46" customFormat="1" ht="32" x14ac:dyDescent="0.15">
       <c r="A9" s="51">
         <v>7</v>
       </c>
@@ -2482,7 +2558,7 @@
       <c r="W9" s="73"/>
       <c r="X9" s="72"/>
     </row>
-    <row r="10" spans="1:24" s="46" customFormat="1" ht="16.5">
+    <row r="10" spans="1:24" s="46" customFormat="1" ht="16" x14ac:dyDescent="0.15">
       <c r="A10" s="51">
         <v>8</v>
       </c>
@@ -2535,8 +2611,8 @@
       <c r="R10" s="78" t="s">
         <v>80</v>
       </c>
-      <c r="S10" s="66" t="s">
-        <v>133</v>
+      <c r="S10" s="67" t="s">
+        <v>174</v>
       </c>
       <c r="T10" s="56"/>
       <c r="U10" s="56"/>
@@ -2544,7 +2620,7 @@
       <c r="W10" s="73"/>
       <c r="X10" s="72"/>
     </row>
-    <row r="11" spans="1:24" s="46" customFormat="1" ht="33">
+    <row r="11" spans="1:24" s="46" customFormat="1" ht="32" x14ac:dyDescent="0.15">
       <c r="A11" s="51">
         <v>9</v>
       </c>
@@ -2555,7 +2631,7 @@
         <v>69</v>
       </c>
       <c r="D11" s="77" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E11" s="58" t="s">
         <v>71</v>
@@ -2597,8 +2673,8 @@
       <c r="R11" s="78" t="s">
         <v>80</v>
       </c>
-      <c r="S11" s="66" t="s">
-        <v>135</v>
+      <c r="S11" s="67" t="s">
+        <v>175</v>
       </c>
       <c r="T11" s="56"/>
       <c r="U11" s="56"/>
@@ -2606,7 +2682,7 @@
       <c r="W11" s="73"/>
       <c r="X11" s="72"/>
     </row>
-    <row r="12" spans="1:24" s="46" customFormat="1" ht="33">
+    <row r="12" spans="1:24" s="46" customFormat="1" ht="32" x14ac:dyDescent="0.15">
       <c r="A12" s="51">
         <v>10</v>
       </c>
@@ -2617,7 +2693,7 @@
         <v>69</v>
       </c>
       <c r="D12" s="77" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="E12" s="58" t="s">
         <v>71</v>
@@ -2659,8 +2735,8 @@
       <c r="R12" s="78" t="s">
         <v>80</v>
       </c>
-      <c r="S12" s="66" t="s">
-        <v>137</v>
+      <c r="S12" s="67" t="s">
+        <v>176</v>
       </c>
       <c r="T12" s="56"/>
       <c r="U12" s="56"/>
@@ -2668,111 +2744,255 @@
       <c r="W12" s="73"/>
       <c r="X12" s="72"/>
     </row>
-    <row r="13" spans="1:24" s="46" customFormat="1" ht="16.5">
-      <c r="A13" s="51"/>
-      <c r="B13" s="51"/>
-      <c r="C13" s="51"/>
-      <c r="D13" s="52"/>
-      <c r="E13" s="58"/>
-      <c r="F13" s="58"/>
-      <c r="G13" s="58"/>
-      <c r="H13" s="59"/>
-      <c r="I13" s="58"/>
-      <c r="J13" s="59"/>
-      <c r="K13" s="58"/>
-      <c r="L13" s="62"/>
-      <c r="M13" s="58"/>
-      <c r="N13" s="58"/>
-      <c r="O13" s="58"/>
-      <c r="P13" s="62"/>
-      <c r="Q13" s="59"/>
-      <c r="R13" s="62"/>
-      <c r="S13" s="56"/>
-      <c r="T13" s="56"/>
-      <c r="U13" s="56"/>
+    <row r="13" spans="1:24" s="46" customFormat="1" ht="16" x14ac:dyDescent="0.15">
+      <c r="A13" s="51">
+        <v>11</v>
+      </c>
+      <c r="B13" s="104" t="s">
+        <v>68</v>
+      </c>
+      <c r="C13" s="104" t="s">
+        <v>86</v>
+      </c>
+      <c r="D13" s="104" t="s">
+        <v>160</v>
+      </c>
+      <c r="E13" s="105" t="s">
+        <v>71</v>
+      </c>
+      <c r="F13" s="105" t="s">
+        <v>161</v>
+      </c>
+      <c r="G13" s="105" t="s">
+        <v>74</v>
+      </c>
+      <c r="H13" s="106">
+        <v>42844</v>
+      </c>
+      <c r="I13" s="105" t="s">
+        <v>74</v>
+      </c>
+      <c r="J13" s="106">
+        <v>42845</v>
+      </c>
+      <c r="K13" s="105"/>
+      <c r="L13" s="107" t="s">
+        <v>162</v>
+      </c>
+      <c r="M13" s="105" t="s">
+        <v>163</v>
+      </c>
+      <c r="N13" s="105" t="s">
+        <v>77</v>
+      </c>
+      <c r="O13" s="105" t="s">
+        <v>164</v>
+      </c>
+      <c r="P13" s="107" t="s">
+        <v>79</v>
+      </c>
+      <c r="Q13" s="106">
+        <v>42845</v>
+      </c>
+      <c r="R13" s="107" t="s">
+        <v>80</v>
+      </c>
+      <c r="S13" s="67" t="s">
+        <v>165</v>
+      </c>
+      <c r="T13" s="108"/>
+      <c r="U13" s="108"/>
       <c r="V13" s="66"/>
       <c r="W13" s="73"/>
       <c r="X13" s="72"/>
     </row>
-    <row r="14" spans="1:24" s="46" customFormat="1" ht="16.5">
-      <c r="A14" s="51"/>
-      <c r="B14" s="51"/>
-      <c r="C14" s="51"/>
-      <c r="D14" s="52"/>
-      <c r="E14" s="58"/>
-      <c r="F14" s="58"/>
-      <c r="G14" s="58"/>
-      <c r="H14" s="59"/>
-      <c r="I14" s="58"/>
-      <c r="J14" s="59"/>
-      <c r="K14" s="58"/>
-      <c r="L14" s="62"/>
-      <c r="M14" s="58"/>
-      <c r="N14" s="58"/>
-      <c r="O14" s="58"/>
-      <c r="P14" s="62"/>
-      <c r="Q14" s="59"/>
-      <c r="R14" s="62"/>
-      <c r="S14" s="56"/>
-      <c r="T14" s="56"/>
-      <c r="U14" s="56"/>
+    <row r="14" spans="1:24" s="46" customFormat="1" ht="32" x14ac:dyDescent="0.15">
+      <c r="A14" s="51">
+        <v>12</v>
+      </c>
+      <c r="B14" s="104" t="s">
+        <v>68</v>
+      </c>
+      <c r="C14" s="104" t="s">
+        <v>86</v>
+      </c>
+      <c r="D14" s="104" t="s">
+        <v>166</v>
+      </c>
+      <c r="E14" s="105" t="s">
+        <v>167</v>
+      </c>
+      <c r="F14" s="105" t="s">
+        <v>168</v>
+      </c>
+      <c r="G14" s="105" t="s">
+        <v>74</v>
+      </c>
+      <c r="H14" s="106">
+        <v>42844</v>
+      </c>
+      <c r="I14" s="105" t="s">
+        <v>74</v>
+      </c>
+      <c r="J14" s="106">
+        <v>42845</v>
+      </c>
+      <c r="K14" s="105"/>
+      <c r="L14" s="107" t="s">
+        <v>169</v>
+      </c>
+      <c r="M14" s="105" t="s">
+        <v>163</v>
+      </c>
+      <c r="N14" s="105" t="s">
+        <v>77</v>
+      </c>
+      <c r="O14" s="105" t="s">
+        <v>164</v>
+      </c>
+      <c r="P14" s="107" t="s">
+        <v>79</v>
+      </c>
+      <c r="Q14" s="106">
+        <v>42845</v>
+      </c>
+      <c r="R14" s="107" t="s">
+        <v>80</v>
+      </c>
+      <c r="S14" s="108"/>
+      <c r="T14" s="108">
+        <v>10915</v>
+      </c>
+      <c r="U14" s="108"/>
       <c r="V14" s="66"/>
       <c r="W14" s="73"/>
       <c r="X14" s="72"/>
     </row>
-    <row r="15" spans="1:24" s="46" customFormat="1" ht="16.5">
-      <c r="A15" s="51"/>
-      <c r="B15" s="51"/>
-      <c r="C15" s="51"/>
-      <c r="D15" s="52"/>
-      <c r="E15" s="58"/>
-      <c r="F15" s="58"/>
-      <c r="G15" s="58"/>
-      <c r="H15" s="59"/>
-      <c r="I15" s="58"/>
-      <c r="J15" s="59"/>
-      <c r="K15" s="58"/>
-      <c r="L15" s="62"/>
-      <c r="M15" s="58"/>
-      <c r="N15" s="58"/>
-      <c r="O15" s="58"/>
-      <c r="P15" s="62"/>
-      <c r="Q15" s="59"/>
-      <c r="R15" s="62"/>
-      <c r="S15" s="56"/>
-      <c r="T15" s="56"/>
-      <c r="U15" s="56"/>
+    <row r="15" spans="1:24" s="46" customFormat="1" ht="32" x14ac:dyDescent="0.15">
+      <c r="A15" s="51">
+        <v>13</v>
+      </c>
+      <c r="B15" s="104" t="s">
+        <v>68</v>
+      </c>
+      <c r="C15" s="104" t="s">
+        <v>86</v>
+      </c>
+      <c r="D15" s="105" t="s">
+        <v>170</v>
+      </c>
+      <c r="E15" s="105" t="s">
+        <v>71</v>
+      </c>
+      <c r="F15" s="105" t="s">
+        <v>168</v>
+      </c>
+      <c r="G15" s="105" t="s">
+        <v>74</v>
+      </c>
+      <c r="H15" s="106">
+        <v>42844</v>
+      </c>
+      <c r="I15" s="105" t="s">
+        <v>74</v>
+      </c>
+      <c r="J15" s="106">
+        <v>42845</v>
+      </c>
+      <c r="K15" s="105"/>
+      <c r="L15" s="107" t="s">
+        <v>171</v>
+      </c>
+      <c r="M15" s="105" t="s">
+        <v>163</v>
+      </c>
+      <c r="N15" s="105" t="s">
+        <v>77</v>
+      </c>
+      <c r="O15" s="105" t="s">
+        <v>164</v>
+      </c>
+      <c r="P15" s="107" t="s">
+        <v>79</v>
+      </c>
+      <c r="Q15" s="106">
+        <v>42845</v>
+      </c>
+      <c r="R15" s="107" t="s">
+        <v>80</v>
+      </c>
+      <c r="S15" s="67" t="s">
+        <v>165</v>
+      </c>
+      <c r="T15" s="109"/>
+      <c r="U15" s="109"/>
       <c r="V15" s="66"/>
       <c r="W15" s="73"/>
       <c r="X15" s="72"/>
     </row>
-    <row r="16" spans="1:24" s="46" customFormat="1" ht="16.5">
-      <c r="A16" s="51"/>
-      <c r="B16" s="51"/>
-      <c r="C16" s="51"/>
-      <c r="D16" s="52"/>
-      <c r="E16" s="58"/>
-      <c r="F16" s="58"/>
-      <c r="G16" s="58"/>
-      <c r="H16" s="59"/>
-      <c r="I16" s="59"/>
-      <c r="J16" s="59"/>
-      <c r="K16" s="58"/>
-      <c r="L16" s="62"/>
-      <c r="M16" s="58"/>
-      <c r="N16" s="58"/>
-      <c r="O16" s="58"/>
-      <c r="P16" s="62"/>
-      <c r="Q16" s="59"/>
-      <c r="R16" s="62"/>
-      <c r="S16" s="56"/>
-      <c r="T16" s="56"/>
-      <c r="U16" s="56"/>
+    <row r="16" spans="1:24" s="46" customFormat="1" ht="16" x14ac:dyDescent="0.15">
+      <c r="A16" s="51">
+        <v>14</v>
+      </c>
+      <c r="B16" s="104" t="s">
+        <v>68</v>
+      </c>
+      <c r="C16" s="104" t="s">
+        <v>86</v>
+      </c>
+      <c r="D16" s="104" t="s">
+        <v>172</v>
+      </c>
+      <c r="E16" s="105" t="s">
+        <v>71</v>
+      </c>
+      <c r="F16" s="105" t="s">
+        <v>173</v>
+      </c>
+      <c r="G16" s="105" t="s">
+        <v>74</v>
+      </c>
+      <c r="H16" s="106">
+        <v>42844</v>
+      </c>
+      <c r="I16" s="105" t="s">
+        <v>74</v>
+      </c>
+      <c r="J16" s="106">
+        <v>42845</v>
+      </c>
+      <c r="K16" s="105"/>
+      <c r="L16" s="107" t="s">
+        <v>169</v>
+      </c>
+      <c r="M16" s="105" t="s">
+        <v>163</v>
+      </c>
+      <c r="N16" s="105" t="s">
+        <v>77</v>
+      </c>
+      <c r="O16" s="110" t="s">
+        <v>164</v>
+      </c>
+      <c r="P16" s="107" t="s">
+        <v>79</v>
+      </c>
+      <c r="Q16" s="106">
+        <v>42845</v>
+      </c>
+      <c r="R16" s="107" t="s">
+        <v>80</v>
+      </c>
+      <c r="S16" s="67" t="s">
+        <v>165</v>
+      </c>
+      <c r="T16" s="108"/>
+      <c r="U16" s="108"/>
       <c r="V16" s="56"/>
       <c r="W16" s="73"/>
       <c r="X16" s="72"/>
     </row>
-    <row r="17" spans="1:24" s="46" customFormat="1" ht="16.5">
+    <row r="17" spans="1:24" s="46" customFormat="1" ht="16" x14ac:dyDescent="0.15">
       <c r="A17" s="51"/>
       <c r="B17" s="51"/>
       <c r="C17" s="51"/>
@@ -2798,7 +3018,7 @@
       <c r="W17" s="73"/>
       <c r="X17" s="72"/>
     </row>
-    <row r="18" spans="1:24" s="46" customFormat="1" ht="16.5">
+    <row r="18" spans="1:24" s="46" customFormat="1" ht="16" x14ac:dyDescent="0.15">
       <c r="A18" s="51"/>
       <c r="B18" s="51"/>
       <c r="C18" s="51"/>
@@ -2824,7 +3044,7 @@
       <c r="W18" s="74"/>
       <c r="X18" s="72"/>
     </row>
-    <row r="19" spans="1:24" ht="16.5">
+    <row r="19" spans="1:24" ht="16" x14ac:dyDescent="0.15">
       <c r="A19" s="51"/>
       <c r="B19" s="51"/>
       <c r="C19" s="51"/>
@@ -2849,7 +3069,7 @@
       <c r="V19" s="56"/>
       <c r="W19" s="57"/>
     </row>
-    <row r="20" spans="1:24" ht="16.5">
+    <row r="20" spans="1:24" ht="16" x14ac:dyDescent="0.15">
       <c r="A20" s="51"/>
       <c r="B20" s="51"/>
       <c r="C20" s="51"/>
@@ -2874,7 +3094,7 @@
       <c r="V20" s="56"/>
       <c r="W20" s="57"/>
     </row>
-    <row r="21" spans="1:24" ht="16.5">
+    <row r="21" spans="1:24" ht="16" x14ac:dyDescent="0.15">
       <c r="A21" s="51"/>
       <c r="B21" s="51"/>
       <c r="C21" s="51"/>
@@ -2899,7 +3119,7 @@
       <c r="V21" s="56"/>
       <c r="W21" s="57"/>
     </row>
-    <row r="22" spans="1:24" ht="16.5">
+    <row r="22" spans="1:24" ht="16" x14ac:dyDescent="0.15">
       <c r="A22" s="51"/>
       <c r="B22" s="51"/>
       <c r="C22" s="51"/>
@@ -2924,7 +3144,7 @@
       <c r="V22" s="56"/>
       <c r="W22" s="73"/>
     </row>
-    <row r="23" spans="1:24" ht="16.5">
+    <row r="23" spans="1:24" ht="16" x14ac:dyDescent="0.15">
       <c r="A23" s="51"/>
       <c r="B23" s="51"/>
       <c r="C23" s="51"/>
@@ -2949,7 +3169,7 @@
       <c r="V23" s="56"/>
       <c r="W23" s="73"/>
     </row>
-    <row r="24" spans="1:24" ht="16.5">
+    <row r="24" spans="1:24" ht="16" x14ac:dyDescent="0.15">
       <c r="A24" s="51"/>
       <c r="B24" s="51"/>
       <c r="C24" s="51"/>
@@ -2974,7 +3194,7 @@
       <c r="V24" s="56"/>
       <c r="W24" s="73"/>
     </row>
-    <row r="25" spans="1:24" ht="16.5">
+    <row r="25" spans="1:24" ht="16" x14ac:dyDescent="0.15">
       <c r="A25" s="51"/>
       <c r="B25" s="51"/>
       <c r="C25" s="51"/>
@@ -2999,7 +3219,7 @@
       <c r="V25" s="69"/>
       <c r="W25" s="75"/>
     </row>
-    <row r="26" spans="1:24" ht="16.5">
+    <row r="26" spans="1:24" ht="16" x14ac:dyDescent="0.15">
       <c r="A26" s="51"/>
       <c r="B26" s="51"/>
       <c r="C26" s="51"/>
@@ -3024,7 +3244,7 @@
       <c r="V26" s="70"/>
       <c r="W26" s="75"/>
     </row>
-    <row r="27" spans="1:24" ht="16.5">
+    <row r="27" spans="1:24" ht="16" x14ac:dyDescent="0.15">
       <c r="A27" s="51"/>
       <c r="B27" s="51"/>
       <c r="C27" s="51"/>
@@ -3049,7 +3269,7 @@
       <c r="V27" s="76"/>
       <c r="W27" s="75"/>
     </row>
-    <row r="28" spans="1:24" ht="16.5">
+    <row r="28" spans="1:24" ht="16" x14ac:dyDescent="0.15">
       <c r="A28" s="51"/>
       <c r="B28" s="51"/>
       <c r="C28" s="51"/>
@@ -3074,7 +3294,7 @@
       <c r="V28" s="70"/>
       <c r="W28" s="75"/>
     </row>
-    <row r="29" spans="1:24" ht="16.5">
+    <row r="29" spans="1:24" ht="16" x14ac:dyDescent="0.15">
       <c r="A29" s="51"/>
       <c r="B29" s="51"/>
       <c r="C29" s="51"/>
@@ -3099,7 +3319,7 @@
       <c r="V29" s="70"/>
       <c r="W29" s="75"/>
     </row>
-    <row r="30" spans="1:24" ht="16.5">
+    <row r="30" spans="1:24" ht="16" x14ac:dyDescent="0.15">
       <c r="A30" s="51"/>
       <c r="B30" s="51"/>
       <c r="C30" s="51"/>
@@ -3124,7 +3344,7 @@
       <c r="V30" s="68"/>
       <c r="W30" s="62"/>
     </row>
-    <row r="31" spans="1:24" ht="16.5">
+    <row r="31" spans="1:24" ht="16" x14ac:dyDescent="0.15">
       <c r="A31" s="51"/>
       <c r="B31" s="51"/>
       <c r="C31" s="51"/>
@@ -3149,7 +3369,7 @@
       <c r="V31" s="56"/>
       <c r="W31" s="73"/>
     </row>
-    <row r="32" spans="1:24" ht="16.5">
+    <row r="32" spans="1:24" ht="16" x14ac:dyDescent="0.15">
       <c r="A32" s="51"/>
       <c r="B32" s="51"/>
       <c r="C32" s="51"/>
@@ -3174,7 +3394,7 @@
       <c r="V32" s="56"/>
       <c r="W32" s="73"/>
     </row>
-    <row r="33" spans="1:23" ht="16.5">
+    <row r="33" spans="1:23" ht="16" x14ac:dyDescent="0.15">
       <c r="A33" s="51"/>
       <c r="B33" s="51"/>
       <c r="C33" s="51"/>
@@ -3199,7 +3419,7 @@
       <c r="V33" s="56"/>
       <c r="W33" s="73"/>
     </row>
-    <row r="34" spans="1:23" ht="16.5">
+    <row r="34" spans="1:23" ht="16" x14ac:dyDescent="0.15">
       <c r="A34" s="51"/>
       <c r="B34" s="51"/>
       <c r="C34" s="51"/>
@@ -3224,7 +3444,7 @@
       <c r="V34" s="70"/>
       <c r="W34" s="75"/>
     </row>
-    <row r="35" spans="1:23" ht="16.5">
+    <row r="35" spans="1:23" ht="16" x14ac:dyDescent="0.15">
       <c r="A35" s="51"/>
       <c r="B35" s="51"/>
       <c r="C35" s="51"/>
@@ -3249,7 +3469,7 @@
       <c r="V35" s="56"/>
       <c r="W35" s="71"/>
     </row>
-    <row r="36" spans="1:23" ht="16.5">
+    <row r="36" spans="1:23" ht="16" x14ac:dyDescent="0.15">
       <c r="A36" s="51"/>
       <c r="B36" s="51"/>
       <c r="C36" s="51"/>
@@ -3274,7 +3494,7 @@
       <c r="V36" s="56"/>
       <c r="W36" s="73"/>
     </row>
-    <row r="37" spans="1:23" ht="16.5">
+    <row r="37" spans="1:23" ht="16" x14ac:dyDescent="0.15">
       <c r="A37" s="51"/>
       <c r="B37" s="51"/>
       <c r="C37" s="51"/>
@@ -3299,7 +3519,7 @@
       <c r="V37" s="56"/>
       <c r="W37" s="73"/>
     </row>
-    <row r="38" spans="1:23" ht="16.5">
+    <row r="38" spans="1:23" ht="16" x14ac:dyDescent="0.15">
       <c r="A38" s="51"/>
       <c r="B38" s="51"/>
       <c r="C38" s="51"/>
@@ -3324,7 +3544,7 @@
       <c r="V38" s="56"/>
       <c r="W38" s="73"/>
     </row>
-    <row r="39" spans="1:23" ht="16.5">
+    <row r="39" spans="1:23" ht="16" x14ac:dyDescent="0.15">
       <c r="A39" s="51"/>
       <c r="B39" s="51"/>
       <c r="C39" s="51"/>
@@ -3349,7 +3569,7 @@
       <c r="V39" s="56"/>
       <c r="W39" s="73"/>
     </row>
-    <row r="40" spans="1:23" ht="16.5">
+    <row r="40" spans="1:23" ht="16" x14ac:dyDescent="0.15">
       <c r="A40" s="51"/>
       <c r="B40" s="51"/>
       <c r="C40" s="51"/>
@@ -3374,7 +3594,7 @@
       <c r="V40" s="56"/>
       <c r="W40" s="73"/>
     </row>
-    <row r="41" spans="1:23" ht="16.5">
+    <row r="41" spans="1:23" ht="16" x14ac:dyDescent="0.15">
       <c r="A41" s="51"/>
       <c r="B41" s="51"/>
       <c r="C41" s="51"/>
@@ -3399,7 +3619,7 @@
       <c r="V41" s="56"/>
       <c r="W41" s="73"/>
     </row>
-    <row r="42" spans="1:23" ht="16.5">
+    <row r="42" spans="1:23" ht="16" x14ac:dyDescent="0.15">
       <c r="A42" s="51"/>
       <c r="B42" s="51"/>
       <c r="C42" s="51"/>
@@ -3424,7 +3644,7 @@
       <c r="V42" s="56"/>
       <c r="W42" s="73"/>
     </row>
-    <row r="43" spans="1:23" ht="16.5">
+    <row r="43" spans="1:23" ht="16" x14ac:dyDescent="0.15">
       <c r="A43" s="51"/>
       <c r="B43" s="51"/>
       <c r="C43" s="51"/>
@@ -3449,7 +3669,7 @@
       <c r="V43" s="56"/>
       <c r="W43" s="73"/>
     </row>
-    <row r="44" spans="1:23" ht="16.5">
+    <row r="44" spans="1:23" ht="16" x14ac:dyDescent="0.15">
       <c r="A44" s="51"/>
       <c r="B44" s="51"/>
       <c r="C44" s="51"/>
@@ -3474,7 +3694,7 @@
       <c r="V44" s="56"/>
       <c r="W44" s="73"/>
     </row>
-    <row r="45" spans="1:23" ht="16.5">
+    <row r="45" spans="1:23" ht="16" x14ac:dyDescent="0.15">
       <c r="A45" s="51"/>
       <c r="B45" s="51"/>
       <c r="C45" s="51"/>
@@ -3499,7 +3719,7 @@
       <c r="V45" s="56"/>
       <c r="W45" s="73"/>
     </row>
-    <row r="46" spans="1:23" ht="16.5">
+    <row r="46" spans="1:23" ht="16" x14ac:dyDescent="0.15">
       <c r="A46" s="51"/>
       <c r="B46" s="51"/>
       <c r="C46" s="51"/>
@@ -3524,7 +3744,7 @@
       <c r="V46" s="68"/>
       <c r="W46" s="73"/>
     </row>
-    <row r="47" spans="1:23" ht="16.5">
+    <row r="47" spans="1:23" ht="16" x14ac:dyDescent="0.15">
       <c r="A47" s="51"/>
       <c r="B47" s="51"/>
       <c r="C47" s="51"/>
@@ -3549,7 +3769,7 @@
       <c r="V47" s="68"/>
       <c r="W47" s="73"/>
     </row>
-    <row r="48" spans="1:23" ht="16.5">
+    <row r="48" spans="1:23" ht="16" x14ac:dyDescent="0.15">
       <c r="A48" s="51"/>
       <c r="B48" s="51"/>
       <c r="C48" s="51"/>
@@ -3574,7 +3794,7 @@
       <c r="V48" s="56"/>
       <c r="W48" s="57"/>
     </row>
-    <row r="49" spans="1:23" ht="16.5">
+    <row r="49" spans="1:23" ht="16" x14ac:dyDescent="0.15">
       <c r="A49" s="51"/>
       <c r="B49" s="51"/>
       <c r="C49" s="51"/>
@@ -3599,7 +3819,7 @@
       <c r="V49" s="56"/>
       <c r="W49" s="57"/>
     </row>
-    <row r="50" spans="1:23" ht="16.5">
+    <row r="50" spans="1:23" ht="16" x14ac:dyDescent="0.15">
       <c r="A50" s="51"/>
       <c r="B50" s="51"/>
       <c r="C50" s="51"/>
@@ -3624,7 +3844,7 @@
       <c r="V50" s="56"/>
       <c r="W50" s="57"/>
     </row>
-    <row r="51" spans="1:23" ht="16.5">
+    <row r="51" spans="1:23" ht="16" x14ac:dyDescent="0.15">
       <c r="A51" s="51"/>
       <c r="B51" s="51"/>
       <c r="C51" s="51"/>
@@ -3649,7 +3869,7 @@
       <c r="V51" s="56"/>
       <c r="W51" s="57"/>
     </row>
-    <row r="52" spans="1:23" ht="16.5">
+    <row r="52" spans="1:23" ht="16" x14ac:dyDescent="0.15">
       <c r="A52" s="51"/>
       <c r="B52" s="51"/>
       <c r="C52" s="51"/>
@@ -3674,7 +3894,7 @@
       <c r="V52" s="56"/>
       <c r="W52" s="57"/>
     </row>
-    <row r="53" spans="1:23" ht="16.5">
+    <row r="53" spans="1:23" ht="16" x14ac:dyDescent="0.15">
       <c r="A53" s="51"/>
       <c r="B53" s="51"/>
       <c r="C53" s="51"/>
@@ -3699,7 +3919,7 @@
       <c r="V53" s="56"/>
       <c r="W53" s="57"/>
     </row>
-    <row r="54" spans="1:23" ht="16.5">
+    <row r="54" spans="1:23" ht="16" x14ac:dyDescent="0.15">
       <c r="A54" s="51"/>
       <c r="B54" s="51"/>
       <c r="C54" s="51"/>
@@ -3724,7 +3944,7 @@
       <c r="V54" s="56"/>
       <c r="W54" s="57"/>
     </row>
-    <row r="55" spans="1:23" ht="16.5">
+    <row r="55" spans="1:23" ht="16" x14ac:dyDescent="0.15">
       <c r="A55" s="56"/>
       <c r="B55" s="56"/>
       <c r="C55" s="56"/>
@@ -3749,7 +3969,7 @@
       <c r="V55" s="56"/>
       <c r="W55" s="57"/>
     </row>
-    <row r="56" spans="1:23" ht="16.5">
+    <row r="56" spans="1:23" ht="16" x14ac:dyDescent="0.15">
       <c r="A56" s="56"/>
       <c r="B56" s="56"/>
       <c r="C56" s="56"/>
@@ -3774,7 +3994,7 @@
       <c r="V56" s="56"/>
       <c r="W56" s="57"/>
     </row>
-    <row r="57" spans="1:23" ht="16.5">
+    <row r="57" spans="1:23" ht="16" x14ac:dyDescent="0.15">
       <c r="A57" s="56"/>
       <c r="B57" s="56"/>
       <c r="C57" s="56"/>
@@ -3799,7 +4019,7 @@
       <c r="V57" s="56"/>
       <c r="W57" s="57"/>
     </row>
-    <row r="58" spans="1:23" ht="16.5">
+    <row r="58" spans="1:23" ht="16" x14ac:dyDescent="0.15">
       <c r="A58" s="56"/>
       <c r="B58" s="56"/>
       <c r="C58" s="56"/>
@@ -3824,7 +4044,7 @@
       <c r="V58" s="56"/>
       <c r="W58" s="57"/>
     </row>
-    <row r="59" spans="1:23" ht="16.5">
+    <row r="59" spans="1:23" ht="16" x14ac:dyDescent="0.15">
       <c r="A59" s="56"/>
       <c r="B59" s="56"/>
       <c r="C59" s="56"/>
@@ -3849,7 +4069,7 @@
       <c r="V59" s="56"/>
       <c r="W59" s="57"/>
     </row>
-    <row r="60" spans="1:23" ht="16.5">
+    <row r="60" spans="1:23" ht="16" x14ac:dyDescent="0.15">
       <c r="A60" s="56"/>
       <c r="B60" s="56"/>
       <c r="C60" s="56"/>
@@ -3874,7 +4094,7 @@
       <c r="V60" s="56"/>
       <c r="W60" s="57"/>
     </row>
-    <row r="61" spans="1:23" ht="16.5">
+    <row r="61" spans="1:23" ht="16" x14ac:dyDescent="0.15">
       <c r="A61" s="56"/>
       <c r="B61" s="56"/>
       <c r="C61" s="56"/>
@@ -3899,7 +4119,7 @@
       <c r="V61" s="56"/>
       <c r="W61" s="57"/>
     </row>
-    <row r="62" spans="1:23" ht="16.5">
+    <row r="62" spans="1:23" ht="16" x14ac:dyDescent="0.15">
       <c r="A62" s="56"/>
       <c r="B62" s="56"/>
       <c r="C62" s="56"/>
@@ -3924,7 +4144,7 @@
       <c r="V62" s="56"/>
       <c r="W62" s="57"/>
     </row>
-    <row r="63" spans="1:23" ht="16.5">
+    <row r="63" spans="1:23" ht="16" x14ac:dyDescent="0.15">
       <c r="A63" s="56"/>
       <c r="B63" s="56"/>
       <c r="C63" s="56"/>
@@ -3949,7 +4169,7 @@
       <c r="V63" s="56"/>
       <c r="W63" s="57"/>
     </row>
-    <row r="64" spans="1:23" ht="16.5">
+    <row r="64" spans="1:23" ht="16" x14ac:dyDescent="0.15">
       <c r="A64" s="56"/>
       <c r="B64" s="56"/>
       <c r="C64" s="56"/>
@@ -3974,7 +4194,7 @@
       <c r="V64" s="56"/>
       <c r="W64" s="57"/>
     </row>
-    <row r="65" spans="1:23" ht="16.5">
+    <row r="65" spans="1:23" ht="16" x14ac:dyDescent="0.15">
       <c r="A65" s="56"/>
       <c r="B65" s="56"/>
       <c r="C65" s="56"/>
@@ -3999,7 +4219,7 @@
       <c r="V65" s="56"/>
       <c r="W65" s="57"/>
     </row>
-    <row r="66" spans="1:23" ht="16.5">
+    <row r="66" spans="1:23" ht="16" x14ac:dyDescent="0.15">
       <c r="A66" s="56"/>
       <c r="B66" s="56"/>
       <c r="C66" s="56"/>
@@ -4024,7 +4244,7 @@
       <c r="V66" s="56"/>
       <c r="W66" s="57"/>
     </row>
-    <row r="67" spans="1:23" ht="16.5">
+    <row r="67" spans="1:23" ht="16" x14ac:dyDescent="0.15">
       <c r="A67" s="56"/>
       <c r="B67" s="56"/>
       <c r="C67" s="56"/>
@@ -4049,7 +4269,7 @@
       <c r="V67" s="56"/>
       <c r="W67" s="57"/>
     </row>
-    <row r="68" spans="1:23" ht="16.5">
+    <row r="68" spans="1:23" ht="16" x14ac:dyDescent="0.15">
       <c r="A68" s="56"/>
       <c r="B68" s="56"/>
       <c r="C68" s="56"/>
@@ -4074,7 +4294,7 @@
       <c r="V68" s="56"/>
       <c r="W68" s="57"/>
     </row>
-    <row r="69" spans="1:23" ht="16.5">
+    <row r="69" spans="1:23" ht="16" x14ac:dyDescent="0.15">
       <c r="A69" s="56"/>
       <c r="B69" s="56"/>
       <c r="C69" s="56"/>
@@ -4099,7 +4319,7 @@
       <c r="V69" s="56"/>
       <c r="W69" s="57"/>
     </row>
-    <row r="70" spans="1:23" ht="16.5">
+    <row r="70" spans="1:23" ht="16" x14ac:dyDescent="0.15">
       <c r="A70" s="56"/>
       <c r="B70" s="56"/>
       <c r="C70" s="56"/>
@@ -4124,7 +4344,7 @@
       <c r="V70" s="56"/>
       <c r="W70" s="57"/>
     </row>
-    <row r="71" spans="1:23" ht="16.5">
+    <row r="71" spans="1:23" ht="16" x14ac:dyDescent="0.15">
       <c r="A71" s="56"/>
       <c r="B71" s="56"/>
       <c r="C71" s="56"/>
@@ -4149,7 +4369,7 @@
       <c r="V71" s="56"/>
       <c r="W71" s="57"/>
     </row>
-    <row r="72" spans="1:23" ht="16.5">
+    <row r="72" spans="1:23" ht="16" x14ac:dyDescent="0.15">
       <c r="A72" s="56"/>
       <c r="B72" s="56"/>
       <c r="C72" s="56"/>
@@ -4174,7 +4394,7 @@
       <c r="V72" s="56"/>
       <c r="W72" s="57"/>
     </row>
-    <row r="73" spans="1:23" ht="16.5">
+    <row r="73" spans="1:23" ht="16" x14ac:dyDescent="0.15">
       <c r="A73" s="56"/>
       <c r="B73" s="56"/>
       <c r="C73" s="56"/>
@@ -4199,7 +4419,7 @@
       <c r="V73" s="56"/>
       <c r="W73" s="57"/>
     </row>
-    <row r="74" spans="1:23" ht="16.5">
+    <row r="74" spans="1:23" ht="16" x14ac:dyDescent="0.15">
       <c r="A74" s="56"/>
       <c r="B74" s="56"/>
       <c r="C74" s="56"/>
@@ -4224,7 +4444,7 @@
       <c r="V74" s="56"/>
       <c r="W74" s="57"/>
     </row>
-    <row r="75" spans="1:23" ht="16.5">
+    <row r="75" spans="1:23" ht="16" x14ac:dyDescent="0.15">
       <c r="A75" s="56"/>
       <c r="B75" s="56"/>
       <c r="C75" s="56"/>
@@ -4249,7 +4469,7 @@
       <c r="V75" s="56"/>
       <c r="W75" s="57"/>
     </row>
-    <row r="76" spans="1:23" ht="16.5">
+    <row r="76" spans="1:23" ht="16" x14ac:dyDescent="0.15">
       <c r="A76" s="56"/>
       <c r="B76" s="56"/>
       <c r="C76" s="56"/>
@@ -4274,7 +4494,7 @@
       <c r="V76" s="56"/>
       <c r="W76" s="57"/>
     </row>
-    <row r="77" spans="1:23" ht="16.5">
+    <row r="77" spans="1:23" ht="16" x14ac:dyDescent="0.15">
       <c r="A77" s="56"/>
       <c r="B77" s="56"/>
       <c r="C77" s="56"/>
@@ -4299,7 +4519,7 @@
       <c r="V77" s="56"/>
       <c r="W77" s="57"/>
     </row>
-    <row r="78" spans="1:23" ht="16.5">
+    <row r="78" spans="1:23" ht="16" x14ac:dyDescent="0.15">
       <c r="A78" s="56"/>
       <c r="B78" s="56"/>
       <c r="C78" s="56"/>
@@ -4324,7 +4544,7 @@
       <c r="V78" s="56"/>
       <c r="W78" s="57"/>
     </row>
-    <row r="79" spans="1:23" ht="16.5">
+    <row r="79" spans="1:23" ht="16" x14ac:dyDescent="0.15">
       <c r="A79" s="56"/>
       <c r="B79" s="56"/>
       <c r="C79" s="56"/>
@@ -4349,7 +4569,7 @@
       <c r="V79" s="56"/>
       <c r="W79" s="57"/>
     </row>
-    <row r="80" spans="1:23" ht="16.5">
+    <row r="80" spans="1:23" ht="16" x14ac:dyDescent="0.15">
       <c r="A80" s="56"/>
       <c r="B80" s="56"/>
       <c r="C80" s="56"/>
@@ -4374,7 +4594,7 @@
       <c r="V80" s="56"/>
       <c r="W80" s="57"/>
     </row>
-    <row r="81" spans="1:23">
+    <row r="81" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A81" s="56"/>
       <c r="B81" s="56"/>
       <c r="C81" s="56"/>
@@ -4399,7 +4619,7 @@
       <c r="V81" s="56"/>
       <c r="W81" s="57"/>
     </row>
-    <row r="82" spans="1:23">
+    <row r="82" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A82" s="56"/>
       <c r="B82" s="56"/>
       <c r="C82" s="56"/>
@@ -4424,7 +4644,7 @@
       <c r="V82" s="56"/>
       <c r="W82" s="57"/>
     </row>
-    <row r="83" spans="1:23">
+    <row r="83" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A83" s="56"/>
       <c r="B83" s="56"/>
       <c r="C83" s="56"/>
@@ -4449,7 +4669,7 @@
       <c r="V83" s="56"/>
       <c r="W83" s="57"/>
     </row>
-    <row r="84" spans="1:23">
+    <row r="84" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A84" s="56"/>
       <c r="B84" s="56"/>
       <c r="C84" s="56"/>
@@ -4474,7 +4694,7 @@
       <c r="V84" s="56"/>
       <c r="W84" s="57"/>
     </row>
-    <row r="85" spans="1:23">
+    <row r="85" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A85" s="56"/>
       <c r="B85" s="56"/>
       <c r="C85" s="56"/>
@@ -4499,7 +4719,7 @@
       <c r="V85" s="56"/>
       <c r="W85" s="57"/>
     </row>
-    <row r="86" spans="1:23">
+    <row r="86" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A86" s="56"/>
       <c r="B86" s="56"/>
       <c r="C86" s="56"/>
@@ -4524,7 +4744,7 @@
       <c r="V86" s="56"/>
       <c r="W86" s="57"/>
     </row>
-    <row r="87" spans="1:23">
+    <row r="87" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A87" s="56"/>
       <c r="B87" s="56"/>
       <c r="C87" s="56"/>
@@ -4549,7 +4769,7 @@
       <c r="V87" s="56"/>
       <c r="W87" s="57"/>
     </row>
-    <row r="88" spans="1:23">
+    <row r="88" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A88" s="56"/>
       <c r="B88" s="56"/>
       <c r="C88" s="56"/>
@@ -4574,7 +4794,7 @@
       <c r="V88" s="56"/>
       <c r="W88" s="57"/>
     </row>
-    <row r="89" spans="1:23">
+    <row r="89" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A89" s="56"/>
       <c r="B89" s="56"/>
       <c r="C89" s="56"/>
@@ -4599,7 +4819,7 @@
       <c r="V89" s="56"/>
       <c r="W89" s="57"/>
     </row>
-    <row r="90" spans="1:23">
+    <row r="90" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A90" s="56"/>
       <c r="B90" s="56"/>
       <c r="C90" s="56"/>
@@ -4624,7 +4844,7 @@
       <c r="V90" s="56"/>
       <c r="W90" s="57"/>
     </row>
-    <row r="91" spans="1:23">
+    <row r="91" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A91" s="56"/>
       <c r="B91" s="56"/>
       <c r="C91" s="56"/>
@@ -4649,7 +4869,7 @@
       <c r="V91" s="56"/>
       <c r="W91" s="57"/>
     </row>
-    <row r="92" spans="1:23">
+    <row r="92" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A92" s="56"/>
       <c r="B92" s="56"/>
       <c r="C92" s="56"/>
@@ -4674,7 +4894,7 @@
       <c r="V92" s="56"/>
       <c r="W92" s="57"/>
     </row>
-    <row r="93" spans="1:23">
+    <row r="93" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A93" s="56"/>
       <c r="B93" s="56"/>
       <c r="C93" s="56"/>
@@ -4699,7 +4919,7 @@
       <c r="V93" s="56"/>
       <c r="W93" s="57"/>
     </row>
-    <row r="94" spans="1:23">
+    <row r="94" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A94" s="56"/>
       <c r="B94" s="56"/>
       <c r="C94" s="56"/>
@@ -4724,7 +4944,7 @@
       <c r="V94" s="56"/>
       <c r="W94" s="57"/>
     </row>
-    <row r="95" spans="1:23">
+    <row r="95" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A95" s="56"/>
       <c r="B95" s="56"/>
       <c r="C95" s="56"/>
@@ -4749,7 +4969,7 @@
       <c r="V95" s="56"/>
       <c r="W95" s="57"/>
     </row>
-    <row r="96" spans="1:23">
+    <row r="96" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A96" s="56"/>
       <c r="B96" s="56"/>
       <c r="C96" s="56"/>
@@ -4774,7 +4994,7 @@
       <c r="V96" s="56"/>
       <c r="W96" s="57"/>
     </row>
-    <row r="97" spans="1:23">
+    <row r="97" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A97" s="56"/>
       <c r="B97" s="56"/>
       <c r="C97" s="56"/>
@@ -4799,7 +5019,7 @@
       <c r="V97" s="56"/>
       <c r="W97" s="57"/>
     </row>
-    <row r="98" spans="1:23">
+    <row r="98" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A98" s="56"/>
       <c r="B98" s="56"/>
       <c r="C98" s="56"/>
@@ -4824,7 +5044,7 @@
       <c r="V98" s="56"/>
       <c r="W98" s="57"/>
     </row>
-    <row r="99" spans="1:23">
+    <row r="99" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A99" s="56"/>
       <c r="B99" s="56"/>
       <c r="C99" s="56"/>
@@ -4849,7 +5069,7 @@
       <c r="V99" s="56"/>
       <c r="W99" s="57"/>
     </row>
-    <row r="100" spans="1:23">
+    <row r="100" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A100" s="56"/>
       <c r="B100" s="56"/>
       <c r="C100" s="56"/>
@@ -4874,7 +5094,7 @@
       <c r="V100" s="56"/>
       <c r="W100" s="57"/>
     </row>
-    <row r="101" spans="1:23">
+    <row r="101" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A101" s="56"/>
       <c r="B101" s="56"/>
       <c r="C101" s="56"/>
@@ -4899,7 +5119,7 @@
       <c r="V101" s="56"/>
       <c r="W101" s="57"/>
     </row>
-    <row r="102" spans="1:23">
+    <row r="102" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A102" s="56"/>
       <c r="B102" s="56"/>
       <c r="C102" s="56"/>
@@ -4924,7 +5144,7 @@
       <c r="V102" s="56"/>
       <c r="W102" s="57"/>
     </row>
-    <row r="103" spans="1:23">
+    <row r="103" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A103" s="56"/>
       <c r="B103" s="56"/>
       <c r="C103" s="56"/>
@@ -4949,7 +5169,7 @@
       <c r="V103" s="56"/>
       <c r="W103" s="57"/>
     </row>
-    <row r="104" spans="1:23">
+    <row r="104" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A104" s="56"/>
       <c r="B104" s="56"/>
       <c r="C104" s="56"/>
@@ -4974,7 +5194,7 @@
       <c r="V104" s="56"/>
       <c r="W104" s="57"/>
     </row>
-    <row r="105" spans="1:23">
+    <row r="105" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A105" s="56"/>
       <c r="B105" s="56"/>
       <c r="C105" s="56"/>
@@ -4999,7 +5219,7 @@
       <c r="V105" s="56"/>
       <c r="W105" s="57"/>
     </row>
-    <row r="106" spans="1:23">
+    <row r="106" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A106" s="56"/>
       <c r="B106" s="56"/>
       <c r="C106" s="56"/>
@@ -5024,7 +5244,7 @@
       <c r="V106" s="56"/>
       <c r="W106" s="57"/>
     </row>
-    <row r="107" spans="1:23">
+    <row r="107" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A107" s="56"/>
       <c r="B107" s="56"/>
       <c r="C107" s="56"/>
@@ -5049,7 +5269,7 @@
       <c r="V107" s="56"/>
       <c r="W107" s="57"/>
     </row>
-    <row r="108" spans="1:23">
+    <row r="108" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A108" s="56"/>
       <c r="B108" s="56"/>
       <c r="C108" s="56"/>
@@ -5074,7 +5294,7 @@
       <c r="V108" s="56"/>
       <c r="W108" s="57"/>
     </row>
-    <row r="109" spans="1:23">
+    <row r="109" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A109" s="56"/>
       <c r="B109" s="56"/>
       <c r="C109" s="56"/>
@@ -5099,7 +5319,7 @@
       <c r="V109" s="56"/>
       <c r="W109" s="57"/>
     </row>
-    <row r="110" spans="1:23">
+    <row r="110" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A110" s="56"/>
       <c r="B110" s="56"/>
       <c r="C110" s="56"/>
@@ -5124,7 +5344,7 @@
       <c r="V110" s="56"/>
       <c r="W110" s="57"/>
     </row>
-    <row r="111" spans="1:23">
+    <row r="111" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A111" s="56"/>
       <c r="B111" s="56"/>
       <c r="C111" s="56"/>
@@ -5149,7 +5369,7 @@
       <c r="V111" s="56"/>
       <c r="W111" s="57"/>
     </row>
-    <row r="112" spans="1:23">
+    <row r="112" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A112" s="56"/>
       <c r="B112" s="56"/>
       <c r="C112" s="56"/>
@@ -5174,7 +5394,7 @@
       <c r="V112" s="56"/>
       <c r="W112" s="57"/>
     </row>
-    <row r="113" spans="1:23">
+    <row r="113" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A113" s="56"/>
       <c r="B113" s="56"/>
       <c r="C113" s="56"/>
@@ -5199,7 +5419,7 @@
       <c r="V113" s="56"/>
       <c r="W113" s="57"/>
     </row>
-    <row r="114" spans="1:23">
+    <row r="114" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A114" s="56"/>
       <c r="B114" s="56"/>
       <c r="C114" s="56"/>
@@ -5224,7 +5444,7 @@
       <c r="V114" s="56"/>
       <c r="W114" s="57"/>
     </row>
-    <row r="115" spans="1:23">
+    <row r="115" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A115" s="56"/>
       <c r="B115" s="56"/>
       <c r="C115" s="56"/>
@@ -5249,7 +5469,7 @@
       <c r="V115" s="56"/>
       <c r="W115" s="57"/>
     </row>
-    <row r="116" spans="1:23">
+    <row r="116" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A116" s="56"/>
       <c r="B116" s="56"/>
       <c r="C116" s="56"/>
@@ -5274,7 +5494,7 @@
       <c r="V116" s="56"/>
       <c r="W116" s="57"/>
     </row>
-    <row r="117" spans="1:23">
+    <row r="117" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A117" s="56"/>
       <c r="B117" s="56"/>
       <c r="C117" s="56"/>
@@ -5299,7 +5519,7 @@
       <c r="V117" s="56"/>
       <c r="W117" s="57"/>
     </row>
-    <row r="118" spans="1:23">
+    <row r="118" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A118" s="56"/>
       <c r="B118" s="56"/>
       <c r="C118" s="56"/>
@@ -5324,7 +5544,7 @@
       <c r="V118" s="56"/>
       <c r="W118" s="57"/>
     </row>
-    <row r="119" spans="1:23">
+    <row r="119" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A119" s="56"/>
       <c r="B119" s="56"/>
       <c r="C119" s="56"/>
@@ -5349,7 +5569,7 @@
       <c r="V119" s="56"/>
       <c r="W119" s="57"/>
     </row>
-    <row r="120" spans="1:23">
+    <row r="120" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A120" s="56"/>
       <c r="B120" s="56"/>
       <c r="C120" s="56"/>
@@ -5374,7 +5594,7 @@
       <c r="V120" s="56"/>
       <c r="W120" s="57"/>
     </row>
-    <row r="121" spans="1:23">
+    <row r="121" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A121" s="56"/>
       <c r="B121" s="56"/>
       <c r="C121" s="56"/>
@@ -5399,7 +5619,7 @@
       <c r="V121" s="56"/>
       <c r="W121" s="57"/>
     </row>
-    <row r="122" spans="1:23">
+    <row r="122" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A122" s="56"/>
       <c r="B122" s="56"/>
       <c r="C122" s="56"/>
@@ -5424,7 +5644,7 @@
       <c r="V122" s="56"/>
       <c r="W122" s="57"/>
     </row>
-    <row r="123" spans="1:23">
+    <row r="123" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A123" s="56"/>
       <c r="B123" s="56"/>
       <c r="C123" s="56"/>
@@ -5449,7 +5669,7 @@
       <c r="V123" s="56"/>
       <c r="W123" s="57"/>
     </row>
-    <row r="124" spans="1:23">
+    <row r="124" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A124" s="56"/>
       <c r="B124" s="56"/>
       <c r="C124" s="56"/>
@@ -5474,7 +5694,7 @@
       <c r="V124" s="56"/>
       <c r="W124" s="57"/>
     </row>
-    <row r="125" spans="1:23">
+    <row r="125" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A125" s="56"/>
       <c r="B125" s="56"/>
       <c r="C125" s="56"/>
@@ -5499,7 +5719,7 @@
       <c r="V125" s="56"/>
       <c r="W125" s="57"/>
     </row>
-    <row r="126" spans="1:23">
+    <row r="126" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A126" s="56"/>
       <c r="B126" s="56"/>
       <c r="C126" s="56"/>
@@ -5524,7 +5744,7 @@
       <c r="V126" s="56"/>
       <c r="W126" s="57"/>
     </row>
-    <row r="127" spans="1:23">
+    <row r="127" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A127" s="56"/>
       <c r="B127" s="56"/>
       <c r="C127" s="56"/>
@@ -5549,7 +5769,7 @@
       <c r="V127" s="56"/>
       <c r="W127" s="57"/>
     </row>
-    <row r="128" spans="1:23">
+    <row r="128" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A128" s="56"/>
       <c r="B128" s="56"/>
       <c r="C128" s="56"/>
@@ -5574,7 +5794,7 @@
       <c r="V128" s="56"/>
       <c r="W128" s="57"/>
     </row>
-    <row r="129" spans="1:23">
+    <row r="129" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A129" s="56"/>
       <c r="B129" s="56"/>
       <c r="C129" s="56"/>
@@ -5599,7 +5819,7 @@
       <c r="V129" s="56"/>
       <c r="W129" s="57"/>
     </row>
-    <row r="130" spans="1:23">
+    <row r="130" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A130" s="56"/>
       <c r="B130" s="56"/>
       <c r="C130" s="56"/>
@@ -5624,7 +5844,7 @@
       <c r="V130" s="56"/>
       <c r="W130" s="57"/>
     </row>
-    <row r="131" spans="1:23">
+    <row r="131" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A131" s="56"/>
       <c r="B131" s="56"/>
       <c r="C131" s="56"/>
@@ -5649,7 +5869,7 @@
       <c r="V131" s="56"/>
       <c r="W131" s="57"/>
     </row>
-    <row r="132" spans="1:23">
+    <row r="132" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A132" s="56"/>
       <c r="B132" s="56"/>
       <c r="C132" s="56"/>
@@ -5674,7 +5894,7 @@
       <c r="V132" s="56"/>
       <c r="W132" s="57"/>
     </row>
-    <row r="133" spans="1:23">
+    <row r="133" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A133" s="56"/>
       <c r="B133" s="56"/>
       <c r="C133" s="56"/>
@@ -5699,7 +5919,7 @@
       <c r="V133" s="56"/>
       <c r="W133" s="57"/>
     </row>
-    <row r="134" spans="1:23">
+    <row r="134" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A134" s="56"/>
       <c r="B134" s="56"/>
       <c r="C134" s="56"/>
@@ -5724,7 +5944,7 @@
       <c r="V134" s="56"/>
       <c r="W134" s="57"/>
     </row>
-    <row r="135" spans="1:23">
+    <row r="135" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A135" s="56"/>
       <c r="B135" s="56"/>
       <c r="C135" s="56"/>
@@ -5749,7 +5969,7 @@
       <c r="V135" s="56"/>
       <c r="W135" s="57"/>
     </row>
-    <row r="136" spans="1:23">
+    <row r="136" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A136" s="56"/>
       <c r="B136" s="56"/>
       <c r="C136" s="56"/>
@@ -5774,7 +5994,7 @@
       <c r="V136" s="56"/>
       <c r="W136" s="57"/>
     </row>
-    <row r="137" spans="1:23">
+    <row r="137" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A137" s="56"/>
       <c r="B137" s="56"/>
       <c r="C137" s="56"/>
@@ -5795,7 +6015,7 @@
       <c r="R137" s="57"/>
       <c r="W137" s="57"/>
     </row>
-    <row r="138" spans="1:23">
+    <row r="138" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A138" s="56"/>
       <c r="B138" s="56"/>
       <c r="C138" s="56"/>
@@ -5816,7 +6036,7 @@
       <c r="R138" s="57"/>
       <c r="W138" s="57"/>
     </row>
-    <row r="139" spans="1:23">
+    <row r="139" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A139" s="56"/>
       <c r="B139" s="56"/>
       <c r="C139" s="56"/>
@@ -5837,7 +6057,7 @@
       <c r="R139" s="57"/>
       <c r="W139" s="57"/>
     </row>
-    <row r="140" spans="1:23">
+    <row r="140" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A140" s="56"/>
       <c r="B140" s="56"/>
       <c r="C140" s="56"/>
@@ -5858,7 +6078,7 @@
       <c r="R140" s="57"/>
       <c r="W140" s="57"/>
     </row>
-    <row r="141" spans="1:23">
+    <row r="141" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A141" s="56"/>
       <c r="B141" s="56"/>
       <c r="C141" s="56"/>
@@ -5879,7 +6099,7 @@
       <c r="R141" s="57"/>
       <c r="W141" s="57"/>
     </row>
-    <row r="142" spans="1:23">
+    <row r="142" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A142" s="56"/>
       <c r="B142" s="56"/>
       <c r="C142" s="56"/>
@@ -5900,7 +6120,7 @@
       <c r="R142" s="57"/>
       <c r="W142" s="57"/>
     </row>
-    <row r="143" spans="1:23">
+    <row r="143" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A143" s="56"/>
       <c r="B143" s="56"/>
       <c r="C143" s="56"/>
@@ -5921,7 +6141,7 @@
       <c r="R143" s="57"/>
       <c r="W143" s="57"/>
     </row>
-    <row r="144" spans="1:23">
+    <row r="144" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A144" s="56"/>
       <c r="B144" s="56"/>
       <c r="C144" s="56"/>
@@ -5942,7 +6162,7 @@
       <c r="R144" s="57"/>
       <c r="W144" s="57"/>
     </row>
-    <row r="145" spans="1:23">
+    <row r="145" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A145" s="56"/>
       <c r="B145" s="56"/>
       <c r="C145" s="56"/>
@@ -5963,7 +6183,7 @@
       <c r="R145" s="57"/>
       <c r="W145" s="57"/>
     </row>
-    <row r="146" spans="1:23">
+    <row r="146" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A146" s="56"/>
       <c r="B146" s="56"/>
       <c r="C146" s="56"/>
@@ -5984,7 +6204,7 @@
       <c r="R146" s="57"/>
       <c r="W146" s="57"/>
     </row>
-    <row r="147" spans="1:23">
+    <row r="147" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A147" s="56"/>
       <c r="B147" s="56"/>
       <c r="C147" s="56"/>
@@ -6005,7 +6225,7 @@
       <c r="R147" s="57"/>
       <c r="W147" s="57"/>
     </row>
-    <row r="148" spans="1:23">
+    <row r="148" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A148" s="56"/>
       <c r="B148" s="56"/>
       <c r="C148" s="56"/>
@@ -6026,7 +6246,7 @@
       <c r="R148" s="57"/>
       <c r="W148" s="57"/>
     </row>
-    <row r="149" spans="1:23">
+    <row r="149" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A149" s="56"/>
       <c r="B149" s="56"/>
       <c r="C149" s="56"/>
@@ -6047,7 +6267,7 @@
       <c r="R149" s="57"/>
       <c r="W149" s="57"/>
     </row>
-    <row r="150" spans="1:23">
+    <row r="150" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A150" s="56"/>
       <c r="B150" s="56"/>
       <c r="C150" s="56"/>
@@ -6068,7 +6288,7 @@
       <c r="R150" s="57"/>
       <c r="W150" s="57"/>
     </row>
-    <row r="151" spans="1:23">
+    <row r="151" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A151" s="56"/>
       <c r="B151" s="56"/>
       <c r="C151" s="56"/>
@@ -6089,7 +6309,7 @@
       <c r="R151" s="57"/>
       <c r="W151" s="57"/>
     </row>
-    <row r="152" spans="1:23">
+    <row r="152" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A152" s="56"/>
       <c r="B152" s="56"/>
       <c r="C152" s="56"/>
@@ -6110,7 +6330,7 @@
       <c r="R152" s="57"/>
       <c r="W152" s="57"/>
     </row>
-    <row r="153" spans="1:23">
+    <row r="153" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A153" s="56"/>
       <c r="B153" s="56"/>
       <c r="C153" s="56"/>
@@ -6131,7 +6351,7 @@
       <c r="R153" s="57"/>
       <c r="W153" s="57"/>
     </row>
-    <row r="154" spans="1:23">
+    <row r="154" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A154" s="56"/>
       <c r="B154" s="56"/>
       <c r="C154" s="56"/>
@@ -6152,7 +6372,7 @@
       <c r="R154" s="57"/>
       <c r="W154" s="57"/>
     </row>
-    <row r="155" spans="1:23">
+    <row r="155" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A155" s="56"/>
       <c r="B155" s="56"/>
       <c r="C155" s="56"/>
@@ -6173,7 +6393,7 @@
       <c r="R155" s="57"/>
       <c r="W155" s="57"/>
     </row>
-    <row r="156" spans="1:23">
+    <row r="156" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A156" s="56"/>
       <c r="B156" s="56"/>
       <c r="C156" s="56"/>
@@ -6194,7 +6414,7 @@
       <c r="R156" s="57"/>
       <c r="W156" s="57"/>
     </row>
-    <row r="157" spans="1:23">
+    <row r="157" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A157" s="56"/>
       <c r="B157" s="56"/>
       <c r="C157" s="56"/>
@@ -6215,7 +6435,7 @@
       <c r="R157" s="57"/>
       <c r="W157" s="57"/>
     </row>
-    <row r="158" spans="1:23">
+    <row r="158" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A158" s="56"/>
       <c r="B158" s="56"/>
       <c r="C158" s="56"/>
@@ -6236,7 +6456,7 @@
       <c r="R158" s="57"/>
       <c r="W158" s="57"/>
     </row>
-    <row r="159" spans="1:23">
+    <row r="159" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A159" s="56"/>
       <c r="B159" s="56"/>
       <c r="C159" s="56"/>
@@ -6257,7 +6477,7 @@
       <c r="R159" s="57"/>
       <c r="W159" s="57"/>
     </row>
-    <row r="160" spans="1:23">
+    <row r="160" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A160" s="56"/>
       <c r="B160" s="56"/>
       <c r="C160" s="56"/>
@@ -6278,7 +6498,7 @@
       <c r="R160" s="57"/>
       <c r="W160" s="57"/>
     </row>
-    <row r="161" spans="1:23">
+    <row r="161" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A161" s="56"/>
       <c r="B161" s="56"/>
       <c r="C161" s="56"/>
@@ -6299,7 +6519,7 @@
       <c r="R161" s="57"/>
       <c r="W161" s="57"/>
     </row>
-    <row r="162" spans="1:23">
+    <row r="162" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A162" s="56"/>
       <c r="B162" s="56"/>
       <c r="C162" s="56"/>
@@ -6320,7 +6540,7 @@
       <c r="R162" s="57"/>
       <c r="W162" s="57"/>
     </row>
-    <row r="163" spans="1:23">
+    <row r="163" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A163" s="56"/>
       <c r="B163" s="56"/>
       <c r="C163" s="56"/>
@@ -6341,7 +6561,7 @@
       <c r="R163" s="57"/>
       <c r="W163" s="57"/>
     </row>
-    <row r="164" spans="1:23">
+    <row r="164" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A164" s="56"/>
       <c r="B164" s="56"/>
       <c r="C164" s="56"/>
@@ -6362,7 +6582,7 @@
       <c r="R164" s="57"/>
       <c r="W164" s="57"/>
     </row>
-    <row r="165" spans="1:23">
+    <row r="165" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A165" s="56"/>
       <c r="B165" s="56"/>
       <c r="C165" s="56"/>
@@ -6383,7 +6603,7 @@
       <c r="R165" s="57"/>
       <c r="W165" s="57"/>
     </row>
-    <row r="166" spans="1:23">
+    <row r="166" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A166" s="56"/>
       <c r="B166" s="56"/>
       <c r="C166" s="56"/>
@@ -6404,7 +6624,7 @@
       <c r="R166" s="57"/>
       <c r="W166" s="57"/>
     </row>
-    <row r="167" spans="1:23">
+    <row r="167" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A167" s="56"/>
       <c r="B167" s="56"/>
       <c r="C167" s="56"/>
@@ -6425,7 +6645,7 @@
       <c r="R167" s="57"/>
       <c r="W167" s="57"/>
     </row>
-    <row r="168" spans="1:23">
+    <row r="168" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A168" s="56"/>
       <c r="B168" s="56"/>
       <c r="C168" s="56"/>
@@ -6446,7 +6666,7 @@
       <c r="R168" s="57"/>
       <c r="W168" s="57"/>
     </row>
-    <row r="169" spans="1:23">
+    <row r="169" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A169" s="56"/>
       <c r="B169" s="56"/>
       <c r="C169" s="56"/>
@@ -6467,7 +6687,7 @@
       <c r="R169" s="57"/>
       <c r="W169" s="57"/>
     </row>
-    <row r="170" spans="1:23">
+    <row r="170" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A170" s="56"/>
       <c r="B170" s="56"/>
       <c r="C170" s="56"/>
@@ -6488,7 +6708,7 @@
       <c r="R170" s="57"/>
       <c r="W170" s="57"/>
     </row>
-    <row r="171" spans="1:23">
+    <row r="171" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A171" s="56"/>
       <c r="B171" s="56"/>
       <c r="C171" s="56"/>
@@ -6533,13 +6753,16 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C1:C1048576">
       <formula1>"紧急,不紧急"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="V1:V1048576 I1:I1048576 G1:G1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="V1:V1048576 G1:G1048576 I1:I1048576">
       <formula1>"是,否"</formula1>
     </dataValidation>
   </dataValidations>
   <hyperlinks>
     <hyperlink ref="S6" r:id="rId1"/>
     <hyperlink ref="S7" r:id="rId2"/>
+    <hyperlink ref="S13" r:id="rId3"/>
+    <hyperlink ref="S16" r:id="rId4"/>
+    <hyperlink ref="S15" r:id="rId5"/>
   </hyperlinks>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="300"/>
@@ -6551,30 +6774,30 @@
   <dimension ref="A1:R4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:XFD3"/>
+      <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="26.125" defaultRowHeight="13.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="26.1640625" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="2" width="8" customWidth="1"/>
-    <col min="3" max="3" width="21.625" customWidth="1"/>
-    <col min="4" max="4" width="6.375" customWidth="1"/>
-    <col min="5" max="5" width="18.625" customWidth="1"/>
-    <col min="6" max="7" width="7.125" customWidth="1"/>
+    <col min="3" max="3" width="21.6640625" customWidth="1"/>
+    <col min="4" max="4" width="6.33203125" customWidth="1"/>
+    <col min="5" max="5" width="18.6640625" customWidth="1"/>
+    <col min="6" max="7" width="7.1640625" customWidth="1"/>
     <col min="8" max="8" width="8" customWidth="1"/>
-    <col min="9" max="9" width="7.125" customWidth="1"/>
-    <col min="10" max="10" width="44.375" customWidth="1"/>
+    <col min="9" max="9" width="7.1640625" customWidth="1"/>
+    <col min="10" max="10" width="44.33203125" customWidth="1"/>
     <col min="11" max="11" width="25.5" customWidth="1"/>
     <col min="12" max="12" width="23.5" customWidth="1"/>
-    <col min="13" max="13" width="54.875" customWidth="1"/>
+    <col min="13" max="13" width="54.83203125" customWidth="1"/>
     <col min="14" max="14" width="8" customWidth="1"/>
-    <col min="15" max="15" width="15.125" customWidth="1"/>
-    <col min="16" max="16" width="14.375" customWidth="1"/>
-    <col min="17" max="17" width="31.125" customWidth="1"/>
-    <col min="18" max="18" width="4.625" customWidth="1"/>
+    <col min="15" max="15" width="15.1640625" customWidth="1"/>
+    <col min="16" max="16" width="14.33203125" customWidth="1"/>
+    <col min="17" max="17" width="31.1640625" customWidth="1"/>
+    <col min="18" max="18" width="4.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" ht="36" customHeight="1">
+    <row r="1" spans="1:18" ht="36" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="30" t="s">
         <v>23</v>
       </c>
@@ -6630,115 +6853,115 @@
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:18" s="103" customFormat="1" ht="49.5">
-      <c r="A2" s="94" t="s">
+    <row r="2" spans="1:18" s="94" customFormat="1" ht="48" x14ac:dyDescent="0.15">
+      <c r="A2" s="85" t="s">
+        <v>140</v>
+      </c>
+      <c r="B2" s="86" t="s">
+        <v>141</v>
+      </c>
+      <c r="C2" s="86" t="s">
+        <v>142</v>
+      </c>
+      <c r="D2" s="87" t="s">
+        <v>118</v>
+      </c>
+      <c r="E2" s="86" t="s">
         <v>143</v>
       </c>
-      <c r="B2" s="95" t="s">
+      <c r="F2" s="88" t="s">
         <v>144</v>
       </c>
-      <c r="C2" s="95" t="s">
+      <c r="G2" s="89" t="s">
         <v>145</v>
       </c>
-      <c r="D2" s="96" t="s">
+      <c r="H2" s="37" t="s">
+        <v>146</v>
+      </c>
+      <c r="I2" s="40" t="s">
+        <v>147</v>
+      </c>
+      <c r="J2" s="90" t="s">
+        <v>148</v>
+      </c>
+      <c r="K2" s="42" t="s">
+        <v>149</v>
+      </c>
+      <c r="L2" s="91" t="s">
+        <v>150</v>
+      </c>
+      <c r="M2" s="90" t="s">
+        <v>151</v>
+      </c>
+      <c r="N2" s="90" t="s">
+        <v>152</v>
+      </c>
+      <c r="O2" s="92" t="s">
+        <v>153</v>
+      </c>
+      <c r="P2" s="93" t="s">
+        <v>147</v>
+      </c>
+      <c r="Q2" s="92" t="s">
+        <v>154</v>
+      </c>
+      <c r="R2" s="92"/>
+    </row>
+    <row r="3" spans="1:18" s="94" customFormat="1" ht="32" x14ac:dyDescent="0.15">
+      <c r="A3" s="85" t="s">
+        <v>140</v>
+      </c>
+      <c r="B3" s="86" t="s">
+        <v>141</v>
+      </c>
+      <c r="C3" s="86" t="s">
+        <v>142</v>
+      </c>
+      <c r="D3" s="87" t="s">
         <v>118</v>
       </c>
-      <c r="E2" s="95" t="s">
+      <c r="E3" s="86" t="s">
+        <v>155</v>
+      </c>
+      <c r="F3" s="88" t="s">
+        <v>144</v>
+      </c>
+      <c r="G3" s="89" t="s">
+        <v>145</v>
+      </c>
+      <c r="H3" s="37" t="s">
         <v>146</v>
       </c>
-      <c r="F2" s="97" t="s">
+      <c r="I3" s="40" t="s">
         <v>147</v>
       </c>
-      <c r="G2" s="98" t="s">
-        <v>148</v>
-      </c>
-      <c r="H2" s="37" t="s">
+      <c r="J3" s="90" t="s">
+        <v>156</v>
+      </c>
+      <c r="K3" s="42" t="s">
         <v>149</v>
       </c>
-      <c r="I2" s="40" t="s">
-        <v>150</v>
-      </c>
-      <c r="J2" s="99" t="s">
-        <v>151</v>
-      </c>
-      <c r="K2" s="42" t="s">
+      <c r="L3" s="91" t="s">
+        <v>157</v>
+      </c>
+      <c r="M3" s="90" t="s">
+        <v>158</v>
+      </c>
+      <c r="N3" s="90" t="s">
         <v>152</v>
       </c>
-      <c r="L2" s="100" t="s">
-        <v>153</v>
-      </c>
-      <c r="M2" s="99" t="s">
+      <c r="O3" s="92" t="s">
+        <v>159</v>
+      </c>
+      <c r="P3" s="93" t="s">
+        <v>147</v>
+      </c>
+      <c r="Q3" s="92" t="s">
         <v>154</v>
       </c>
-      <c r="N2" s="99" t="s">
-        <v>155</v>
-      </c>
-      <c r="O2" s="101" t="s">
-        <v>156</v>
-      </c>
-      <c r="P2" s="102" t="s">
-        <v>150</v>
-      </c>
-      <c r="Q2" s="101" t="s">
-        <v>157</v>
-      </c>
-      <c r="R2" s="101"/>
-    </row>
-    <row r="3" spans="1:18" s="103" customFormat="1" ht="33">
-      <c r="A3" s="94" t="s">
-        <v>143</v>
-      </c>
-      <c r="B3" s="95" t="s">
-        <v>144</v>
-      </c>
-      <c r="C3" s="95" t="s">
-        <v>145</v>
-      </c>
-      <c r="D3" s="96" t="s">
-        <v>118</v>
-      </c>
-      <c r="E3" s="95" t="s">
-        <v>158</v>
-      </c>
-      <c r="F3" s="97" t="s">
-        <v>147</v>
-      </c>
-      <c r="G3" s="98" t="s">
-        <v>148</v>
-      </c>
-      <c r="H3" s="37" t="s">
-        <v>149</v>
-      </c>
-      <c r="I3" s="40" t="s">
-        <v>150</v>
-      </c>
-      <c r="J3" s="99" t="s">
-        <v>159</v>
-      </c>
-      <c r="K3" s="42" t="s">
-        <v>152</v>
-      </c>
-      <c r="L3" s="100" t="s">
-        <v>160</v>
-      </c>
-      <c r="M3" s="99" t="s">
-        <v>161</v>
-      </c>
-      <c r="N3" s="99" t="s">
-        <v>155</v>
-      </c>
-      <c r="O3" s="101" t="s">
-        <v>162</v>
-      </c>
-      <c r="P3" s="102" t="s">
-        <v>150</v>
-      </c>
-      <c r="Q3" s="101" t="s">
-        <v>157</v>
-      </c>
-      <c r="R3" s="101"/>
-    </row>
-    <row r="4" spans="1:18" ht="30" customHeight="1">
+      <c r="R3" s="92"/>
+    </row>
+    <row r="4" spans="1:18" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="32"/>
       <c r="B4" s="33"/>
       <c r="C4" s="33"/>
@@ -6772,34 +6995,34 @@
       <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="2" max="2" width="12.125" customWidth="1"/>
-    <col min="3" max="3" width="15.125" customWidth="1"/>
-    <col min="4" max="4" width="23.125" customWidth="1"/>
-    <col min="5" max="5" width="25.625" customWidth="1"/>
-    <col min="6" max="6" width="19.625" customWidth="1"/>
-    <col min="7" max="7" width="11.375" customWidth="1"/>
-    <col min="8" max="8" width="12.375" customWidth="1"/>
-    <col min="9" max="9" width="10.375" customWidth="1"/>
+    <col min="2" max="2" width="12.1640625" customWidth="1"/>
+    <col min="3" max="3" width="15.1640625" customWidth="1"/>
+    <col min="4" max="4" width="23.1640625" customWidth="1"/>
+    <col min="5" max="5" width="25.6640625" customWidth="1"/>
+    <col min="6" max="6" width="19.6640625" customWidth="1"/>
+    <col min="7" max="7" width="11.33203125" customWidth="1"/>
+    <col min="8" max="8" width="12.33203125" customWidth="1"/>
+    <col min="9" max="9" width="10.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="20.25">
-      <c r="A1" s="84" t="s">
+    <row r="1" spans="1:11" ht="17" x14ac:dyDescent="0.15">
+      <c r="A1" s="95" t="s">
         <v>39</v>
       </c>
-      <c r="B1" s="85"/>
-      <c r="C1" s="85"/>
-      <c r="D1" s="85"/>
-      <c r="E1" s="85"/>
-      <c r="F1" s="85"/>
-      <c r="G1" s="85"/>
-      <c r="H1" s="85"/>
-      <c r="I1" s="85"/>
-      <c r="J1" s="85"/>
-      <c r="K1" s="85"/>
-    </row>
-    <row r="2" spans="1:11" ht="17.25">
+      <c r="B1" s="96"/>
+      <c r="C1" s="96"/>
+      <c r="D1" s="96"/>
+      <c r="E1" s="96"/>
+      <c r="F1" s="96"/>
+      <c r="G1" s="96"/>
+      <c r="H1" s="96"/>
+      <c r="I1" s="96"/>
+      <c r="J1" s="96"/>
+      <c r="K1" s="96"/>
+    </row>
+    <row r="2" spans="1:11" ht="15" x14ac:dyDescent="0.15">
       <c r="A2" s="18" t="s">
         <v>40</v>
       </c>
@@ -6834,9 +7057,9 @@
         <v>22</v>
       </c>
     </row>
-    <row r="3" spans="1:11" ht="17.25">
-      <c r="A3" s="86"/>
-      <c r="B3" s="86"/>
+    <row r="3" spans="1:11" ht="15" x14ac:dyDescent="0.15">
+      <c r="A3" s="97"/>
+      <c r="B3" s="97"/>
       <c r="C3" s="20"/>
       <c r="D3" s="21"/>
       <c r="E3" s="21"/>
@@ -6847,9 +7070,9 @@
       <c r="J3" s="27"/>
       <c r="K3" s="28"/>
     </row>
-    <row r="4" spans="1:11" ht="17.25">
-      <c r="A4" s="87"/>
-      <c r="B4" s="88"/>
+    <row r="4" spans="1:11" ht="15" x14ac:dyDescent="0.15">
+      <c r="A4" s="98"/>
+      <c r="B4" s="99"/>
       <c r="C4" s="20"/>
       <c r="D4" s="21"/>
       <c r="E4" s="21"/>
@@ -6860,9 +7083,9 @@
       <c r="J4" s="27"/>
       <c r="K4" s="28"/>
     </row>
-    <row r="5" spans="1:11" ht="17.25">
-      <c r="A5" s="86"/>
-      <c r="B5" s="86"/>
+    <row r="5" spans="1:11" ht="15" x14ac:dyDescent="0.15">
+      <c r="A5" s="97"/>
+      <c r="B5" s="97"/>
       <c r="C5" s="20"/>
       <c r="D5" s="21"/>
       <c r="E5" s="21"/>
@@ -6873,9 +7096,9 @@
       <c r="J5" s="27"/>
       <c r="K5" s="28"/>
     </row>
-    <row r="6" spans="1:11" ht="17.25">
-      <c r="A6" s="88"/>
-      <c r="B6" s="88"/>
+    <row r="6" spans="1:11" ht="15" x14ac:dyDescent="0.15">
+      <c r="A6" s="99"/>
+      <c r="B6" s="99"/>
       <c r="C6" s="20"/>
       <c r="D6" s="21"/>
       <c r="E6" s="21"/>
@@ -6886,9 +7109,9 @@
       <c r="J6" s="27"/>
       <c r="K6" s="28"/>
     </row>
-    <row r="7" spans="1:11" ht="17.25">
-      <c r="A7" s="88"/>
-      <c r="B7" s="88"/>
+    <row r="7" spans="1:11" ht="15" x14ac:dyDescent="0.15">
+      <c r="A7" s="99"/>
+      <c r="B7" s="99"/>
       <c r="C7" s="20"/>
       <c r="D7" s="21"/>
       <c r="E7" s="21"/>
@@ -6899,9 +7122,9 @@
       <c r="J7" s="27"/>
       <c r="K7" s="28"/>
     </row>
-    <row r="8" spans="1:11" ht="17.25">
-      <c r="A8" s="88"/>
-      <c r="B8" s="88"/>
+    <row r="8" spans="1:11" ht="15" x14ac:dyDescent="0.15">
+      <c r="A8" s="99"/>
+      <c r="B8" s="99"/>
       <c r="C8" s="20"/>
       <c r="D8" s="21"/>
       <c r="E8" s="21"/>
@@ -6912,9 +7135,9 @@
       <c r="J8" s="27"/>
       <c r="K8" s="28"/>
     </row>
-    <row r="9" spans="1:11" ht="17.25">
-      <c r="A9" s="88"/>
-      <c r="B9" s="88"/>
+    <row r="9" spans="1:11" ht="15" x14ac:dyDescent="0.15">
+      <c r="A9" s="99"/>
+      <c r="B9" s="99"/>
       <c r="C9" s="20"/>
       <c r="D9" s="21"/>
       <c r="E9" s="21"/>
@@ -6925,9 +7148,9 @@
       <c r="J9" s="27"/>
       <c r="K9" s="28"/>
     </row>
-    <row r="10" spans="1:11" ht="17.25">
-      <c r="A10" s="87"/>
-      <c r="B10" s="87"/>
+    <row r="10" spans="1:11" ht="15" x14ac:dyDescent="0.15">
+      <c r="A10" s="98"/>
+      <c r="B10" s="98"/>
       <c r="C10" s="20"/>
       <c r="D10" s="21"/>
       <c r="E10" s="21"/>
@@ -6938,7 +7161,7 @@
       <c r="J10" s="27"/>
       <c r="K10" s="28"/>
     </row>
-    <row r="11" spans="1:11" ht="16.5">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A11" s="22"/>
       <c r="B11" s="22"/>
       <c r="C11" s="20"/>
@@ -6972,54 +7195,54 @@
       <selection activeCell="A5" sqref="A5:L5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="39.5" defaultRowHeight="13.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="39.5" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="4.875" customWidth="1"/>
-    <col min="2" max="3" width="6.375" customWidth="1"/>
+    <col min="1" max="1" width="4.83203125" customWidth="1"/>
+    <col min="2" max="3" width="6.33203125" customWidth="1"/>
     <col min="4" max="4" width="11.5" customWidth="1"/>
-    <col min="5" max="5" width="32.875" customWidth="1"/>
-    <col min="6" max="6" width="4.875" customWidth="1"/>
-    <col min="7" max="7" width="57.125" customWidth="1"/>
-    <col min="8" max="8" width="16.875" customWidth="1"/>
+    <col min="5" max="5" width="32.83203125" customWidth="1"/>
+    <col min="6" max="6" width="4.83203125" customWidth="1"/>
+    <col min="7" max="7" width="57.1640625" customWidth="1"/>
+    <col min="8" max="8" width="16.83203125" customWidth="1"/>
     <col min="9" max="9" width="8" customWidth="1"/>
-    <col min="10" max="11" width="6.375" customWidth="1"/>
+    <col min="10" max="11" width="6.33203125" customWidth="1"/>
     <col min="12" max="12" width="8" customWidth="1"/>
-    <col min="13" max="13" width="32.875" customWidth="1"/>
+    <col min="13" max="13" width="32.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13">
-      <c r="A1" s="89" t="s">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A1" s="100" t="s">
         <v>50</v>
       </c>
-      <c r="B1" s="89"/>
-      <c r="C1" s="89"/>
-      <c r="D1" s="89"/>
-      <c r="E1" s="89"/>
-      <c r="F1" s="89"/>
-      <c r="G1" s="89"/>
-      <c r="H1" s="89"/>
-      <c r="I1" s="89"/>
-      <c r="J1" s="89"/>
-      <c r="K1" s="89"/>
-      <c r="L1" s="89"/>
-      <c r="M1" s="90"/>
-    </row>
-    <row r="2" spans="1:13">
-      <c r="A2" s="91"/>
-      <c r="B2" s="91"/>
-      <c r="C2" s="91"/>
-      <c r="D2" s="91"/>
-      <c r="E2" s="91"/>
-      <c r="F2" s="91"/>
-      <c r="G2" s="91"/>
-      <c r="H2" s="91"/>
-      <c r="I2" s="91"/>
-      <c r="J2" s="91"/>
-      <c r="K2" s="91"/>
-      <c r="L2" s="91"/>
-      <c r="M2" s="92"/>
-    </row>
-    <row r="3" spans="1:13" ht="16.5">
+      <c r="B1" s="100"/>
+      <c r="C1" s="100"/>
+      <c r="D1" s="100"/>
+      <c r="E1" s="100"/>
+      <c r="F1" s="100"/>
+      <c r="G1" s="100"/>
+      <c r="H1" s="100"/>
+      <c r="I1" s="100"/>
+      <c r="J1" s="100"/>
+      <c r="K1" s="100"/>
+      <c r="L1" s="100"/>
+      <c r="M1" s="101"/>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A2" s="102"/>
+      <c r="B2" s="102"/>
+      <c r="C2" s="102"/>
+      <c r="D2" s="102"/>
+      <c r="E2" s="102"/>
+      <c r="F2" s="102"/>
+      <c r="G2" s="102"/>
+      <c r="H2" s="102"/>
+      <c r="I2" s="102"/>
+      <c r="J2" s="102"/>
+      <c r="K2" s="102"/>
+      <c r="L2" s="102"/>
+      <c r="M2" s="103"/>
+    </row>
+    <row r="3" spans="1:13" ht="16" x14ac:dyDescent="0.15">
       <c r="A3" s="8" t="s">
         <v>51</v>
       </c>
@@ -7060,7 +7283,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="4" spans="1:13" ht="33">
+    <row r="4" spans="1:13" ht="32" x14ac:dyDescent="0.15">
       <c r="A4" s="9">
         <v>1</v>
       </c>
@@ -7095,7 +7318,7 @@
       </c>
       <c r="M4" s="12"/>
     </row>
-    <row r="5" spans="1:13" ht="49.5">
+    <row r="5" spans="1:13" ht="48" x14ac:dyDescent="0.15">
       <c r="A5" s="80">
         <v>1</v>
       </c>
@@ -7134,7 +7357,7 @@
       </c>
       <c r="M5" s="83"/>
     </row>
-    <row r="6" spans="1:13" ht="16.5">
+    <row r="6" spans="1:13" ht="16" x14ac:dyDescent="0.15">
       <c r="A6" s="9"/>
       <c r="B6" s="13"/>
       <c r="C6" s="13"/>
@@ -7149,7 +7372,7 @@
       <c r="L6" s="13"/>
       <c r="M6" s="9"/>
     </row>
-    <row r="7" spans="1:13" ht="16.5">
+    <row r="7" spans="1:13" ht="16" x14ac:dyDescent="0.15">
       <c r="A7" s="9"/>
       <c r="B7" s="10"/>
       <c r="C7" s="10"/>
@@ -7164,7 +7387,7 @@
       <c r="L7" s="10"/>
       <c r="M7" s="17"/>
     </row>
-    <row r="8" spans="1:13" ht="16.5">
+    <row r="8" spans="1:13" ht="16" x14ac:dyDescent="0.15">
       <c r="A8" s="9"/>
       <c r="B8" s="10"/>
       <c r="C8" s="10"/>
@@ -7179,7 +7402,7 @@
       <c r="L8" s="9"/>
       <c r="M8" s="12"/>
     </row>
-    <row r="9" spans="1:13" ht="16.5">
+    <row r="9" spans="1:13" ht="16" x14ac:dyDescent="0.15">
       <c r="A9" s="9"/>
       <c r="B9" s="9"/>
       <c r="C9" s="9"/>
@@ -7194,7 +7417,7 @@
       <c r="L9" s="9"/>
       <c r="M9" s="9"/>
     </row>
-    <row r="10" spans="1:13" ht="16.5">
+    <row r="10" spans="1:13" ht="16" x14ac:dyDescent="0.15">
       <c r="A10" s="9"/>
       <c r="B10" s="9"/>
       <c r="C10" s="9"/>
@@ -7209,7 +7432,7 @@
       <c r="L10" s="9"/>
       <c r="M10" s="9"/>
     </row>
-    <row r="11" spans="1:13" ht="16.5">
+    <row r="11" spans="1:13" ht="16" x14ac:dyDescent="0.15">
       <c r="A11" s="9"/>
       <c r="B11" s="9"/>
       <c r="C11" s="9"/>
@@ -7224,7 +7447,7 @@
       <c r="L11" s="9"/>
       <c r="M11" s="9"/>
     </row>
-    <row r="12" spans="1:13" ht="16.5">
+    <row r="12" spans="1:13" ht="16" x14ac:dyDescent="0.15">
       <c r="A12" s="9"/>
       <c r="B12" s="9"/>
       <c r="C12" s="9"/>
@@ -7239,7 +7462,7 @@
       <c r="L12" s="9"/>
       <c r="M12" s="9"/>
     </row>
-    <row r="13" spans="1:13" ht="16.5">
+    <row r="13" spans="1:13" ht="16" x14ac:dyDescent="0.15">
       <c r="A13" s="9"/>
       <c r="B13" s="9"/>
       <c r="C13" s="9"/>
@@ -7254,7 +7477,7 @@
       <c r="L13" s="9"/>
       <c r="M13" s="9"/>
     </row>
-    <row r="14" spans="1:13" ht="16.5">
+    <row r="14" spans="1:13" ht="16" x14ac:dyDescent="0.15">
       <c r="A14" s="9"/>
       <c r="B14" s="9"/>
       <c r="C14" s="9"/>
@@ -7269,7 +7492,7 @@
       <c r="L14" s="9"/>
       <c r="M14" s="9"/>
     </row>
-    <row r="15" spans="1:13" ht="16.5">
+    <row r="15" spans="1:13" ht="16" x14ac:dyDescent="0.15">
       <c r="A15" s="9"/>
       <c r="B15" s="9"/>
       <c r="C15" s="9"/>
@@ -7284,7 +7507,7 @@
       <c r="L15" s="9"/>
       <c r="M15" s="9"/>
     </row>
-    <row r="16" spans="1:13" ht="16.5">
+    <row r="16" spans="1:13" ht="16" x14ac:dyDescent="0.15">
       <c r="A16" s="9"/>
       <c r="B16" s="9"/>
       <c r="C16" s="9"/>
@@ -7331,54 +7554,54 @@
       <selection activeCell="A5" sqref="A5:L5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="39.5" defaultRowHeight="13.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="39.5" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="4.875" customWidth="1"/>
-    <col min="2" max="3" width="6.375" customWidth="1"/>
+    <col min="1" max="1" width="4.83203125" customWidth="1"/>
+    <col min="2" max="3" width="6.33203125" customWidth="1"/>
     <col min="4" max="4" width="11.5" customWidth="1"/>
-    <col min="5" max="5" width="32.875" customWidth="1"/>
-    <col min="6" max="6" width="4.875" customWidth="1"/>
-    <col min="7" max="7" width="57.125" customWidth="1"/>
-    <col min="8" max="8" width="16.875" customWidth="1"/>
+    <col min="5" max="5" width="32.83203125" customWidth="1"/>
+    <col min="6" max="6" width="4.83203125" customWidth="1"/>
+    <col min="7" max="7" width="57.1640625" customWidth="1"/>
+    <col min="8" max="8" width="16.83203125" customWidth="1"/>
     <col min="9" max="9" width="8" customWidth="1"/>
-    <col min="10" max="11" width="6.375" customWidth="1"/>
+    <col min="10" max="11" width="6.33203125" customWidth="1"/>
     <col min="12" max="12" width="8" customWidth="1"/>
-    <col min="13" max="13" width="32.875" customWidth="1"/>
+    <col min="13" max="13" width="32.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13">
-      <c r="A1" s="89" t="s">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A1" s="100" t="s">
         <v>50</v>
       </c>
-      <c r="B1" s="89"/>
-      <c r="C1" s="89"/>
-      <c r="D1" s="89"/>
-      <c r="E1" s="89"/>
-      <c r="F1" s="89"/>
-      <c r="G1" s="89"/>
-      <c r="H1" s="89"/>
-      <c r="I1" s="89"/>
-      <c r="J1" s="89"/>
-      <c r="K1" s="89"/>
-      <c r="L1" s="89"/>
-      <c r="M1" s="90"/>
-    </row>
-    <row r="2" spans="1:13">
-      <c r="A2" s="91"/>
-      <c r="B2" s="91"/>
-      <c r="C2" s="91"/>
-      <c r="D2" s="91"/>
-      <c r="E2" s="91"/>
-      <c r="F2" s="91"/>
-      <c r="G2" s="91"/>
-      <c r="H2" s="91"/>
-      <c r="I2" s="91"/>
-      <c r="J2" s="91"/>
-      <c r="K2" s="91"/>
-      <c r="L2" s="91"/>
-      <c r="M2" s="92"/>
-    </row>
-    <row r="3" spans="1:13" ht="16.5">
+      <c r="B1" s="100"/>
+      <c r="C1" s="100"/>
+      <c r="D1" s="100"/>
+      <c r="E1" s="100"/>
+      <c r="F1" s="100"/>
+      <c r="G1" s="100"/>
+      <c r="H1" s="100"/>
+      <c r="I1" s="100"/>
+      <c r="J1" s="100"/>
+      <c r="K1" s="100"/>
+      <c r="L1" s="100"/>
+      <c r="M1" s="101"/>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A2" s="102"/>
+      <c r="B2" s="102"/>
+      <c r="C2" s="102"/>
+      <c r="D2" s="102"/>
+      <c r="E2" s="102"/>
+      <c r="F2" s="102"/>
+      <c r="G2" s="102"/>
+      <c r="H2" s="102"/>
+      <c r="I2" s="102"/>
+      <c r="J2" s="102"/>
+      <c r="K2" s="102"/>
+      <c r="L2" s="102"/>
+      <c r="M2" s="103"/>
+    </row>
+    <row r="3" spans="1:13" ht="16" x14ac:dyDescent="0.15">
       <c r="A3" s="8" t="s">
         <v>51</v>
       </c>
@@ -7419,7 +7642,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="4" spans="1:13" ht="33">
+    <row r="4" spans="1:13" ht="32" x14ac:dyDescent="0.15">
       <c r="A4" s="9">
         <v>1</v>
       </c>
@@ -7454,7 +7677,7 @@
       </c>
       <c r="M4" s="12"/>
     </row>
-    <row r="5" spans="1:13" ht="49.5">
+    <row r="5" spans="1:13" ht="48" x14ac:dyDescent="0.15">
       <c r="A5" s="80">
         <v>1</v>
       </c>
@@ -7493,7 +7716,7 @@
       </c>
       <c r="M5" s="83"/>
     </row>
-    <row r="6" spans="1:13" ht="16.5">
+    <row r="6" spans="1:13" ht="16" x14ac:dyDescent="0.15">
       <c r="A6" s="9"/>
       <c r="B6" s="13"/>
       <c r="C6" s="13"/>
@@ -7508,7 +7731,7 @@
       <c r="L6" s="13"/>
       <c r="M6" s="9"/>
     </row>
-    <row r="7" spans="1:13" ht="16.5">
+    <row r="7" spans="1:13" ht="16" x14ac:dyDescent="0.15">
       <c r="A7" s="9"/>
       <c r="B7" s="10"/>
       <c r="C7" s="10"/>
@@ -7523,7 +7746,7 @@
       <c r="L7" s="10"/>
       <c r="M7" s="17"/>
     </row>
-    <row r="8" spans="1:13" ht="16.5">
+    <row r="8" spans="1:13" ht="16" x14ac:dyDescent="0.15">
       <c r="A8" s="9"/>
       <c r="B8" s="10"/>
       <c r="C8" s="10"/>
@@ -7538,7 +7761,7 @@
       <c r="L8" s="9"/>
       <c r="M8" s="12"/>
     </row>
-    <row r="9" spans="1:13" ht="16.5">
+    <row r="9" spans="1:13" ht="16" x14ac:dyDescent="0.15">
       <c r="A9" s="9"/>
       <c r="B9" s="9"/>
       <c r="C9" s="9"/>
@@ -7553,7 +7776,7 @@
       <c r="L9" s="9"/>
       <c r="M9" s="9"/>
     </row>
-    <row r="10" spans="1:13" ht="16.5">
+    <row r="10" spans="1:13" ht="16" x14ac:dyDescent="0.15">
       <c r="A10" s="9"/>
       <c r="B10" s="9"/>
       <c r="C10" s="9"/>
@@ -7568,7 +7791,7 @@
       <c r="L10" s="9"/>
       <c r="M10" s="9"/>
     </row>
-    <row r="11" spans="1:13" ht="16.5">
+    <row r="11" spans="1:13" ht="16" x14ac:dyDescent="0.15">
       <c r="A11" s="9"/>
       <c r="B11" s="9"/>
       <c r="C11" s="9"/>
@@ -7583,7 +7806,7 @@
       <c r="L11" s="9"/>
       <c r="M11" s="9"/>
     </row>
-    <row r="12" spans="1:13" ht="16.5">
+    <row r="12" spans="1:13" ht="16" x14ac:dyDescent="0.15">
       <c r="A12" s="9"/>
       <c r="B12" s="9"/>
       <c r="C12" s="9"/>
@@ -7598,7 +7821,7 @@
       <c r="L12" s="9"/>
       <c r="M12" s="9"/>
     </row>
-    <row r="13" spans="1:13" ht="16.5">
+    <row r="13" spans="1:13" ht="16" x14ac:dyDescent="0.15">
       <c r="A13" s="9"/>
       <c r="B13" s="9"/>
       <c r="C13" s="9"/>
@@ -7613,7 +7836,7 @@
       <c r="L13" s="9"/>
       <c r="M13" s="9"/>
     </row>
-    <row r="14" spans="1:13" ht="16.5">
+    <row r="14" spans="1:13" ht="16" x14ac:dyDescent="0.15">
       <c r="A14" s="9"/>
       <c r="B14" s="9"/>
       <c r="C14" s="9"/>
@@ -7628,7 +7851,7 @@
       <c r="L14" s="9"/>
       <c r="M14" s="9"/>
     </row>
-    <row r="15" spans="1:13" ht="16.5">
+    <row r="15" spans="1:13" ht="16" x14ac:dyDescent="0.15">
       <c r="A15" s="9"/>
       <c r="B15" s="9"/>
       <c r="C15" s="9"/>
@@ -7643,7 +7866,7 @@
       <c r="L15" s="9"/>
       <c r="M15" s="9"/>
     </row>
-    <row r="16" spans="1:13" ht="16.5">
+    <row r="16" spans="1:13" ht="16" x14ac:dyDescent="0.15">
       <c r="A16" s="9"/>
       <c r="B16" s="9"/>
       <c r="C16" s="9"/>
@@ -7689,54 +7912,54 @@
       <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="39.5" defaultRowHeight="13.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="39.5" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="4.875" customWidth="1"/>
-    <col min="2" max="3" width="6.375" customWidth="1"/>
+    <col min="1" max="1" width="4.83203125" customWidth="1"/>
+    <col min="2" max="3" width="6.33203125" customWidth="1"/>
     <col min="4" max="4" width="11.5" customWidth="1"/>
-    <col min="5" max="5" width="32.875" customWidth="1"/>
-    <col min="6" max="6" width="4.875" customWidth="1"/>
-    <col min="7" max="7" width="57.125" customWidth="1"/>
-    <col min="8" max="8" width="16.875" customWidth="1"/>
+    <col min="5" max="5" width="32.83203125" customWidth="1"/>
+    <col min="6" max="6" width="4.83203125" customWidth="1"/>
+    <col min="7" max="7" width="57.1640625" customWidth="1"/>
+    <col min="8" max="8" width="16.83203125" customWidth="1"/>
     <col min="9" max="9" width="8" customWidth="1"/>
-    <col min="10" max="11" width="6.375" customWidth="1"/>
+    <col min="10" max="11" width="6.33203125" customWidth="1"/>
     <col min="12" max="12" width="8" customWidth="1"/>
-    <col min="13" max="13" width="32.875" customWidth="1"/>
+    <col min="13" max="13" width="32.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13">
-      <c r="A1" s="89" t="s">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A1" s="100" t="s">
         <v>50</v>
       </c>
-      <c r="B1" s="89"/>
-      <c r="C1" s="89"/>
-      <c r="D1" s="89"/>
-      <c r="E1" s="89"/>
-      <c r="F1" s="89"/>
-      <c r="G1" s="89"/>
-      <c r="H1" s="89"/>
-      <c r="I1" s="89"/>
-      <c r="J1" s="89"/>
-      <c r="K1" s="89"/>
-      <c r="L1" s="89"/>
-      <c r="M1" s="90"/>
-    </row>
-    <row r="2" spans="1:13">
-      <c r="A2" s="91"/>
-      <c r="B2" s="91"/>
-      <c r="C2" s="91"/>
-      <c r="D2" s="91"/>
-      <c r="E2" s="91"/>
-      <c r="F2" s="91"/>
-      <c r="G2" s="91"/>
-      <c r="H2" s="91"/>
-      <c r="I2" s="91"/>
-      <c r="J2" s="91"/>
-      <c r="K2" s="91"/>
-      <c r="L2" s="91"/>
-      <c r="M2" s="92"/>
-    </row>
-    <row r="3" spans="1:13" ht="16.5">
+      <c r="B1" s="100"/>
+      <c r="C1" s="100"/>
+      <c r="D1" s="100"/>
+      <c r="E1" s="100"/>
+      <c r="F1" s="100"/>
+      <c r="G1" s="100"/>
+      <c r="H1" s="100"/>
+      <c r="I1" s="100"/>
+      <c r="J1" s="100"/>
+      <c r="K1" s="100"/>
+      <c r="L1" s="100"/>
+      <c r="M1" s="101"/>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A2" s="102"/>
+      <c r="B2" s="102"/>
+      <c r="C2" s="102"/>
+      <c r="D2" s="102"/>
+      <c r="E2" s="102"/>
+      <c r="F2" s="102"/>
+      <c r="G2" s="102"/>
+      <c r="H2" s="102"/>
+      <c r="I2" s="102"/>
+      <c r="J2" s="102"/>
+      <c r="K2" s="102"/>
+      <c r="L2" s="102"/>
+      <c r="M2" s="103"/>
+    </row>
+    <row r="3" spans="1:13" ht="16" x14ac:dyDescent="0.15">
       <c r="A3" s="8" t="s">
         <v>51</v>
       </c>
@@ -7777,7 +8000,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="4" spans="1:13" ht="33">
+    <row r="4" spans="1:13" ht="32" x14ac:dyDescent="0.15">
       <c r="A4" s="9">
         <v>1</v>
       </c>
@@ -7812,7 +8035,7 @@
       </c>
       <c r="M4" s="12"/>
     </row>
-    <row r="5" spans="1:13" ht="49.5">
+    <row r="5" spans="1:13" ht="48" x14ac:dyDescent="0.15">
       <c r="A5" s="80">
         <v>1</v>
       </c>
@@ -7851,7 +8074,7 @@
       </c>
       <c r="M5" s="83"/>
     </row>
-    <row r="6" spans="1:13" ht="16.5">
+    <row r="6" spans="1:13" ht="16" x14ac:dyDescent="0.15">
       <c r="A6" s="9"/>
       <c r="B6" s="13"/>
       <c r="C6" s="13"/>
@@ -7866,7 +8089,7 @@
       <c r="L6" s="13"/>
       <c r="M6" s="9"/>
     </row>
-    <row r="7" spans="1:13" ht="16.5">
+    <row r="7" spans="1:13" ht="16" x14ac:dyDescent="0.15">
       <c r="A7" s="9"/>
       <c r="B7" s="10"/>
       <c r="C7" s="10"/>
@@ -7881,7 +8104,7 @@
       <c r="L7" s="10"/>
       <c r="M7" s="17"/>
     </row>
-    <row r="8" spans="1:13" ht="16.5">
+    <row r="8" spans="1:13" ht="16" x14ac:dyDescent="0.15">
       <c r="A8" s="9"/>
       <c r="B8" s="10"/>
       <c r="C8" s="10"/>
@@ -7896,7 +8119,7 @@
       <c r="L8" s="9"/>
       <c r="M8" s="12"/>
     </row>
-    <row r="9" spans="1:13" ht="16.5">
+    <row r="9" spans="1:13" ht="16" x14ac:dyDescent="0.15">
       <c r="A9" s="9"/>
       <c r="B9" s="9"/>
       <c r="C9" s="9"/>
@@ -7911,7 +8134,7 @@
       <c r="L9" s="9"/>
       <c r="M9" s="9"/>
     </row>
-    <row r="10" spans="1:13" ht="16.5">
+    <row r="10" spans="1:13" ht="16" x14ac:dyDescent="0.15">
       <c r="A10" s="9"/>
       <c r="B10" s="9"/>
       <c r="C10" s="9"/>
@@ -7926,7 +8149,7 @@
       <c r="L10" s="9"/>
       <c r="M10" s="9"/>
     </row>
-    <row r="11" spans="1:13" ht="16.5">
+    <row r="11" spans="1:13" ht="16" x14ac:dyDescent="0.15">
       <c r="A11" s="9"/>
       <c r="B11" s="9"/>
       <c r="C11" s="9"/>
@@ -7941,7 +8164,7 @@
       <c r="L11" s="9"/>
       <c r="M11" s="9"/>
     </row>
-    <row r="12" spans="1:13" ht="16.5">
+    <row r="12" spans="1:13" ht="16" x14ac:dyDescent="0.15">
       <c r="A12" s="9"/>
       <c r="B12" s="9"/>
       <c r="C12" s="9"/>
@@ -7956,7 +8179,7 @@
       <c r="L12" s="9"/>
       <c r="M12" s="9"/>
     </row>
-    <row r="13" spans="1:13" ht="16.5">
+    <row r="13" spans="1:13" ht="16" x14ac:dyDescent="0.15">
       <c r="A13" s="9"/>
       <c r="B13" s="9"/>
       <c r="C13" s="9"/>
@@ -7971,7 +8194,7 @@
       <c r="L13" s="9"/>
       <c r="M13" s="9"/>
     </row>
-    <row r="14" spans="1:13" ht="16.5">
+    <row r="14" spans="1:13" ht="16" x14ac:dyDescent="0.15">
       <c r="A14" s="9"/>
       <c r="B14" s="9"/>
       <c r="C14" s="9"/>
@@ -7986,7 +8209,7 @@
       <c r="L14" s="9"/>
       <c r="M14" s="9"/>
     </row>
-    <row r="15" spans="1:13" ht="16.5">
+    <row r="15" spans="1:13" ht="16" x14ac:dyDescent="0.15">
       <c r="A15" s="9"/>
       <c r="B15" s="9"/>
       <c r="C15" s="9"/>
@@ -8001,7 +8224,7 @@
       <c r="L15" s="9"/>
       <c r="M15" s="9"/>
     </row>
-    <row r="16" spans="1:13" ht="16.5">
+    <row r="16" spans="1:13" ht="16" x14ac:dyDescent="0.15">
       <c r="A16" s="9"/>
       <c r="B16" s="9"/>
       <c r="C16" s="9"/>
@@ -8047,56 +8270,56 @@
       <selection activeCell="G29" sqref="G29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="39.5" defaultRowHeight="13.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="39.5" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="4.875" customWidth="1"/>
-    <col min="2" max="2" width="10.125" customWidth="1"/>
-    <col min="3" max="3" width="10.625" customWidth="1"/>
-    <col min="4" max="4" width="19.625" customWidth="1"/>
-    <col min="5" max="5" width="19.375" customWidth="1"/>
-    <col min="6" max="6" width="7.875" customWidth="1"/>
-    <col min="7" max="7" width="57.125" customWidth="1"/>
-    <col min="8" max="8" width="16.875" customWidth="1"/>
+    <col min="1" max="1" width="4.83203125" customWidth="1"/>
+    <col min="2" max="2" width="10.1640625" customWidth="1"/>
+    <col min="3" max="3" width="10.6640625" customWidth="1"/>
+    <col min="4" max="4" width="19.6640625" customWidth="1"/>
+    <col min="5" max="5" width="19.33203125" customWidth="1"/>
+    <col min="6" max="6" width="7.83203125" customWidth="1"/>
+    <col min="7" max="7" width="57.1640625" customWidth="1"/>
+    <col min="8" max="8" width="16.83203125" customWidth="1"/>
     <col min="9" max="9" width="8" customWidth="1"/>
-    <col min="10" max="10" width="7.875" customWidth="1"/>
+    <col min="10" max="10" width="7.83203125" customWidth="1"/>
     <col min="11" max="11" width="7.5" customWidth="1"/>
     <col min="12" max="12" width="8" customWidth="1"/>
-    <col min="13" max="13" width="32.875" customWidth="1"/>
+    <col min="13" max="13" width="32.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13">
-      <c r="A1" s="89" t="s">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A1" s="100" t="s">
         <v>50</v>
       </c>
-      <c r="B1" s="89"/>
-      <c r="C1" s="89"/>
-      <c r="D1" s="89"/>
-      <c r="E1" s="89"/>
-      <c r="F1" s="89"/>
-      <c r="G1" s="89"/>
-      <c r="H1" s="89"/>
-      <c r="I1" s="89"/>
-      <c r="J1" s="89"/>
-      <c r="K1" s="89"/>
-      <c r="L1" s="89"/>
-      <c r="M1" s="90"/>
-    </row>
-    <row r="2" spans="1:13">
-      <c r="A2" s="91"/>
-      <c r="B2" s="91"/>
-      <c r="C2" s="91"/>
-      <c r="D2" s="91"/>
-      <c r="E2" s="91"/>
-      <c r="F2" s="91"/>
-      <c r="G2" s="91"/>
-      <c r="H2" s="91"/>
-      <c r="I2" s="91"/>
-      <c r="J2" s="91"/>
-      <c r="K2" s="91"/>
-      <c r="L2" s="91"/>
-      <c r="M2" s="92"/>
-    </row>
-    <row r="3" spans="1:13" ht="16.5">
+      <c r="B1" s="100"/>
+      <c r="C1" s="100"/>
+      <c r="D1" s="100"/>
+      <c r="E1" s="100"/>
+      <c r="F1" s="100"/>
+      <c r="G1" s="100"/>
+      <c r="H1" s="100"/>
+      <c r="I1" s="100"/>
+      <c r="J1" s="100"/>
+      <c r="K1" s="100"/>
+      <c r="L1" s="100"/>
+      <c r="M1" s="101"/>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A2" s="102"/>
+      <c r="B2" s="102"/>
+      <c r="C2" s="102"/>
+      <c r="D2" s="102"/>
+      <c r="E2" s="102"/>
+      <c r="F2" s="102"/>
+      <c r="G2" s="102"/>
+      <c r="H2" s="102"/>
+      <c r="I2" s="102"/>
+      <c r="J2" s="102"/>
+      <c r="K2" s="102"/>
+      <c r="L2" s="102"/>
+      <c r="M2" s="103"/>
+    </row>
+    <row r="3" spans="1:13" ht="16" x14ac:dyDescent="0.15">
       <c r="A3" s="8" t="s">
         <v>51</v>
       </c>
@@ -8137,7 +8360,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="4" spans="1:13" ht="16.5">
+    <row r="4" spans="1:13" ht="16" x14ac:dyDescent="0.15">
       <c r="A4" s="9"/>
       <c r="B4" s="9"/>
       <c r="C4" s="9"/>
@@ -8152,7 +8375,7 @@
       <c r="L4" s="9"/>
       <c r="M4" s="12"/>
     </row>
-    <row r="5" spans="1:13" ht="16.5">
+    <row r="5" spans="1:13" ht="16" x14ac:dyDescent="0.15">
       <c r="A5" s="9"/>
       <c r="B5" s="9"/>
       <c r="C5" s="9"/>
@@ -8167,7 +8390,7 @@
       <c r="L5" s="9"/>
       <c r="M5" s="12"/>
     </row>
-    <row r="6" spans="1:13" ht="16.5">
+    <row r="6" spans="1:13" ht="16" x14ac:dyDescent="0.15">
       <c r="A6" s="9"/>
       <c r="B6" s="9"/>
       <c r="C6" s="9"/>
@@ -8182,7 +8405,7 @@
       <c r="L6" s="13"/>
       <c r="M6" s="9"/>
     </row>
-    <row r="7" spans="1:13" ht="16.5">
+    <row r="7" spans="1:13" ht="16" x14ac:dyDescent="0.15">
       <c r="A7" s="9"/>
       <c r="B7" s="10"/>
       <c r="C7" s="10"/>
@@ -8197,7 +8420,7 @@
       <c r="L7" s="10"/>
       <c r="M7" s="17"/>
     </row>
-    <row r="8" spans="1:13" ht="16.5">
+    <row r="8" spans="1:13" ht="16" x14ac:dyDescent="0.15">
       <c r="A8" s="9"/>
       <c r="B8" s="10"/>
       <c r="C8" s="10"/>
@@ -8212,7 +8435,7 @@
       <c r="L8" s="9"/>
       <c r="M8" s="12"/>
     </row>
-    <row r="9" spans="1:13" ht="16.5">
+    <row r="9" spans="1:13" ht="16" x14ac:dyDescent="0.15">
       <c r="A9" s="9"/>
       <c r="B9" s="9"/>
       <c r="C9" s="9"/>
@@ -8227,7 +8450,7 @@
       <c r="L9" s="9"/>
       <c r="M9" s="9"/>
     </row>
-    <row r="10" spans="1:13" ht="16.5">
+    <row r="10" spans="1:13" ht="16" x14ac:dyDescent="0.15">
       <c r="A10" s="9"/>
       <c r="B10" s="9"/>
       <c r="C10" s="9"/>
@@ -8242,7 +8465,7 @@
       <c r="L10" s="9"/>
       <c r="M10" s="9"/>
     </row>
-    <row r="11" spans="1:13" ht="16.5">
+    <row r="11" spans="1:13" ht="16" x14ac:dyDescent="0.15">
       <c r="A11" s="9"/>
       <c r="B11" s="9"/>
       <c r="C11" s="9"/>
@@ -8257,7 +8480,7 @@
       <c r="L11" s="9"/>
       <c r="M11" s="9"/>
     </row>
-    <row r="12" spans="1:13" ht="16.5">
+    <row r="12" spans="1:13" ht="16" x14ac:dyDescent="0.15">
       <c r="A12" s="9"/>
       <c r="B12" s="9"/>
       <c r="C12" s="9"/>
@@ -8272,7 +8495,7 @@
       <c r="L12" s="9"/>
       <c r="M12" s="9"/>
     </row>
-    <row r="13" spans="1:13" ht="16.5">
+    <row r="13" spans="1:13" ht="16" x14ac:dyDescent="0.15">
       <c r="A13" s="9"/>
       <c r="B13" s="9"/>
       <c r="C13" s="9"/>
@@ -8287,7 +8510,7 @@
       <c r="L13" s="9"/>
       <c r="M13" s="9"/>
     </row>
-    <row r="14" spans="1:13" ht="16.5">
+    <row r="14" spans="1:13" ht="16" x14ac:dyDescent="0.15">
       <c r="A14" s="9"/>
       <c r="B14" s="9"/>
       <c r="C14" s="9"/>
@@ -8302,7 +8525,7 @@
       <c r="L14" s="9"/>
       <c r="M14" s="9"/>
     </row>
-    <row r="15" spans="1:13" ht="16.5">
+    <row r="15" spans="1:13" ht="16" x14ac:dyDescent="0.15">
       <c r="A15" s="9"/>
       <c r="B15" s="9"/>
       <c r="C15" s="9"/>
@@ -8317,7 +8540,7 @@
       <c r="L15" s="9"/>
       <c r="M15" s="9"/>
     </row>
-    <row r="16" spans="1:13" ht="16.5">
+    <row r="16" spans="1:13" ht="16" x14ac:dyDescent="0.15">
       <c r="A16" s="9"/>
       <c r="B16" s="9"/>
       <c r="C16" s="9"/>
@@ -8363,18 +8586,18 @@
       <selection activeCell="C34" sqref="C34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="17" customWidth="1"/>
-    <col min="2" max="2" width="43.125" customWidth="1"/>
+    <col min="2" max="2" width="43.1640625" customWidth="1"/>
     <col min="3" max="3" width="13" customWidth="1"/>
     <col min="5" max="5" width="12" customWidth="1"/>
-    <col min="6" max="6" width="20.625" customWidth="1"/>
-    <col min="7" max="7" width="42.125" customWidth="1"/>
-    <col min="8" max="8" width="15.125" customWidth="1"/>
+    <col min="6" max="6" width="20.6640625" customWidth="1"/>
+    <col min="7" max="7" width="42.1640625" customWidth="1"/>
+    <col min="8" max="8" width="15.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A1" s="2" t="s">
         <v>60</v>
       </c>
@@ -8400,7 +8623,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="2" spans="1:8" s="1" customFormat="1">
+    <row r="2" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A2" s="3"/>
       <c r="B2" s="3"/>
       <c r="C2" s="3"/>
@@ -8410,7 +8633,7 @@
       <c r="G2" s="3"/>
       <c r="H2" s="3"/>
     </row>
-    <row r="3" spans="1:8">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A3" s="5"/>
       <c r="B3" s="5"/>
       <c r="C3" s="5"/>
@@ -8420,7 +8643,7 @@
       <c r="G3" s="5"/>
       <c r="H3" s="5"/>
     </row>
-    <row r="4" spans="1:8">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A4" s="5"/>
       <c r="B4" s="5"/>
       <c r="C4" s="5"/>
@@ -8430,7 +8653,7 @@
       <c r="G4" s="5"/>
       <c r="H4" s="5"/>
     </row>
-    <row r="5" spans="1:8">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A5" s="5"/>
       <c r="B5" s="5"/>
       <c r="C5" s="5"/>
@@ -8440,7 +8663,7 @@
       <c r="G5" s="5"/>
       <c r="H5" s="5"/>
     </row>
-    <row r="6" spans="1:8">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A6" s="5"/>
       <c r="B6" s="5"/>
       <c r="C6" s="5"/>
@@ -8450,7 +8673,7 @@
       <c r="G6" s="5"/>
       <c r="H6" s="5"/>
     </row>
-    <row r="7" spans="1:8">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A7" s="5"/>
       <c r="B7" s="5"/>
       <c r="C7" s="5"/>
@@ -8460,7 +8683,7 @@
       <c r="G7" s="5"/>
       <c r="H7" s="5"/>
     </row>
-    <row r="8" spans="1:8">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A8" s="5"/>
       <c r="B8" s="5"/>
       <c r="C8" s="5"/>
@@ -8470,7 +8693,7 @@
       <c r="G8" s="5"/>
       <c r="H8" s="5"/>
     </row>
-    <row r="9" spans="1:8">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A9" s="5"/>
       <c r="B9" s="5"/>
       <c r="C9" s="5"/>
@@ -8480,7 +8703,7 @@
       <c r="G9" s="5"/>
       <c r="H9" s="5"/>
     </row>
-    <row r="10" spans="1:8">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A10" s="5"/>
       <c r="B10" s="5"/>
       <c r="C10" s="5"/>
@@ -8490,7 +8713,7 @@
       <c r="G10" s="5"/>
       <c r="H10" s="5"/>
     </row>
-    <row r="11" spans="1:8">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A11" s="5"/>
       <c r="B11" s="5"/>
       <c r="C11" s="5"/>
@@ -8500,7 +8723,7 @@
       <c r="G11" s="5"/>
       <c r="H11" s="5"/>
     </row>
-    <row r="12" spans="1:8">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A12" s="5"/>
       <c r="B12" s="5"/>
       <c r="C12" s="5"/>
@@ -8510,7 +8733,7 @@
       <c r="G12" s="5"/>
       <c r="H12" s="5"/>
     </row>
-    <row r="13" spans="1:8">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A13" s="5"/>
       <c r="B13" s="5"/>
       <c r="C13" s="5"/>
@@ -8520,7 +8743,7 @@
       <c r="G13" s="5"/>
       <c r="H13" s="5"/>
     </row>
-    <row r="14" spans="1:8">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A14" s="5"/>
       <c r="B14" s="5"/>
       <c r="C14" s="5"/>
@@ -8530,7 +8753,7 @@
       <c r="G14" s="5"/>
       <c r="H14" s="5"/>
     </row>
-    <row r="15" spans="1:8">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A15" s="5"/>
       <c r="B15" s="5"/>
       <c r="C15" s="5"/>
@@ -8540,7 +8763,7 @@
       <c r="G15" s="5"/>
       <c r="H15" s="5"/>
     </row>
-    <row r="16" spans="1:8">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A16" s="5"/>
       <c r="B16" s="5"/>
       <c r="C16" s="5"/>
@@ -8550,7 +8773,7 @@
       <c r="G16" s="5"/>
       <c r="H16" s="5"/>
     </row>
-    <row r="17" spans="1:8">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A17" s="5"/>
       <c r="B17" s="5"/>
       <c r="C17" s="5"/>
@@ -8560,7 +8783,7 @@
       <c r="G17" s="5"/>
       <c r="H17" s="5"/>
     </row>
-    <row r="18" spans="1:8">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A18" s="5"/>
       <c r="B18" s="5"/>
       <c r="C18" s="5"/>
@@ -8570,7 +8793,7 @@
       <c r="G18" s="5"/>
       <c r="H18" s="5"/>
     </row>
-    <row r="19" spans="1:8">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A19" s="5"/>
       <c r="B19" s="5"/>
       <c r="C19" s="5"/>
